--- a/projects/SEB_calibration_PSO_2013.xlsx
+++ b/projects/SEB_calibration_PSO_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="838">
   <si>
     <t>type</t>
   </si>
@@ -2403,12 +2403,6 @@
     <t>Elec EUI</t>
   </si>
   <si>
-    <t>printLevel</t>
-  </si>
-  <si>
-    <t>debugFlag</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
@@ -2536,6 +2530,30 @@
   </si>
   <si>
     <t>FALSE</t>
+  </si>
+  <si>
+    <t>npart</t>
+  </si>
+  <si>
+    <t>maxfn</t>
+  </si>
+  <si>
+    <t>topology</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>abstol</t>
+  </si>
+  <si>
+    <t>reltol</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>spso2011</t>
   </si>
 </sst>
 </file>
@@ -6858,8 +6876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6906,7 +6924,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6917,7 +6935,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -6928,7 +6946,7 @@
         <v>468</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>470</v>
@@ -6999,7 +7017,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>469</v>
@@ -7010,7 +7028,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>652</v>
@@ -7089,7 +7107,7 @@
         <v>449</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7115,144 +7133,129 @@
     </row>
     <row r="24" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
-        <v>559</v>
+        <v>830</v>
       </c>
       <c r="B24" s="30">
         <v>94</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>577</v>
-      </c>
+      <c r="C24" s="30"/>
       <c r="D24" s="35"/>
     </row>
     <row r="25" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B25" s="30">
         <v>7</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>576</v>
-      </c>
+      <c r="C25" s="30"/>
       <c r="D25" s="35"/>
     </row>
     <row r="26" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
-        <v>558</v>
+        <v>831</v>
       </c>
       <c r="B26" s="30">
-        <v>2</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>581</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="C26" s="30"/>
       <c r="D26" s="35"/>
     </row>
     <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B27" s="30">
         <v>0.9</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>579</v>
-      </c>
+      <c r="C27" s="30"/>
       <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B28" s="29">
         <v>1</v>
       </c>
-      <c r="C28" s="31" t="s">
-        <v>580</v>
-      </c>
       <c r="D28" s="35"/>
     </row>
     <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B29" s="29">
         <v>1</v>
       </c>
-      <c r="C29" s="31" t="s">
-        <v>575</v>
-      </c>
       <c r="D29" s="35"/>
     </row>
     <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>801</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>574</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="C30" s="30"/>
       <c r="D30" s="35"/>
     </row>
     <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
-        <v>799</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>573</v>
-      </c>
+        <v>832</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>833</v>
+      </c>
+      <c r="C31" s="30"/>
       <c r="D31" s="35"/>
     </row>
     <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
-        <v>556</v>
-      </c>
-      <c r="B32" s="30">
-        <v>3</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>572</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="30"/>
       <c r="D32" s="35"/>
     </row>
     <row r="33" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="35"/>
     </row>
     <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
-        <v>788</v>
-      </c>
-      <c r="B34" s="30">
-        <v>1</v>
+        <v>834</v>
+      </c>
+      <c r="B34" s="29">
+        <v>0.01</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="35"/>
     </row>
     <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="B35" s="30">
-        <v>3</v>
+        <v>835</v>
+      </c>
+      <c r="B35" s="29">
+        <v>0.01</v>
       </c>
       <c r="C35" s="34"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="30"/>
+      <c r="A36" s="31" t="s">
+        <v>836</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>837</v>
+      </c>
       <c r="C36" s="34"/>
       <c r="D36" s="2"/>
     </row>
@@ -7274,7 +7277,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7302,7 +7305,7 @@
         <v>641</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E41" s="2"/>
     </row>
@@ -7329,7 +7332,7 @@
         <v>643</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7362,7 +7365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
@@ -7527,13 +7530,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>66</v>
@@ -7546,17 +7549,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -7565,7 +7568,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>164</v>
@@ -7575,7 +7578,7 @@
         <v>732</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="J6" s="31"/>
     </row>
@@ -7584,17 +7587,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F7" s="63"/>
       <c r="G7" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J7" s="31"/>
     </row>
@@ -7603,10 +7606,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F8" s="63"/>
       <c r="G8" s="31" t="s">
@@ -7622,17 +7625,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F9" s="63"/>
       <c r="G9" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="J9" s="31"/>
     </row>
@@ -7679,17 +7682,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="J12" s="31"/>
     </row>
@@ -7698,17 +7701,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="J13" s="31"/>
     </row>
@@ -7717,13 +7720,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>66</v>
@@ -7736,17 +7739,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="J15" s="31"/>
     </row>
@@ -7755,7 +7758,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>164</v>
@@ -7765,7 +7768,7 @@
         <v>732</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J16" s="31"/>
     </row>
@@ -7774,17 +7777,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="J17" s="31"/>
     </row>
@@ -7793,10 +7796,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="31" t="s">
@@ -7812,17 +7815,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J19" s="31"/>
     </row>
@@ -7869,17 +7872,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="J22" s="31"/>
     </row>

--- a/projects/SEB_calibration_PSO_2013.xlsx
+++ b/projects/SEB_calibration_PSO_2013.xlsx
@@ -2451,9 +2451,6 @@
     <t>lambda</t>
   </si>
   <si>
-    <t>1.12.5</t>
-  </si>
-  <si>
     <t>AddMonthlyJSONUtilityDataElectric</t>
   </si>
   <si>
@@ -2554,6 +2551,9 @@
   </si>
   <si>
     <t>spso2011</t>
+  </si>
+  <si>
+    <t>1.13.4</t>
   </si>
 </sst>
 </file>
@@ -6876,8 +6876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6935,7 +6935,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>803</v>
+        <v>837</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -7133,7 +7133,7 @@
     </row>
     <row r="24" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B24" s="30">
         <v>94</v>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="26" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B26" s="30">
         <v>3000</v>
@@ -7201,10 +7201,10 @@
     </row>
     <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
+        <v>831</v>
+      </c>
+      <c r="B31" s="31" t="s">
         <v>832</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>833</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="35"/>
@@ -7231,7 +7231,7 @@
     </row>
     <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B34" s="29">
         <v>0.01</v>
@@ -7241,7 +7241,7 @@
     </row>
     <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B35" s="29">
         <v>0.01</v>
@@ -7251,10 +7251,10 @@
     </row>
     <row r="36" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
+        <v>835</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>836</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>837</v>
       </c>
       <c r="C36" s="34"/>
       <c r="D36" s="2"/>
@@ -7530,13 +7530,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
+        <v>803</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>804</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>805</v>
-      </c>
       <c r="D4" s="37" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>66</v>
@@ -7549,17 +7549,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>806</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>807</v>
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -7568,7 +7568,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>164</v>
@@ -7578,7 +7578,7 @@
         <v>732</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J6" s="31"/>
     </row>
@@ -7587,17 +7587,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>811</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>812</v>
       </c>
       <c r="F7" s="63"/>
       <c r="G7" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J7" s="31"/>
     </row>
@@ -7606,10 +7606,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>814</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>815</v>
       </c>
       <c r="F8" s="63"/>
       <c r="G8" s="31" t="s">
@@ -7625,17 +7625,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
+        <v>815</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>816</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>817</v>
       </c>
       <c r="F9" s="63"/>
       <c r="G9" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J9" s="31"/>
     </row>
@@ -7682,17 +7682,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
+        <v>818</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>819</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>820</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J12" s="31"/>
     </row>
@@ -7701,17 +7701,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
+        <v>821</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>822</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>823</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J13" s="31"/>
     </row>
@@ -7720,13 +7720,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>66</v>
@@ -7739,17 +7739,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="E15" s="31" t="s">
         <v>806</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>807</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J15" s="31"/>
     </row>
@@ -7758,7 +7758,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>164</v>
@@ -7768,7 +7768,7 @@
         <v>732</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J16" s="31"/>
     </row>
@@ -7777,17 +7777,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="E17" s="31" t="s">
         <v>811</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>812</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J17" s="31"/>
     </row>
@@ -7796,10 +7796,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="E18" s="31" t="s">
         <v>814</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>815</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="31" t="s">
@@ -7815,17 +7815,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
+        <v>815</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>816</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>817</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J19" s="31"/>
     </row>
@@ -7872,17 +7872,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="31" t="s">
+        <v>818</v>
+      </c>
+      <c r="E22" s="31" t="s">
         <v>819</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>820</v>
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J22" s="31"/>
     </row>

--- a/projects/SEB_calibration_PSO_2013.xlsx
+++ b/projects/SEB_calibration_PSO_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="837">
   <si>
     <t>type</t>
   </si>
@@ -1977,12 +1977,6 @@
     <t>Directory</t>
   </si>
   <si>
-    <t>CalibrationReports</t>
-  </si>
-  <si>
-    <t>Calibration Reports</t>
-  </si>
-  <si>
     <t>Total Electricity Consumption Modeled</t>
   </si>
   <si>
@@ -2010,12 +2004,6 @@
     <t>Lighting Power Reduction</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_consumption_modeled</t>
-  </si>
-  <si>
     <t>Electric Equipment Power Reduction</t>
   </si>
   <si>
@@ -2202,12 +2190,6 @@
     <t>m2</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_rmse</t>
-  </si>
-  <si>
     <t>Electric RMSE</t>
   </si>
   <si>
@@ -2217,27 +2199,15 @@
     <t>Electric CVRMSE</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_consumption_cvrmse</t>
-  </si>
-  <si>
     <t>Electric NMBE</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_consumption_nmbe</t>
-  </si>
-  <si>
     <t>Gas CVRMSE</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_consumption_cvrmse</t>
-  </si>
-  <si>
     <t>Gas NMBE</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_consumption_nmbe</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -2304,27 +2274,15 @@
     <t>Electric CVRMSE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
     <t>Electric NMBE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Gas CVRMSE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
     <t>Gas NMBE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Set Gas Burner Efficiency</t>
   </si>
   <si>
@@ -2553,7 +2511,46 @@
     <t>spso2011</t>
   </si>
   <si>
-    <t>1.13.4</t>
+    <t>CalibrationReportsEnhanced</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>1.14.1</t>
   </si>
 </sst>
 </file>
@@ -6877,7 +6874,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6913,7 +6910,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6924,7 +6921,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6935,7 +6932,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -6946,7 +6943,7 @@
         <v>468</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>470</v>
@@ -7017,7 +7014,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>469</v>
@@ -7028,10 +7025,10 @@
         <v>24</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -7039,10 +7036,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -7107,7 +7104,7 @@
         <v>449</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7133,7 +7130,7 @@
     </row>
     <row r="24" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="B24" s="30">
         <v>94</v>
@@ -7153,7 +7150,7 @@
     </row>
     <row r="26" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="B26" s="30">
         <v>3000</v>
@@ -7163,7 +7160,7 @@
     </row>
     <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="B27" s="30">
         <v>0.9</v>
@@ -7173,7 +7170,7 @@
     </row>
     <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="B28" s="29">
         <v>1</v>
@@ -7182,7 +7179,7 @@
     </row>
     <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="B29" s="29">
         <v>1</v>
@@ -7191,27 +7188,27 @@
     </row>
     <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="35"/>
     </row>
     <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="35"/>
     </row>
     <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="B32" s="29" t="s">
         <v>15</v>
@@ -7221,17 +7218,17 @@
     </row>
     <row r="33" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="35"/>
     </row>
     <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="B34" s="29">
         <v>0.01</v>
@@ -7241,7 +7238,7 @@
     </row>
     <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="B35" s="29">
         <v>0.01</v>
@@ -7251,10 +7248,10 @@
     </row>
     <row r="36" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="C36" s="34"/>
       <c r="D36" s="2"/>
@@ -7264,7 +7261,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>30</v>
@@ -7277,7 +7274,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7291,7 +7288,7 @@
         <v>37</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>447</v>
@@ -7305,7 +7302,7 @@
         <v>641</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="E41" s="2"/>
     </row>
@@ -7317,7 +7314,7 @@
         <v>33</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="13" t="s">
@@ -7332,7 +7329,7 @@
         <v>643</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7367,7 +7364,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,7 +7462,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7530,13 +7527,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>66</v>
@@ -7549,17 +7546,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -7568,17 +7565,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F6" s="63"/>
       <c r="G6" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="J6" s="31"/>
     </row>
@@ -7587,17 +7584,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="F7" s="63"/>
       <c r="G7" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="J7" s="31"/>
     </row>
@@ -7606,17 +7603,17 @@
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="F8" s="63"/>
       <c r="G8" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J8" s="31"/>
     </row>
@@ -7625,17 +7622,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="F9" s="63"/>
       <c r="G9" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="J9" s="31"/>
     </row>
@@ -7644,17 +7641,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="J10" s="31"/>
     </row>
@@ -7663,17 +7660,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="F11" s="63"/>
       <c r="G11" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="J11" s="31"/>
     </row>
@@ -7682,17 +7679,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="J12" s="31"/>
     </row>
@@ -7701,17 +7698,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="J13" s="31"/>
     </row>
@@ -7720,13 +7717,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>66</v>
@@ -7739,17 +7736,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="J15" s="31"/>
     </row>
@@ -7758,17 +7755,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="J16" s="31"/>
     </row>
@@ -7777,17 +7774,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="J17" s="31"/>
     </row>
@@ -7796,17 +7793,17 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J18" s="31"/>
     </row>
@@ -7815,17 +7812,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="J19" s="31"/>
     </row>
@@ -7834,17 +7831,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="J20" s="31"/>
     </row>
@@ -7853,17 +7850,17 @@
         <v>21</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="J21" s="31"/>
     </row>
@@ -7872,17 +7869,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="J22" s="31"/>
     </row>
@@ -7891,13 +7888,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>646</v>
+        <v>823</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>645</v>
+        <v>823</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>645</v>
+        <v>823</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>231</v>
@@ -7949,7 +7946,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>68</v>
@@ -7978,7 +7975,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7986,10 +7983,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F27" s="63"/>
       <c r="G27" s="30" t="s">
@@ -8004,10 +8001,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F28" s="63"/>
       <c r="G28" s="56" t="s">
@@ -8033,7 +8030,7 @@
         <v>0.01</v>
       </c>
       <c r="R28" s="56" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8041,10 +8038,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F29" s="63"/>
       <c r="G29" s="30" t="s">
@@ -8059,10 +8056,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F30" s="64"/>
       <c r="G30" s="30" t="s">
@@ -8179,7 +8176,7 @@
         <v>21</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>44</v>
@@ -8210,7 +8207,7 @@
       </c>
       <c r="Q36" s="55"/>
       <c r="R36" s="52" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8445,7 +8442,7 @@
         <v>22</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E46" s="40" t="s">
         <v>286</v>
@@ -8455,7 +8452,7 @@
         <v>62</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I46" s="40">
         <v>0</v>
@@ -8478,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8486,7 +8483,7 @@
         <v>21</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E47" s="30" t="s">
         <v>46</v>
@@ -8496,7 +8493,7 @@
         <v>62</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I47" s="30">
         <v>0</v>
@@ -8507,7 +8504,7 @@
         <v>21</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E48" s="30" t="s">
         <v>48</v>
@@ -8517,7 +8514,7 @@
         <v>62</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I48" s="30">
         <v>0</v>
@@ -8528,7 +8525,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E49" s="30" t="s">
         <v>50</v>
@@ -8538,7 +8535,7 @@
         <v>63</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I49" s="30">
         <v>0</v>
@@ -8549,7 +8546,7 @@
         <v>21</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E50" s="30" t="s">
         <v>52</v>
@@ -8567,7 +8564,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E51" s="30" t="s">
         <v>54</v>
@@ -8577,7 +8574,7 @@
         <v>63</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I51" s="30">
         <v>15</v>
@@ -8588,7 +8585,7 @@
         <v>21</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>56</v>
@@ -8598,7 +8595,7 @@
         <v>62</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I52" s="30">
         <v>0</v>
@@ -8609,7 +8606,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E53" s="30" t="s">
         <v>58</v>
@@ -8619,7 +8616,7 @@
         <v>63</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I53" s="30">
         <v>1</v>
@@ -8630,13 +8627,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="D54" s="46" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="E54" s="46" t="s">
         <v>66</v>
@@ -8668,17 +8665,17 @@
         <v>22</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="F56" s="50"/>
       <c r="G56" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I56" s="40">
         <v>0.8</v>
@@ -8701,7 +8698,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8727,7 +8724,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>126</v>
@@ -8737,7 +8734,7 @@
         <v>62</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I58" s="30">
         <v>0</v>
@@ -8748,7 +8745,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E59" s="30" t="s">
         <v>48</v>
@@ -8758,7 +8755,7 @@
         <v>62</v>
       </c>
       <c r="H59" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I59" s="30">
         <v>0</v>
@@ -8769,7 +8766,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E60" s="30" t="s">
         <v>50</v>
@@ -8779,7 +8776,7 @@
         <v>63</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I60" s="30">
         <v>0</v>
@@ -8790,7 +8787,7 @@
         <v>21</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E61" s="30" t="s">
         <v>52</v>
@@ -8808,7 +8805,7 @@
         <v>21</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E62" s="30" t="s">
         <v>54</v>
@@ -8818,7 +8815,7 @@
         <v>63</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I62" s="30">
         <v>15</v>
@@ -8829,7 +8826,7 @@
         <v>21</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E63" s="30" t="s">
         <v>56</v>
@@ -8839,7 +8836,7 @@
         <v>62</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I63" s="30">
         <v>0</v>
@@ -8850,7 +8847,7 @@
         <v>21</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E64" s="30" t="s">
         <v>58</v>
@@ -8860,7 +8857,7 @@
         <v>63</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I64" s="30">
         <v>1</v>
@@ -8871,13 +8868,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="D65" s="46" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="E65" s="46" t="s">
         <v>66</v>
@@ -8888,7 +8885,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="E66" s="30" t="s">
         <v>124</v>
@@ -8909,17 +8906,17 @@
         <v>22</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="E67" s="40" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="F67" s="50"/>
       <c r="G67" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H67" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I67" s="40">
         <v>4</v>
@@ -8942,7 +8939,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8968,7 +8965,7 @@
         <v>21</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E69" s="30" t="s">
         <v>126</v>
@@ -8978,7 +8975,7 @@
         <v>62</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I69" s="30">
         <v>0</v>
@@ -8989,7 +8986,7 @@
         <v>21</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>48</v>
@@ -8999,7 +8996,7 @@
         <v>62</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I70" s="30">
         <v>0</v>
@@ -9010,7 +9007,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E71" s="30" t="s">
         <v>50</v>
@@ -9020,7 +9017,7 @@
         <v>63</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I71" s="30">
         <v>0</v>
@@ -9031,7 +9028,7 @@
         <v>21</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E72" s="30" t="s">
         <v>52</v>
@@ -9049,7 +9046,7 @@
         <v>21</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E73" s="30" t="s">
         <v>54</v>
@@ -9059,7 +9056,7 @@
         <v>63</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I73" s="30">
         <v>15</v>
@@ -9070,7 +9067,7 @@
         <v>21</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E74" s="30" t="s">
         <v>56</v>
@@ -9080,7 +9077,7 @@
         <v>62</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I74" s="30">
         <v>0</v>
@@ -9091,7 +9088,7 @@
         <v>21</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E75" s="30" t="s">
         <v>58</v>
@@ -9101,7 +9098,7 @@
         <v>63</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I75" s="30">
         <v>1</v>
@@ -9150,7 +9147,7 @@
         <v>22</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="E78" s="40" t="s">
         <v>243</v>
@@ -9160,7 +9157,7 @@
         <v>62</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I78" s="40">
         <v>0</v>
@@ -9183,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9191,17 +9188,17 @@
         <v>22</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="E79" s="40" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="F79" s="50"/>
       <c r="G79" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H79" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I79" s="40">
         <v>0</v>
@@ -9224,7 +9221,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9250,7 +9247,7 @@
         <v>21</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E81" s="30" t="s">
         <v>126</v>
@@ -9260,7 +9257,7 @@
         <v>62</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I81" s="30">
         <v>0</v>
@@ -9271,7 +9268,7 @@
         <v>21</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E82" s="30" t="s">
         <v>48</v>
@@ -9281,7 +9278,7 @@
         <v>62</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I82" s="30">
         <v>0</v>
@@ -9292,7 +9289,7 @@
         <v>21</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E83" s="30" t="s">
         <v>50</v>
@@ -9302,7 +9299,7 @@
         <v>63</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I83" s="30">
         <v>0</v>
@@ -9313,7 +9310,7 @@
         <v>21</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E84" s="30" t="s">
         <v>52</v>
@@ -9331,7 +9328,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E85" s="30" t="s">
         <v>54</v>
@@ -9341,7 +9338,7 @@
         <v>63</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I85" s="30">
         <v>15</v>
@@ -9352,7 +9349,7 @@
         <v>21</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E86" s="30" t="s">
         <v>56</v>
@@ -9362,7 +9359,7 @@
         <v>62</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I86" s="30">
         <v>0</v>
@@ -9373,7 +9370,7 @@
         <v>21</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E87" s="30" t="s">
         <v>58</v>
@@ -9383,7 +9380,7 @@
         <v>63</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I87" s="30">
         <v>1</v>
@@ -9397,10 +9394,10 @@
         <v>185</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D88" s="46" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E88" s="46" t="s">
         <v>66</v>
@@ -9411,7 +9408,7 @@
         <v>22</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E89" s="40" t="s">
         <v>188</v>
@@ -9421,7 +9418,7 @@
         <v>62</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="I89" s="40">
         <v>0</v>
@@ -9444,7 +9441,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9452,7 +9449,7 @@
         <v>22</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E90" s="40" t="s">
         <v>190</v>
@@ -9462,7 +9459,7 @@
         <v>62</v>
       </c>
       <c r="H90" s="40" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="I90" s="40">
         <v>0</v>
@@ -9485,7 +9482,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9493,7 +9490,7 @@
         <v>21</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>192</v>
@@ -9516,13 +9513,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="49" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="C92" s="49" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="D92" s="49" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="E92" s="46" t="s">
         <v>66</v>
@@ -9548,10 +9545,10 @@
       </c>
       <c r="C93" s="50"/>
       <c r="D93" s="50" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="E93" s="50" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F93" s="50"/>
       <c r="G93" s="50" t="s">
@@ -9581,7 +9578,7 @@
       <c r="P93" s="40"/>
       <c r="Q93" s="40"/>
       <c r="R93" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9591,10 +9588,10 @@
       </c>
       <c r="C94" s="50"/>
       <c r="D94" s="50" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="E94" s="50" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="F94" s="50"/>
       <c r="G94" s="50" t="s">
@@ -9623,7 +9620,7 @@
       <c r="P94" s="40"/>
       <c r="Q94" s="40"/>
       <c r="R94" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9633,10 +9630,10 @@
       </c>
       <c r="C95" s="50"/>
       <c r="D95" s="50" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="E95" s="50" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="F95" s="50"/>
       <c r="G95" s="50" t="s">
@@ -9665,7 +9662,7 @@
       <c r="P95" s="42"/>
       <c r="Q95" s="42"/>
       <c r="R95" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="T95" s="31"/>
     </row>
@@ -9674,13 +9671,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="49" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="C96" s="49" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="D96" s="49" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="E96" s="46" t="s">
         <v>66</v>
@@ -9706,10 +9703,10 @@
       </c>
       <c r="C97" s="50"/>
       <c r="D97" s="50" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="E97" s="50" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F97" s="50"/>
       <c r="G97" s="50" t="s">
@@ -9739,7 +9736,7 @@
       <c r="P97" s="40"/>
       <c r="Q97" s="40"/>
       <c r="R97" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9749,10 +9746,10 @@
       </c>
       <c r="C98" s="50"/>
       <c r="D98" s="50" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="E98" s="50" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="F98" s="50"/>
       <c r="G98" s="50" t="s">
@@ -9781,7 +9778,7 @@
       <c r="P98" s="40"/>
       <c r="Q98" s="40"/>
       <c r="R98" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9791,10 +9788,10 @@
       </c>
       <c r="C99" s="50"/>
       <c r="D99" s="50" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="E99" s="50" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="F99" s="50"/>
       <c r="G99" s="50" t="s">
@@ -9823,7 +9820,7 @@
       <c r="P99" s="42"/>
       <c r="Q99" s="42"/>
       <c r="R99" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9831,13 +9828,13 @@
         <v>1</v>
       </c>
       <c r="B100" s="46" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="C100" s="46" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="D100" s="46" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="E100" s="46" t="s">
         <v>66</v>
@@ -9848,17 +9845,17 @@
         <v>21</v>
       </c>
       <c r="D101" s="56" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="E101" s="56" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="F101" s="63"/>
       <c r="G101" s="56" t="s">
         <v>62</v>
       </c>
       <c r="H101" s="56" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I101" s="56">
         <v>1</v>
@@ -9881,7 +9878,7 @@
         <v>0.1</v>
       </c>
       <c r="R101" s="56" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9889,17 +9886,17 @@
         <v>22</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="E102" s="40" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="F102" s="50"/>
       <c r="G102" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H102" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I102" s="40">
         <v>1450</v>
@@ -9922,7 +9919,7 @@
         <v>10</v>
       </c>
       <c r="R102" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -9930,13 +9927,13 @@
         <v>1</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="D103" s="37" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="E103" s="37" t="s">
         <v>231</v>
@@ -10372,8 +10369,8 @@
   <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10412,7 +10409,7 @@
         <v>457</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>630</v>
@@ -10450,7 +10447,7 @@
         <v>622</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>635</v>
@@ -10548,7 +10545,7 @@
         <v>639</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>634</v>
@@ -10580,7 +10577,7 @@
         <v>640</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>633</v>
@@ -10609,12 +10606,12 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B8" s="47"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>466</v>
@@ -10638,12 +10635,12 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>466</v>
@@ -10667,12 +10664,12 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>466</v>
@@ -10695,12 +10692,12 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>466</v>
@@ -10723,12 +10720,12 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>466</v>
@@ -10751,12 +10748,12 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>466</v>
@@ -10779,12 +10776,12 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>466</v>
@@ -10808,12 +10805,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>466</v>
@@ -10837,12 +10834,12 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>466</v>
@@ -10866,12 +10863,12 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>466</v>
@@ -10895,12 +10892,12 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>466</v>
@@ -10924,12 +10921,12 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B19" s="47"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>466</v>
@@ -10953,12 +10950,12 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B20" s="47"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>466</v>
@@ -10982,12 +10979,12 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>466</v>
@@ -11011,15 +11008,15 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>62</v>
@@ -11040,15 +11037,15 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>62</v>
@@ -11069,15 +11066,15 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B24" s="47"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>62</v>
@@ -11098,15 +11095,15 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B25" s="47"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>62</v>
@@ -11127,15 +11124,15 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B26" s="47"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30" t="s">
-        <v>656</v>
+        <v>824</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>62</v>
@@ -11156,15 +11153,15 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B27" s="47"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30" t="s">
-        <v>657</v>
+        <v>825</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>62</v>
@@ -11185,15 +11182,15 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30" t="s">
-        <v>720</v>
+        <v>826</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>62</v>
@@ -11213,15 +11210,15 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30" t="s">
-        <v>721</v>
+        <v>827</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F29" s="31" t="s">
         <v>62</v>
@@ -11241,15 +11238,15 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30" t="s">
-        <v>725</v>
+        <v>828</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>62</v>
@@ -11269,15 +11266,15 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30" t="s">
-        <v>727</v>
+        <v>829</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F31" s="31" t="s">
         <v>62</v>
@@ -11297,15 +11294,15 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
-        <v>729</v>
+        <v>830</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>62</v>
@@ -11325,15 +11322,15 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
-        <v>731</v>
+        <v>831</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F33" s="31" t="s">
         <v>62</v>
@@ -11353,12 +11350,12 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>754</v>
+        <v>832</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="31" t="s">
@@ -11376,12 +11373,12 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>756</v>
+        <v>833</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="31" t="s">
@@ -11399,12 +11396,12 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>758</v>
+        <v>834</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="31" t="s">
@@ -11422,11 +11419,11 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="B37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>760</v>
+        <v>835</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_PSO_2013.xlsx
+++ b/projects/SEB_calibration_PSO_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="838">
   <si>
     <t>type</t>
   </si>
@@ -2551,6 +2551,9 @@
   </si>
   <si>
     <t>1.14.1</t>
+  </si>
+  <si>
+    <t>Calibration Reports Enhanced</t>
   </si>
 </sst>
 </file>
@@ -6873,7 +6876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -7362,9 +7365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7888,7 +7891,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>823</v>
+        <v>837</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>823</v>

--- a/projects/SEB_calibration_PSO_2013.xlsx
+++ b/projects/SEB_calibration_PSO_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2550,10 +2550,10 @@
     <t>calibration_reports_enhanced.gas_bill_nmbe_within_limit</t>
   </si>
   <si>
-    <t>1.14.1</t>
-  </si>
-  <si>
     <t>Calibration Reports Enhanced</t>
+  </si>
+  <si>
+    <t>1.14.4</t>
   </si>
 </sst>
 </file>
@@ -6876,8 +6876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6935,7 +6935,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -7365,7 +7365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
@@ -7891,7 +7891,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>823</v>

--- a/projects/SEB_calibration_PSO_2013.xlsx
+++ b/projects/SEB_calibration_PSO_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -1998,9 +1998,6 @@
     <t>Files to include (relative to this spreadsheet or absolute path). If a directory then it will include all subfolders and files</t>
   </si>
   <si>
-    <t>uniform_uncertain</t>
-  </si>
-  <si>
     <t>Lighting Power Reduction</t>
   </si>
   <si>
@@ -2554,6 +2551,9 @@
   </si>
   <si>
     <t>1.14.4</t>
+  </si>
+  <si>
+    <t>uniform</t>
   </si>
 </sst>
 </file>
@@ -6876,7 +6876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -6913,7 +6913,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6924,7 +6924,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6935,7 +6935,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -6946,7 +6946,7 @@
         <v>468</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>470</v>
@@ -7017,7 +7017,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>469</v>
@@ -7028,7 +7028,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>650</v>
@@ -7039,7 +7039,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>650</v>
@@ -7107,7 +7107,7 @@
         <v>449</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7133,7 +7133,7 @@
     </row>
     <row r="24" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B24" s="30">
         <v>94</v>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="26" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B26" s="30">
         <v>3000</v>
@@ -7163,7 +7163,7 @@
     </row>
     <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B27" s="30">
         <v>0.9</v>
@@ -7173,7 +7173,7 @@
     </row>
     <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B28" s="29">
         <v>1</v>
@@ -7182,7 +7182,7 @@
     </row>
     <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B29" s="29">
         <v>1</v>
@@ -7191,27 +7191,27 @@
     </row>
     <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
+        <v>783</v>
+      </c>
+      <c r="B30" s="29" t="s">
         <v>784</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>785</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="35"/>
     </row>
     <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="B31" s="31" t="s">
         <v>817</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>818</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="35"/>
     </row>
     <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B32" s="29" t="s">
         <v>15</v>
@@ -7221,17 +7221,17 @@
     </row>
     <row r="33" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
+        <v>780</v>
+      </c>
+      <c r="B33" s="31" t="s">
         <v>781</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>782</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="35"/>
     </row>
     <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B34" s="29">
         <v>0.01</v>
@@ -7241,7 +7241,7 @@
     </row>
     <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B35" s="29">
         <v>0.01</v>
@@ -7251,10 +7251,10 @@
     </row>
     <row r="36" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
+        <v>820</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>821</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>822</v>
       </c>
       <c r="C36" s="34"/>
       <c r="D36" s="2"/>
@@ -7277,7 +7277,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7305,7 +7305,7 @@
         <v>641</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E41" s="2"/>
     </row>
@@ -7332,7 +7332,7 @@
         <v>643</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7365,9 +7365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R121" sqref="R121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,7 +7465,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7530,13 +7530,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
+        <v>788</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>789</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>790</v>
-      </c>
       <c r="D4" s="37" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>66</v>
@@ -7549,17 +7549,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
+        <v>790</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>791</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>792</v>
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -7568,17 +7568,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F6" s="63"/>
       <c r="G6" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J6" s="31"/>
     </row>
@@ -7587,17 +7587,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>796</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>797</v>
       </c>
       <c r="F7" s="63"/>
       <c r="G7" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J7" s="31"/>
     </row>
@@ -7606,14 +7606,14 @@
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
+        <v>798</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>799</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>800</v>
       </c>
       <c r="F8" s="63"/>
       <c r="G8" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>646</v>
@@ -7625,17 +7625,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
+        <v>800</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>801</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>802</v>
       </c>
       <c r="F9" s="63"/>
       <c r="G9" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J9" s="31"/>
     </row>
@@ -7644,17 +7644,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="E10" s="31" t="s">
         <v>723</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>724</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J10" s="31"/>
     </row>
@@ -7663,17 +7663,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>725</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>726</v>
       </c>
       <c r="F11" s="63"/>
       <c r="G11" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J11" s="31"/>
     </row>
@@ -7682,17 +7682,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
+        <v>803</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>804</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>805</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J12" s="31"/>
     </row>
@@ -7701,17 +7701,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>807</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>808</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J13" s="31"/>
     </row>
@@ -7720,13 +7720,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>66</v>
@@ -7739,17 +7739,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
+        <v>790</v>
+      </c>
+      <c r="E15" s="31" t="s">
         <v>791</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>792</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J15" s="31"/>
     </row>
@@ -7758,17 +7758,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J16" s="31"/>
     </row>
@@ -7777,17 +7777,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="E17" s="31" t="s">
         <v>796</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>797</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J17" s="31"/>
     </row>
@@ -7796,14 +7796,14 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
+        <v>798</v>
+      </c>
+      <c r="E18" s="31" t="s">
         <v>799</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>800</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>648</v>
@@ -7815,17 +7815,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
+        <v>800</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>801</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>802</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J19" s="31"/>
     </row>
@@ -7834,17 +7834,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>723</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>724</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J20" s="31"/>
     </row>
@@ -7853,17 +7853,17 @@
         <v>21</v>
       </c>
       <c r="D21" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="E21" s="31" t="s">
         <v>725</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>726</v>
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J21" s="31"/>
     </row>
@@ -7872,17 +7872,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="31" t="s">
+        <v>803</v>
+      </c>
+      <c r="E22" s="31" t="s">
         <v>804</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>805</v>
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J22" s="31"/>
     </row>
@@ -7891,13 +7891,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>231</v>
@@ -7949,7 +7949,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>68</v>
@@ -7978,7 +7978,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="40" t="s">
-        <v>652</v>
+        <v>837</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7986,10 +7986,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
+        <v>668</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>669</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>670</v>
       </c>
       <c r="F27" s="63"/>
       <c r="G27" s="30" t="s">
@@ -8004,10 +8004,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F28" s="63"/>
       <c r="G28" s="56" t="s">
@@ -8032,8 +8032,8 @@
       <c r="O28" s="58">
         <v>0.01</v>
       </c>
-      <c r="R28" s="56" t="s">
-        <v>652</v>
+      <c r="R28" s="40" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8041,10 +8041,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F29" s="63"/>
       <c r="G29" s="30" t="s">
@@ -8059,10 +8059,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F30" s="64"/>
       <c r="G30" s="30" t="s">
@@ -8179,7 +8179,7 @@
         <v>21</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>44</v>
@@ -8209,8 +8209,8 @@
         <v>1</v>
       </c>
       <c r="Q36" s="55"/>
-      <c r="R36" s="52" t="s">
-        <v>652</v>
+      <c r="R36" s="40" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8445,7 +8445,7 @@
         <v>22</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E46" s="40" t="s">
         <v>286</v>
@@ -8455,7 +8455,7 @@
         <v>62</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I46" s="40">
         <v>0</v>
@@ -8478,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="40" t="s">
-        <v>652</v>
+        <v>837</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8486,7 +8486,7 @@
         <v>21</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E47" s="30" t="s">
         <v>46</v>
@@ -8496,7 +8496,7 @@
         <v>62</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I47" s="30">
         <v>0</v>
@@ -8507,7 +8507,7 @@
         <v>21</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E48" s="30" t="s">
         <v>48</v>
@@ -8517,7 +8517,7 @@
         <v>62</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I48" s="30">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E49" s="30" t="s">
         <v>50</v>
@@ -8538,7 +8538,7 @@
         <v>63</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I49" s="30">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>21</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E50" s="30" t="s">
         <v>52</v>
@@ -8567,7 +8567,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E51" s="30" t="s">
         <v>54</v>
@@ -8577,7 +8577,7 @@
         <v>63</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I51" s="30">
         <v>15</v>
@@ -8588,7 +8588,7 @@
         <v>21</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>56</v>
@@ -8598,7 +8598,7 @@
         <v>62</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I52" s="30">
         <v>0</v>
@@ -8609,7 +8609,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E53" s="30" t="s">
         <v>58</v>
@@ -8619,7 +8619,7 @@
         <v>63</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I53" s="30">
         <v>1</v>
@@ -8630,13 +8630,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="46" t="s">
+        <v>746</v>
+      </c>
+      <c r="C54" s="46" t="s">
         <v>747</v>
       </c>
-      <c r="C54" s="46" t="s">
-        <v>748</v>
-      </c>
       <c r="D54" s="46" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E54" s="46" t="s">
         <v>66</v>
@@ -8668,17 +8668,17 @@
         <v>22</v>
       </c>
       <c r="D56" s="40" t="s">
+        <v>748</v>
+      </c>
+      <c r="E56" s="40" t="s">
         <v>749</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>750</v>
       </c>
       <c r="F56" s="50"/>
       <c r="G56" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I56" s="40">
         <v>0.8</v>
@@ -8701,7 +8701,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="40" t="s">
-        <v>652</v>
+        <v>837</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8727,7 +8727,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>126</v>
@@ -8737,7 +8737,7 @@
         <v>62</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I58" s="30">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E59" s="30" t="s">
         <v>48</v>
@@ -8758,7 +8758,7 @@
         <v>62</v>
       </c>
       <c r="H59" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I59" s="30">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E60" s="30" t="s">
         <v>50</v>
@@ -8779,7 +8779,7 @@
         <v>63</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I60" s="30">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>21</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E61" s="30" t="s">
         <v>52</v>
@@ -8808,7 +8808,7 @@
         <v>21</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E62" s="30" t="s">
         <v>54</v>
@@ -8818,7 +8818,7 @@
         <v>63</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I62" s="30">
         <v>15</v>
@@ -8829,7 +8829,7 @@
         <v>21</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E63" s="30" t="s">
         <v>56</v>
@@ -8839,7 +8839,7 @@
         <v>62</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I63" s="30">
         <v>0</v>
@@ -8850,7 +8850,7 @@
         <v>21</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E64" s="30" t="s">
         <v>58</v>
@@ -8860,7 +8860,7 @@
         <v>63</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I64" s="30">
         <v>1</v>
@@ -8871,13 +8871,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D65" s="46" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E65" s="46" t="s">
         <v>66</v>
@@ -8888,7 +8888,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E66" s="30" t="s">
         <v>124</v>
@@ -8909,17 +8909,17 @@
         <v>22</v>
       </c>
       <c r="D67" s="40" t="s">
+        <v>755</v>
+      </c>
+      <c r="E67" s="40" t="s">
         <v>756</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>757</v>
       </c>
       <c r="F67" s="50"/>
       <c r="G67" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H67" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I67" s="40">
         <v>4</v>
@@ -8942,7 +8942,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="40" t="s">
-        <v>652</v>
+        <v>837</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8968,7 +8968,7 @@
         <v>21</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E69" s="30" t="s">
         <v>126</v>
@@ -8978,7 +8978,7 @@
         <v>62</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I69" s="30">
         <v>0</v>
@@ -8989,7 +8989,7 @@
         <v>21</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>48</v>
@@ -8999,7 +8999,7 @@
         <v>62</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I70" s="30">
         <v>0</v>
@@ -9010,7 +9010,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E71" s="30" t="s">
         <v>50</v>
@@ -9020,7 +9020,7 @@
         <v>63</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I71" s="30">
         <v>0</v>
@@ -9031,7 +9031,7 @@
         <v>21</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E72" s="30" t="s">
         <v>52</v>
@@ -9049,7 +9049,7 @@
         <v>21</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E73" s="30" t="s">
         <v>54</v>
@@ -9059,7 +9059,7 @@
         <v>63</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I73" s="30">
         <v>15</v>
@@ -9070,7 +9070,7 @@
         <v>21</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E74" s="30" t="s">
         <v>56</v>
@@ -9080,7 +9080,7 @@
         <v>62</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I74" s="30">
         <v>0</v>
@@ -9091,7 +9091,7 @@
         <v>21</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E75" s="30" t="s">
         <v>58</v>
@@ -9101,7 +9101,7 @@
         <v>63</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I75" s="30">
         <v>1</v>
@@ -9150,7 +9150,7 @@
         <v>22</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E78" s="40" t="s">
         <v>243</v>
@@ -9160,7 +9160,7 @@
         <v>62</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I78" s="40">
         <v>0</v>
@@ -9183,7 +9183,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="40" t="s">
-        <v>652</v>
+        <v>837</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9191,17 +9191,17 @@
         <v>22</v>
       </c>
       <c r="D79" s="40" t="s">
+        <v>758</v>
+      </c>
+      <c r="E79" s="40" t="s">
         <v>759</v>
-      </c>
-      <c r="E79" s="40" t="s">
-        <v>760</v>
       </c>
       <c r="F79" s="50"/>
       <c r="G79" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H79" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I79" s="40">
         <v>0</v>
@@ -9224,7 +9224,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="40" t="s">
-        <v>652</v>
+        <v>837</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9250,7 +9250,7 @@
         <v>21</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E81" s="30" t="s">
         <v>126</v>
@@ -9260,7 +9260,7 @@
         <v>62</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I81" s="30">
         <v>0</v>
@@ -9271,7 +9271,7 @@
         <v>21</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E82" s="30" t="s">
         <v>48</v>
@@ -9281,7 +9281,7 @@
         <v>62</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I82" s="30">
         <v>0</v>
@@ -9292,7 +9292,7 @@
         <v>21</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E83" s="30" t="s">
         <v>50</v>
@@ -9302,7 +9302,7 @@
         <v>63</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I83" s="30">
         <v>0</v>
@@ -9313,7 +9313,7 @@
         <v>21</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E84" s="30" t="s">
         <v>52</v>
@@ -9331,7 +9331,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E85" s="30" t="s">
         <v>54</v>
@@ -9341,7 +9341,7 @@
         <v>63</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I85" s="30">
         <v>15</v>
@@ -9352,7 +9352,7 @@
         <v>21</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E86" s="30" t="s">
         <v>56</v>
@@ -9362,7 +9362,7 @@
         <v>62</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I86" s="30">
         <v>0</v>
@@ -9373,7 +9373,7 @@
         <v>21</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E87" s="30" t="s">
         <v>58</v>
@@ -9383,7 +9383,7 @@
         <v>63</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I87" s="30">
         <v>1</v>
@@ -9397,10 +9397,10 @@
         <v>185</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D88" s="46" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E88" s="46" t="s">
         <v>66</v>
@@ -9411,7 +9411,7 @@
         <v>22</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E89" s="40" t="s">
         <v>188</v>
@@ -9421,7 +9421,7 @@
         <v>62</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I89" s="40">
         <v>0</v>
@@ -9444,7 +9444,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="40" t="s">
-        <v>652</v>
+        <v>837</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9452,7 +9452,7 @@
         <v>22</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E90" s="40" t="s">
         <v>190</v>
@@ -9462,7 +9462,7 @@
         <v>62</v>
       </c>
       <c r="H90" s="40" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I90" s="40">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="40" t="s">
-        <v>652</v>
+        <v>837</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9493,7 +9493,7 @@
         <v>21</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>192</v>
@@ -9516,13 +9516,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="C92" s="49" t="s">
         <v>733</v>
       </c>
-      <c r="C92" s="49" t="s">
-        <v>734</v>
-      </c>
       <c r="D92" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E92" s="46" t="s">
         <v>66</v>
@@ -9548,10 +9548,10 @@
       </c>
       <c r="C93" s="50"/>
       <c r="D93" s="50" t="s">
+        <v>726</v>
+      </c>
+      <c r="E93" s="50" t="s">
         <v>727</v>
-      </c>
-      <c r="E93" s="50" t="s">
-        <v>728</v>
       </c>
       <c r="F93" s="50"/>
       <c r="G93" s="50" t="s">
@@ -9581,7 +9581,7 @@
       <c r="P93" s="40"/>
       <c r="Q93" s="40"/>
       <c r="R93" s="40" t="s">
-        <v>652</v>
+        <v>837</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9591,10 +9591,10 @@
       </c>
       <c r="C94" s="50"/>
       <c r="D94" s="50" t="s">
+        <v>728</v>
+      </c>
+      <c r="E94" s="50" t="s">
         <v>729</v>
-      </c>
-      <c r="E94" s="50" t="s">
-        <v>730</v>
       </c>
       <c r="F94" s="50"/>
       <c r="G94" s="50" t="s">
@@ -9623,7 +9623,7 @@
       <c r="P94" s="40"/>
       <c r="Q94" s="40"/>
       <c r="R94" s="40" t="s">
-        <v>652</v>
+        <v>837</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9633,10 +9633,10 @@
       </c>
       <c r="C95" s="50"/>
       <c r="D95" s="50" t="s">
+        <v>730</v>
+      </c>
+      <c r="E95" s="50" t="s">
         <v>731</v>
-      </c>
-      <c r="E95" s="50" t="s">
-        <v>732</v>
       </c>
       <c r="F95" s="50"/>
       <c r="G95" s="50" t="s">
@@ -9665,7 +9665,7 @@
       <c r="P95" s="42"/>
       <c r="Q95" s="42"/>
       <c r="R95" s="40" t="s">
-        <v>652</v>
+        <v>837</v>
       </c>
       <c r="T95" s="31"/>
     </row>
@@ -9674,13 +9674,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="C96" s="49" t="s">
         <v>735</v>
       </c>
-      <c r="C96" s="49" t="s">
-        <v>736</v>
-      </c>
       <c r="D96" s="49" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E96" s="46" t="s">
         <v>66</v>
@@ -9706,10 +9706,10 @@
       </c>
       <c r="C97" s="50"/>
       <c r="D97" s="50" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E97" s="50" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F97" s="50"/>
       <c r="G97" s="50" t="s">
@@ -9739,7 +9739,7 @@
       <c r="P97" s="40"/>
       <c r="Q97" s="40"/>
       <c r="R97" s="40" t="s">
-        <v>652</v>
+        <v>837</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9749,10 +9749,10 @@
       </c>
       <c r="C98" s="50"/>
       <c r="D98" s="50" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E98" s="50" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F98" s="50"/>
       <c r="G98" s="50" t="s">
@@ -9781,7 +9781,7 @@
       <c r="P98" s="40"/>
       <c r="Q98" s="40"/>
       <c r="R98" s="40" t="s">
-        <v>652</v>
+        <v>837</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9791,10 +9791,10 @@
       </c>
       <c r="C99" s="50"/>
       <c r="D99" s="50" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E99" s="50" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F99" s="50"/>
       <c r="G99" s="50" t="s">
@@ -9823,7 +9823,7 @@
       <c r="P99" s="42"/>
       <c r="Q99" s="42"/>
       <c r="R99" s="40" t="s">
-        <v>652</v>
+        <v>837</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9831,13 +9831,13 @@
         <v>1</v>
       </c>
       <c r="B100" s="46" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C100" s="46" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D100" s="46" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E100" s="46" t="s">
         <v>66</v>
@@ -9848,17 +9848,17 @@
         <v>21</v>
       </c>
       <c r="D101" s="56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E101" s="56" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F101" s="63"/>
       <c r="G101" s="56" t="s">
         <v>62</v>
       </c>
       <c r="H101" s="56" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I101" s="56">
         <v>1</v>
@@ -9880,8 +9880,8 @@
       <c r="O101" s="58">
         <v>0.1</v>
       </c>
-      <c r="R101" s="56" t="s">
-        <v>652</v>
+      <c r="R101" s="40" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9889,17 +9889,17 @@
         <v>22</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E102" s="40" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F102" s="50"/>
       <c r="G102" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H102" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I102" s="40">
         <v>1450</v>
@@ -9922,7 +9922,7 @@
         <v>10</v>
       </c>
       <c r="R102" s="40" t="s">
-        <v>652</v>
+        <v>837</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -9930,13 +9930,13 @@
         <v>1</v>
       </c>
       <c r="B103" s="37" t="s">
+        <v>739</v>
+      </c>
+      <c r="C103" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="C103" s="37" t="s">
-        <v>741</v>
-      </c>
       <c r="D103" s="37" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E103" s="37" t="s">
         <v>231</v>
@@ -10412,7 +10412,7 @@
         <v>457</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>630</v>
@@ -10450,7 +10450,7 @@
         <v>622</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>635</v>
@@ -10548,7 +10548,7 @@
         <v>639</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>634</v>
@@ -10580,7 +10580,7 @@
         <v>640</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>633</v>
@@ -10609,12 +10609,12 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B8" s="47"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>466</v>
@@ -10638,12 +10638,12 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>466</v>
@@ -10667,12 +10667,12 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>466</v>
@@ -10695,12 +10695,12 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>466</v>
@@ -10723,12 +10723,12 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>466</v>
@@ -10751,12 +10751,12 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>466</v>
@@ -10779,12 +10779,12 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>466</v>
@@ -10808,12 +10808,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>466</v>
@@ -10837,12 +10837,12 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>466</v>
@@ -10866,12 +10866,12 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>466</v>
@@ -10895,12 +10895,12 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>466</v>
@@ -10924,12 +10924,12 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B19" s="47"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>466</v>
@@ -10953,12 +10953,12 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B20" s="47"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>466</v>
@@ -10982,12 +10982,12 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>466</v>
@@ -11011,15 +11011,15 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30" t="s">
+        <v>706</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>707</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>708</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>62</v>
@@ -11040,15 +11040,15 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>62</v>
@@ -11069,15 +11069,15 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B24" s="47"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>62</v>
@@ -11098,15 +11098,15 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B25" s="47"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30" t="s">
+        <v>713</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>714</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>715</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>62</v>
@@ -11132,7 +11132,7 @@
       <c r="B26" s="47"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>646</v>
@@ -11161,7 +11161,7 @@
       <c r="B27" s="47"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>648</v>
@@ -11185,15 +11185,15 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>62</v>
@@ -11213,15 +11213,15 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F29" s="31" t="s">
         <v>62</v>
@@ -11241,15 +11241,15 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>62</v>
@@ -11269,15 +11269,15 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F31" s="31" t="s">
         <v>62</v>
@@ -11297,15 +11297,15 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>62</v>
@@ -11325,15 +11325,15 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F33" s="31" t="s">
         <v>62</v>
@@ -11353,12 +11353,12 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="31" t="s">
@@ -11376,12 +11376,12 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="31" t="s">
@@ -11399,12 +11399,12 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="31" t="s">
@@ -11422,11 +11422,11 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_PSO_2013.xlsx
+++ b/projects/SEB_calibration_PSO_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="835">
   <si>
     <t>type</t>
   </si>
@@ -1422,12 +1422,6 @@
     <t>true/false</t>
   </si>
   <si>
-    <t>Allow Multiple Jobs</t>
-  </si>
-  <si>
-    <t>Use Server As Worker</t>
-  </si>
-  <si>
     <t>Simulate Data Point Filename</t>
   </si>
   <si>
@@ -1860,9 +1854,6 @@
     <t>Use a minimum of 2 cores for server.</t>
   </si>
   <si>
-    <t>Enable this for certain analysis. Typically do not use the server as a worker.</t>
-  </si>
-  <si>
     <t>Problem Type</t>
   </si>
   <si>
@@ -2550,10 +2541,10 @@
     <t>Calibration Reports Enhanced</t>
   </si>
   <si>
-    <t>1.14.4</t>
-  </si>
-  <si>
     <t>uniform</t>
+  </si>
+  <si>
+    <t>1.17.0</t>
   </si>
 </sst>
 </file>
@@ -4595,7 +4586,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4642,9 +4633,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6874,16 +6862,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
@@ -6892,7 +6880,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
-      <c r="B1" s="28"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="19"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20" t="s">
@@ -6903,7 +6891,7 @@
       <c r="A2" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -6912,8 +6900,8 @@
       <c r="A3" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>766</v>
+      <c r="B3" s="25" t="s">
+        <v>763</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6923,8 +6911,8 @@
       <c r="A4" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>773</v>
+      <c r="B4" s="24" t="s">
+        <v>770</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6932,57 +6920,57 @@
     </row>
     <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>836</v>
+        <v>465</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>834</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>772</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>590</v>
-      </c>
-      <c r="C7" s="33" t="str">
+      <c r="B7" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="C7" s="32" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
         <v>4 Cores - Recommended for Server</v>
       </c>
-      <c r="D7" s="33" t="str">
+      <c r="D7" s="32" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
         <v>$0.28/hour</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>601</v>
-      </c>
-      <c r="C8" s="33" t="str">
+      <c r="B8" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="C8" s="32" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
         <v>16 Cores - Worker Only - Recommended for Worker</v>
       </c>
-      <c r="D8" s="33" t="str">
+      <c r="D8" s="32" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
         <v>$1.68/hour</v>
       </c>
@@ -6994,20 +6982,20 @@
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>1</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="33"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="11"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -7016,335 +7004,310 @@
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>778</v>
+      <c r="B12" s="24" t="s">
+        <v>775</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>774</v>
+      <c r="B13" s="24" t="s">
+        <v>771</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>741</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>650</v>
+      <c r="B14" s="24" t="s">
+        <v>738</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B15" s="26" t="b">
-        <v>1</v>
+      <c r="B15" s="25" t="s">
+        <v>461</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B16" s="24" t="b">
+        <v>462</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>604</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="25"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30" t="s">
+        <v>811</v>
+      </c>
+      <c r="B22" s="29">
+        <v>94</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="34"/>
+    </row>
+    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
+        <v>554</v>
+      </c>
+      <c r="B23" s="29">
+        <v>7</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="34"/>
+    </row>
+    <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>812</v>
+      </c>
+      <c r="B24" s="29">
+        <v>3000</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="34"/>
+    </row>
+    <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="B25" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="34"/>
+    </row>
+    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="B26" s="28">
         <v>1</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>542</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="13" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B21" s="25" t="s">
+      <c r="D26" s="34"/>
+    </row>
+    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="B27" s="28">
+        <v>1</v>
+      </c>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>781</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>813</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>814</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="34"/>
+    </row>
+    <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="26"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="B30" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="34"/>
+    </row>
+    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="34"/>
+    </row>
+    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
+        <v>815</v>
+      </c>
+      <c r="B32" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="34"/>
+    </row>
+    <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="B33" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>638</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>773</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="41" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="13" t="s">
         <v>608</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
-        <v>814</v>
-      </c>
-      <c r="B24" s="30">
-        <v>94</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="35"/>
-    </row>
-    <row r="25" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
-        <v>556</v>
-      </c>
-      <c r="B25" s="30">
-        <v>7</v>
-      </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="35"/>
-    </row>
-    <row r="26" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
-        <v>815</v>
-      </c>
-      <c r="B26" s="30">
-        <v>3000</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="35"/>
-    </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
-        <v>787</v>
-      </c>
-      <c r="B27" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="35"/>
-    </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
-        <v>786</v>
-      </c>
-      <c r="B28" s="29">
-        <v>1</v>
-      </c>
-      <c r="D28" s="35"/>
-    </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
-        <v>785</v>
-      </c>
-      <c r="B29" s="29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="35"/>
-    </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
-        <v>783</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>784</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="35"/>
-    </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
-        <v>816</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>817</v>
-      </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="35"/>
-    </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
-        <v>782</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="35"/>
-    </row>
-    <row r="33" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
-        <v>780</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>781</v>
-      </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="35"/>
-    </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="31" t="s">
-        <v>818</v>
-      </c>
-      <c r="B34" s="29">
-        <v>0.01</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="35"/>
-    </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="31" t="s">
-        <v>819</v>
-      </c>
-      <c r="B35" s="29">
-        <v>0.01</v>
-      </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31" t="s">
-        <v>820</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>821</v>
-      </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>649</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="13"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>451</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>649</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="31" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="30" t="s">
         <v>641</v>
       </c>
-      <c r="D41" s="31" t="s">
-        <v>776</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="43" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="13" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="31" t="s">
-        <v>644</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>643</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="26"/>
-      <c r="D45" s="2"/>
+      <c r="B42" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="25"/>
+      <c r="D43" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
-      <formula1>TrueFalse</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>simulate_data_point</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7:B8">
@@ -7365,34 +7328,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R121" sqref="R121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="6" width="24.109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="47" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47" style="30" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="30" customWidth="1"/>
+    <col min="5" max="6" width="24.109375" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="30" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="31" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="31" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="31" customWidth="1"/>
-    <col min="14" max="15" width="7.6640625" style="31" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="31"/>
-    <col min="17" max="17" width="11.44140625" style="31" customWidth="1"/>
-    <col min="18" max="18" width="23" style="31" customWidth="1"/>
-    <col min="19" max="19" width="27.6640625" style="31" customWidth="1"/>
-    <col min="20" max="20" width="46.109375" style="31" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="31"/>
-    <col min="24" max="24" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="31"/>
+    <col min="11" max="11" width="7.109375" style="30" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="30" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="30" customWidth="1"/>
+    <col min="14" max="15" width="7.6640625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="30"/>
+    <col min="17" max="17" width="11.44140625" style="30" customWidth="1"/>
+    <col min="18" max="18" width="23" style="30" customWidth="1"/>
+    <col min="19" max="19" width="27.6640625" style="30" customWidth="1"/>
+    <col min="20" max="20" width="46.109375" style="30" customWidth="1"/>
+    <col min="21" max="23" width="11.44140625" style="30"/>
+    <col min="24" max="24" width="13.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.44140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
@@ -7403,33 +7366,33 @@
         <v>39</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="60"/>
+      <c r="F1" s="59"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="36" t="s">
-        <v>472</v>
+      <c r="P1" s="35" t="s">
+        <v>470</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="66" t="s">
+      <c r="U1" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7439,12 +7402,12 @@
         <v>36</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="F2" s="61"/>
+        <v>541</v>
+      </c>
+      <c r="F2" s="60"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -7464,8 +7427,8 @@
       <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="62" t="s">
-        <v>767</v>
+      <c r="F3" s="61" t="s">
+        <v>764</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7492,13 +7455,13 @@
         <v>9</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>8</v>
@@ -7525,646 +7488,646 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="b">
+    <row r="4" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
+        <v>785</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>786</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>786</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>788</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="F5" s="62"/>
+      <c r="G5" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I5" s="30" t="s">
         <v>789</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>789</v>
-      </c>
-      <c r="E4" s="37" t="s">
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="G6" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="F7" s="62"/>
+      <c r="G7" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>794</v>
+      </c>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="F8" s="62"/>
+      <c r="G8" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>643</v>
+      </c>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B9" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="F9" s="62"/>
+      <c r="G9" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>719</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="F10" s="62"/>
+      <c r="G10" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>747</v>
+      </c>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>721</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="F11" s="62"/>
+      <c r="G11" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>748</v>
+      </c>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="F12" s="62"/>
+      <c r="G12" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>802</v>
+      </c>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>803</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>804</v>
+      </c>
+      <c r="F13" s="62"/>
+      <c r="G13" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>802</v>
+      </c>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>805</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>786</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>786</v>
+      </c>
+      <c r="E14" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="31" t="s">
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B15" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>788</v>
+      </c>
+      <c r="F15" s="62"/>
+      <c r="G15" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>806</v>
+      </c>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B16" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>791</v>
-      </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="31" t="s">
+      <c r="E16" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="F17" s="62"/>
+      <c r="G17" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>808</v>
+      </c>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="F18" s="62"/>
+      <c r="G18" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>645</v>
+      </c>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="F19" s="62"/>
+      <c r="G19" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>809</v>
+      </c>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>719</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="F20" s="62"/>
+      <c r="G20" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>747</v>
+      </c>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>721</v>
       </c>
-      <c r="I5" s="31" t="s">
-        <v>792</v>
-      </c>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>793</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>794</v>
-      </c>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>795</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>796</v>
-      </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>797</v>
-      </c>
-      <c r="J7" s="31"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>798</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>799</v>
-      </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>646</v>
-      </c>
-      <c r="J8" s="31"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B9" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="E21" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="F21" s="62"/>
+      <c r="G21" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>748</v>
+      </c>
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>800</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E22" s="30" t="s">
         <v>801</v>
       </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>802</v>
-      </c>
-      <c r="J9" s="31"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>722</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>723</v>
-      </c>
-      <c r="F10" s="63"/>
-      <c r="G10" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>750</v>
-      </c>
-      <c r="J10" s="31"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>751</v>
-      </c>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>803</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>804</v>
-      </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="31" t="s">
+      <c r="F22" s="62"/>
+      <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="48" t="s">
-        <v>805</v>
-      </c>
-      <c r="J12" s="31"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B13" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>806</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>807</v>
-      </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>805</v>
-      </c>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="b">
+      <c r="I22" s="47" t="s">
+        <v>810</v>
+      </c>
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>808</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>789</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>789</v>
-      </c>
-      <c r="E14" s="37" t="s">
+      <c r="B23" s="36" t="s">
+        <v>832</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>819</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>819</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+    </row>
+    <row r="24" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B15" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>790</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>791</v>
-      </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>809</v>
-      </c>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B16" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>793</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>810</v>
-      </c>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>795</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>796</v>
-      </c>
-      <c r="F17" s="63"/>
-      <c r="G17" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>811</v>
-      </c>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>798</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>799</v>
-      </c>
-      <c r="F18" s="63"/>
-      <c r="G18" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>648</v>
-      </c>
-      <c r="J18" s="31"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>800</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>801</v>
-      </c>
-      <c r="F19" s="63"/>
-      <c r="G19" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>812</v>
-      </c>
-      <c r="J19" s="31"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>722</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>723</v>
-      </c>
-      <c r="F20" s="63"/>
-      <c r="G20" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>750</v>
-      </c>
-      <c r="J20" s="31"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F21" s="63"/>
-      <c r="G21" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I21" s="48" t="s">
-        <v>751</v>
-      </c>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>803</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>804</v>
-      </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="48" t="s">
-        <v>813</v>
-      </c>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>835</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>822</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>822</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-    </row>
-    <row r="24" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="30" t="s">
+    </row>
+    <row r="25" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="63"/>
-      <c r="G25" s="30" t="s">
+      <c r="F25" s="62"/>
+      <c r="G25" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J25" s="30" t="s">
+      <c r="J25" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="P25" s="31"/>
-    </row>
-    <row r="26" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="40" t="s">
+      <c r="P25" s="30"/>
+    </row>
+    <row r="26" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="41" t="s">
-        <v>676</v>
-      </c>
-      <c r="E26" s="40" t="s">
+      <c r="D26" s="40" t="s">
+        <v>673</v>
+      </c>
+      <c r="E26" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="40" t="s">
+      <c r="F26" s="49"/>
+      <c r="G26" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="40">
-        <v>0</v>
-      </c>
-      <c r="K26" s="42">
-        <v>0</v>
-      </c>
-      <c r="L26" s="42">
+      <c r="I26" s="39">
+        <v>0</v>
+      </c>
+      <c r="K26" s="41">
+        <v>0</v>
+      </c>
+      <c r="L26" s="41">
         <v>100</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M26" s="41">
         <v>15</v>
       </c>
-      <c r="N26" s="42">
+      <c r="N26" s="41">
         <f>(L26-K26)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O26" s="42">
+      <c r="O26" s="41">
         <v>1</v>
       </c>
-      <c r="R26" s="40" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="30" t="s">
+      <c r="R26" s="39" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>665</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>666</v>
+      </c>
+      <c r="F27" s="62"/>
+      <c r="G27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="56" t="s">
         <v>668</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>669</v>
-      </c>
-      <c r="F27" s="63"/>
-      <c r="G27" s="30" t="s">
+      <c r="E28" s="55" t="s">
+        <v>667</v>
+      </c>
+      <c r="F28" s="62"/>
+      <c r="G28" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="57" t="s">
-        <v>671</v>
-      </c>
-      <c r="E28" s="56" t="s">
-        <v>670</v>
-      </c>
-      <c r="F28" s="63"/>
-      <c r="G28" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="56">
-        <v>0</v>
-      </c>
-      <c r="K28" s="58">
-        <v>0</v>
-      </c>
-      <c r="L28" s="58">
+      <c r="I28" s="55">
+        <v>0</v>
+      </c>
+      <c r="K28" s="57">
+        <v>0</v>
+      </c>
+      <c r="L28" s="57">
         <v>0.1</v>
       </c>
-      <c r="M28" s="58">
+      <c r="M28" s="57">
         <v>0.05</v>
       </c>
-      <c r="N28" s="58">
+      <c r="N28" s="57">
         <f>(L28-K28)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O28" s="58">
+      <c r="O28" s="57">
         <v>0.01</v>
       </c>
-      <c r="R28" s="40" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>673</v>
-      </c>
-      <c r="E29" s="30" t="s">
+      <c r="R28" s="39" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="F29" s="62"/>
+      <c r="G29" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="29" t="s">
         <v>672</v>
       </c>
-      <c r="F29" s="63"/>
-      <c r="G29" s="30" t="s">
+      <c r="E30" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="F30" s="63"/>
+      <c r="G30" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>675</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>674</v>
-      </c>
-      <c r="F30" s="64"/>
-      <c r="G30" s="30" t="s">
+      <c r="I30" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="63"/>
+      <c r="G31" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I30" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="64"/>
-      <c r="G31" s="30" t="s">
+      <c r="I31" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="63"/>
+      <c r="G32" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I31" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="64"/>
-      <c r="G32" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I32" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="30" t="s">
+      <c r="I32" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="64"/>
-      <c r="G33" s="30" t="s">
+      <c r="F33" s="63"/>
+      <c r="G33" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="29">
         <v>1</v>
       </c>
-      <c r="P33" s="31"/>
-    </row>
-    <row r="34" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="b">
+      <c r="P33" s="30"/>
+    </row>
+    <row r="34" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="45" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="30" t="s">
+      <c r="F35" s="63"/>
+      <c r="G35" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30" t="s">
+      <c r="H35" s="29"/>
+      <c r="I35" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J35" s="30" t="s">
+      <c r="J35" s="29" t="s">
         <v>81</v>
       </c>
       <c r="K35" s="3"/>
@@ -8172,65 +8135,65 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="Q35" s="39"/>
-    </row>
-    <row r="36" spans="1:18" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>652</v>
-      </c>
-      <c r="E36" s="52" t="s">
+      <c r="Q35" s="38"/>
+    </row>
+    <row r="36" spans="1:18" s="51" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>649</v>
+      </c>
+      <c r="E36" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="64"/>
-      <c r="G36" s="52" t="s">
+      <c r="F36" s="63"/>
+      <c r="G36" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="52">
-        <v>0</v>
-      </c>
-      <c r="J36" s="53"/>
-      <c r="K36" s="54">
+      <c r="I36" s="51">
+        <v>0</v>
+      </c>
+      <c r="J36" s="52"/>
+      <c r="K36" s="53">
         <v>-40</v>
       </c>
-      <c r="L36" s="54">
+      <c r="L36" s="53">
         <v>40</v>
       </c>
-      <c r="M36" s="54">
-        <v>0</v>
-      </c>
-      <c r="N36" s="54">
+      <c r="M36" s="53">
+        <v>0</v>
+      </c>
+      <c r="N36" s="53">
         <f>(L36-K36)/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="O36" s="54">
+      <c r="O36" s="53">
         <v>1</v>
       </c>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="40" t="s">
-        <v>837</v>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="39" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="44" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="64"/>
-      <c r="G37" s="30" t="s">
+      <c r="F37" s="63"/>
+      <c r="G37" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30">
+      <c r="H37" s="29"/>
+      <c r="I37" s="29">
         <v>0</v>
       </c>
       <c r="K37" s="3"/>
@@ -8238,26 +8201,26 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="Q37" s="39"/>
+      <c r="Q37" s="38"/>
     </row>
     <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="64"/>
-      <c r="G38" s="30" t="s">
+      <c r="F38" s="63"/>
+      <c r="G38" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30">
+      <c r="H38" s="29"/>
+      <c r="I38" s="29">
         <v>0</v>
       </c>
       <c r="K38" s="3"/>
@@ -8265,26 +8228,26 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="Q38" s="39"/>
+      <c r="Q38" s="38"/>
     </row>
     <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="64"/>
-      <c r="G39" s="30" t="s">
+      <c r="F39" s="63"/>
+      <c r="G39" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30">
+      <c r="H39" s="29"/>
+      <c r="I39" s="29">
         <v>0</v>
       </c>
       <c r="K39" s="3"/>
@@ -8292,26 +8255,26 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="Q39" s="39"/>
+      <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="64"/>
-      <c r="G40" s="30" t="s">
+      <c r="F40" s="63"/>
+      <c r="G40" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30" t="b">
+      <c r="H40" s="29"/>
+      <c r="I40" s="29" t="b">
         <v>1</v>
       </c>
       <c r="K40" s="3"/>
@@ -8319,26 +8282,26 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="Q40" s="39"/>
+      <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30" t="s">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="64"/>
-      <c r="G41" s="30" t="s">
+      <c r="F41" s="63"/>
+      <c r="G41" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30">
+      <c r="H41" s="29"/>
+      <c r="I41" s="29">
         <v>15</v>
       </c>
       <c r="K41" s="3"/>
@@ -8346,26 +8309,26 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="Q41" s="39"/>
+      <c r="Q41" s="38"/>
     </row>
     <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30" t="s">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="64"/>
-      <c r="G42" s="30" t="s">
+      <c r="F42" s="63"/>
+      <c r="G42" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30">
+      <c r="H42" s="29"/>
+      <c r="I42" s="29">
         <v>0</v>
       </c>
       <c r="K42" s="3"/>
@@ -8373,26 +8336,26 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="Q42" s="39"/>
+      <c r="Q42" s="38"/>
     </row>
     <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30" t="s">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="64"/>
-      <c r="G43" s="30" t="s">
+      <c r="F43" s="63"/>
+      <c r="G43" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30">
+      <c r="H43" s="29"/>
+      <c r="I43" s="29">
         <v>1</v>
       </c>
       <c r="K43" s="3"/>
@@ -8400,1109 +8363,1109 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="Q43" s="39"/>
-    </row>
-    <row r="44" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="46" t="b">
+      <c r="Q43" s="38"/>
+    </row>
+    <row r="44" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="30" t="s">
+    <row r="45" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="64"/>
-      <c r="G45" s="30" t="s">
+      <c r="F45" s="63"/>
+      <c r="G45" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I45" s="30" t="s">
+      <c r="I45" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J45" s="30" t="s">
+      <c r="J45" s="29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="40" t="s">
+    <row r="46" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="40" t="s">
-        <v>653</v>
-      </c>
-      <c r="E46" s="40" t="s">
+      <c r="D46" s="39" t="s">
+        <v>650</v>
+      </c>
+      <c r="E46" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="F46" s="50"/>
-      <c r="G46" s="40" t="s">
+      <c r="F46" s="49"/>
+      <c r="G46" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I46" s="40">
-        <v>0</v>
-      </c>
-      <c r="J46" s="43"/>
-      <c r="K46" s="42">
+      <c r="H46" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I46" s="39">
+        <v>0</v>
+      </c>
+      <c r="J46" s="42"/>
+      <c r="K46" s="41">
         <v>-80</v>
       </c>
-      <c r="L46" s="42">
+      <c r="L46" s="41">
         <v>80</v>
       </c>
-      <c r="M46" s="42">
-        <v>0</v>
-      </c>
-      <c r="N46" s="42">
+      <c r="M46" s="41">
+        <v>0</v>
+      </c>
+      <c r="N46" s="41">
         <f>(L46-K46)/6</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="O46" s="42">
+      <c r="O46" s="41">
         <v>1</v>
       </c>
-      <c r="R46" s="40" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="30" t="s">
+      <c r="R46" s="39" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="63"/>
+      <c r="G47" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I47" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="62"/>
+      <c r="G48" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I48" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="62"/>
+      <c r="G49" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E47" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="64"/>
-      <c r="G47" s="30" t="s">
+      <c r="I49" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="62"/>
+      <c r="G50" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="62"/>
+      <c r="G51" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I51" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>658</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="62"/>
+      <c r="G52" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H47" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I47" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>656</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="63"/>
-      <c r="G48" s="30" t="s">
+      <c r="H52" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I52" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="63"/>
+      <c r="G53" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I53" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>743</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>744</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>744</v>
+      </c>
+      <c r="E54" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="63"/>
+      <c r="G55" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I55" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="J55" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>745</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>746</v>
+      </c>
+      <c r="F56" s="49"/>
+      <c r="G56" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H48" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I48" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>657</v>
-      </c>
-      <c r="E49" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="63"/>
-      <c r="G49" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H49" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I49" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="63"/>
-      <c r="G50" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F51" s="63"/>
-      <c r="G51" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H51" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I51" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="63"/>
-      <c r="G52" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I52" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="64"/>
-      <c r="G53" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H53" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I53" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B54" s="46" t="s">
-        <v>746</v>
-      </c>
-      <c r="C54" s="46" t="s">
-        <v>747</v>
-      </c>
-      <c r="D54" s="46" t="s">
-        <v>747</v>
-      </c>
-      <c r="E54" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F55" s="64"/>
-      <c r="G55" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I55" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="J55" s="30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="40" t="s">
-        <v>748</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>749</v>
-      </c>
-      <c r="F56" s="50"/>
-      <c r="G56" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I56" s="40">
+      <c r="H56" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I56" s="39">
         <v>0.8</v>
       </c>
-      <c r="J56" s="43"/>
-      <c r="K56" s="42">
+      <c r="J56" s="42"/>
+      <c r="K56" s="41">
         <v>0.78</v>
       </c>
-      <c r="L56" s="42">
+      <c r="L56" s="41">
         <v>0.98</v>
       </c>
-      <c r="M56" s="42">
+      <c r="M56" s="41">
         <v>0.8</v>
       </c>
-      <c r="N56" s="42">
+      <c r="N56" s="41">
         <f>(L56-K56)/6</f>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="O56" s="42">
+      <c r="O56" s="41">
         <v>1</v>
       </c>
-      <c r="R56" s="40" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="30" t="s">
+      <c r="R56" s="39" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E57" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F57" s="31"/>
-      <c r="G57" s="30" t="s">
+      <c r="F57" s="30"/>
+      <c r="G57" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I57" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="30" t="s">
+      <c r="I57" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" s="30"/>
+      <c r="G58" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I58" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="30"/>
+      <c r="G59" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I59" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" s="30"/>
+      <c r="G60" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E58" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F58" s="31"/>
-      <c r="G58" s="30" t="s">
+      <c r="I60" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B61" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="63"/>
+      <c r="G61" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I61" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="63"/>
+      <c r="G62" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I62" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>658</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="63"/>
+      <c r="G63" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H58" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I58" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>656</v>
-      </c>
-      <c r="E59" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F59" s="31"/>
-      <c r="G59" s="30" t="s">
+      <c r="H63" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I63" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="63"/>
+      <c r="G64" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I64" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B65" s="45" t="s">
+        <v>750</v>
+      </c>
+      <c r="C65" s="45" t="s">
+        <v>749</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>749</v>
+      </c>
+      <c r="E65" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>751</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" s="63"/>
+      <c r="G66" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I66" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="J66" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>752</v>
+      </c>
+      <c r="E67" s="39" t="s">
+        <v>753</v>
+      </c>
+      <c r="F67" s="49"/>
+      <c r="G67" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H59" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I59" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>657</v>
-      </c>
-      <c r="E60" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H60" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I60" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="E61" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F61" s="64"/>
-      <c r="G61" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E62" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F62" s="64"/>
-      <c r="G62" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H62" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I62" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F63" s="64"/>
-      <c r="G63" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H63" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I63" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="E64" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="64"/>
-      <c r="G64" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H64" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I64" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B65" s="46" t="s">
-        <v>753</v>
-      </c>
-      <c r="C65" s="46" t="s">
-        <v>752</v>
-      </c>
-      <c r="D65" s="46" t="s">
-        <v>752</v>
-      </c>
-      <c r="E65" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>754</v>
-      </c>
-      <c r="E66" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" s="64"/>
-      <c r="G66" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I66" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="J66" s="30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="40" t="s">
-        <v>755</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>756</v>
-      </c>
-      <c r="F67" s="50"/>
-      <c r="G67" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I67" s="40">
+      <c r="H67" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I67" s="39">
         <v>4</v>
       </c>
-      <c r="J67" s="43"/>
-      <c r="K67" s="42">
-        <v>2</v>
-      </c>
-      <c r="L67" s="42">
+      <c r="J67" s="42"/>
+      <c r="K67" s="41">
+        <v>2</v>
+      </c>
+      <c r="L67" s="41">
         <v>5</v>
       </c>
-      <c r="M67" s="42">
+      <c r="M67" s="41">
         <v>4</v>
       </c>
-      <c r="N67" s="42">
+      <c r="N67" s="41">
         <f>(L67-K67)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="42">
+      <c r="O67" s="41">
         <v>0.25</v>
       </c>
-      <c r="R67" s="40" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="30" t="s">
+      <c r="R67" s="39" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="E68" s="30" t="s">
+      <c r="E68" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="64"/>
-      <c r="G68" s="30" t="s">
+      <c r="F68" s="63"/>
+      <c r="G68" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I68" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="30" t="s">
+      <c r="I68" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" s="63"/>
+      <c r="G69" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I69" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" s="63"/>
+      <c r="G70" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I70" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="63"/>
+      <c r="G71" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H71" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E69" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F69" s="64"/>
-      <c r="G69" s="30" t="s">
+      <c r="I71" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B72" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="63"/>
+      <c r="G72" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I72" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73" s="63"/>
+      <c r="G73" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H73" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I73" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>658</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F74" s="63"/>
+      <c r="G74" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H69" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I69" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>656</v>
-      </c>
-      <c r="E70" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F70" s="64"/>
-      <c r="G70" s="30" t="s">
+      <c r="H74" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I74" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F75" s="63"/>
+      <c r="G75" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I75" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B76" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="D76" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="E76" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E77" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F77" s="63"/>
+      <c r="G77" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I77" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="J77" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="39" t="s">
+        <v>754</v>
+      </c>
+      <c r="E78" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="F78" s="49"/>
+      <c r="G78" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H70" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I70" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>657</v>
-      </c>
-      <c r="E71" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F71" s="64"/>
-      <c r="G71" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H71" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I71" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="E72" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F72" s="64"/>
-      <c r="G72" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I72" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E73" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F73" s="64"/>
-      <c r="G73" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H73" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I73" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F74" s="64"/>
-      <c r="G74" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H74" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I74" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="64"/>
-      <c r="G75" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H75" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I75" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B76" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="C76" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="D76" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="E76" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="E77" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F77" s="64"/>
-      <c r="G77" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I77" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="J77" s="30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" s="40" t="s">
-        <v>757</v>
-      </c>
-      <c r="E78" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="F78" s="50"/>
-      <c r="G78" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H78" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I78" s="40">
-        <v>0</v>
-      </c>
-      <c r="J78" s="43"/>
-      <c r="K78" s="42">
+      <c r="H78" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I78" s="39">
+        <v>0</v>
+      </c>
+      <c r="J78" s="42"/>
+      <c r="K78" s="41">
         <v>-20</v>
       </c>
-      <c r="L78" s="42">
+      <c r="L78" s="41">
         <v>14</v>
       </c>
-      <c r="M78" s="42">
-        <v>0</v>
-      </c>
-      <c r="N78" s="42">
+      <c r="M78" s="41">
+        <v>0</v>
+      </c>
+      <c r="N78" s="41">
         <f>(L78-K78)/6</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="O78" s="42">
+      <c r="O78" s="41">
         <v>1</v>
       </c>
-      <c r="R78" s="40" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="40" t="s">
+      <c r="R78" s="39" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="40" t="s">
-        <v>758</v>
-      </c>
-      <c r="E79" s="40" t="s">
-        <v>759</v>
-      </c>
-      <c r="F79" s="50"/>
-      <c r="G79" s="40" t="s">
+      <c r="D79" s="39" t="s">
+        <v>755</v>
+      </c>
+      <c r="E79" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="F79" s="49"/>
+      <c r="G79" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H79" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I79" s="40">
-        <v>0</v>
-      </c>
-      <c r="J79" s="43"/>
-      <c r="K79" s="42">
+      <c r="H79" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I79" s="39">
+        <v>0</v>
+      </c>
+      <c r="J79" s="42"/>
+      <c r="K79" s="41">
         <v>-20</v>
       </c>
-      <c r="L79" s="42">
+      <c r="L79" s="41">
         <v>30</v>
       </c>
-      <c r="M79" s="42">
-        <v>0</v>
-      </c>
-      <c r="N79" s="42">
+      <c r="M79" s="41">
+        <v>0</v>
+      </c>
+      <c r="N79" s="41">
         <f>(L79-K79)/6</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="O79" s="42">
+      <c r="O79" s="41">
         <v>1</v>
       </c>
-      <c r="R79" s="40" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B80" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="30" t="s">
+      <c r="R79" s="39" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B80" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="E80" s="30" t="s">
+      <c r="E80" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="64"/>
-      <c r="G80" s="30" t="s">
+      <c r="F80" s="63"/>
+      <c r="G80" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I80" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B81" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="30" t="s">
+      <c r="I80" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B81" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F81" s="63"/>
+      <c r="G81" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H81" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I81" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B82" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" s="63"/>
+      <c r="G82" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I82" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B83" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E83" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F83" s="63"/>
+      <c r="G83" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H83" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E81" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F81" s="64"/>
-      <c r="G81" s="30" t="s">
+      <c r="I83" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="E84" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84" s="62"/>
+      <c r="G84" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I84" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="E85" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F85" s="62"/>
+      <c r="G85" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H85" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I85" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>658</v>
+      </c>
+      <c r="E86" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F86" s="62"/>
+      <c r="G86" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H81" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I81" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B82" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="30" t="s">
-        <v>656</v>
-      </c>
-      <c r="E82" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F82" s="64"/>
-      <c r="G82" s="30" t="s">
+      <c r="H86" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I86" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="E87" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" s="62"/>
+      <c r="G87" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H87" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I87" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B88" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="D88" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="E88" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="39" t="s">
+        <v>661</v>
+      </c>
+      <c r="E89" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F89" s="49"/>
+      <c r="G89" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H82" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I82" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B83" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="30" t="s">
-        <v>657</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" s="64"/>
-      <c r="G83" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H83" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I83" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="E84" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F84" s="63"/>
-      <c r="G84" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I84" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D85" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E85" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F85" s="63"/>
-      <c r="G85" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H85" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I85" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E86" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F86" s="63"/>
-      <c r="G86" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H86" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I86" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="30" t="s">
+      <c r="H89" s="39" t="s">
         <v>662</v>
       </c>
-      <c r="E87" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F87" s="63"/>
-      <c r="G87" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H87" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I87" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B88" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="46" t="s">
-        <v>663</v>
-      </c>
-      <c r="D88" s="46" t="s">
-        <v>663</v>
-      </c>
-      <c r="E88" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B89" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D89" s="40" t="s">
-        <v>664</v>
-      </c>
-      <c r="E89" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="F89" s="50"/>
-      <c r="G89" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H89" s="40" t="s">
-        <v>665</v>
-      </c>
-      <c r="I89" s="40">
-        <v>0</v>
-      </c>
-      <c r="J89" s="43"/>
-      <c r="K89" s="42">
+      <c r="I89" s="39">
+        <v>0</v>
+      </c>
+      <c r="J89" s="42"/>
+      <c r="K89" s="41">
         <v>-6</v>
       </c>
-      <c r="L89" s="42">
-        <v>2</v>
-      </c>
-      <c r="M89" s="42">
-        <v>0</v>
-      </c>
-      <c r="N89" s="42">
+      <c r="L89" s="41">
+        <v>2</v>
+      </c>
+      <c r="M89" s="41">
+        <v>0</v>
+      </c>
+      <c r="N89" s="41">
         <f>(L89-K89)/6</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O89" s="42">
+      <c r="O89" s="41">
         <v>1</v>
       </c>
-      <c r="R89" s="40" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="40" t="s">
+      <c r="R89" s="39" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="40" t="s">
-        <v>666</v>
-      </c>
-      <c r="E90" s="40" t="s">
+      <c r="D90" s="39" t="s">
+        <v>663</v>
+      </c>
+      <c r="E90" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="F90" s="50"/>
-      <c r="G90" s="40" t="s">
+      <c r="F90" s="49"/>
+      <c r="G90" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="40" t="s">
-        <v>665</v>
-      </c>
-      <c r="I90" s="40">
-        <v>0</v>
-      </c>
-      <c r="J90" s="43"/>
-      <c r="K90" s="42">
+      <c r="H90" s="39" t="s">
+        <v>662</v>
+      </c>
+      <c r="I90" s="39">
+        <v>0</v>
+      </c>
+      <c r="J90" s="42"/>
+      <c r="K90" s="41">
         <v>-5</v>
       </c>
-      <c r="L90" s="42">
+      <c r="L90" s="41">
         <v>3.9</v>
       </c>
-      <c r="M90" s="42">
-        <v>0</v>
-      </c>
-      <c r="N90" s="42">
+      <c r="M90" s="41">
+        <v>0</v>
+      </c>
+      <c r="N90" s="41">
         <f>(L90-K90)/6</f>
         <v>1.4833333333333334</v>
       </c>
-      <c r="O90" s="42">
+      <c r="O90" s="41">
         <v>1</v>
       </c>
-      <c r="R90" s="40" t="s">
-        <v>837</v>
+      <c r="R90" s="39" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B91" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="E91" s="31" t="s">
+      <c r="B91" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="E91" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F91" s="63"/>
-      <c r="G91" s="31" t="s">
+      <c r="F91" s="62"/>
+      <c r="G91" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I91" s="31" t="b">
+      <c r="I91" s="30" t="b">
         <v>0</v>
       </c>
       <c r="K91" s="3"/>
@@ -9512,845 +9475,845 @@
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="49" t="b">
+      <c r="A92" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="B92" s="49" t="s">
-        <v>732</v>
-      </c>
-      <c r="C92" s="49" t="s">
-        <v>733</v>
-      </c>
-      <c r="D92" s="49" t="s">
-        <v>733</v>
-      </c>
-      <c r="E92" s="46" t="s">
+      <c r="B92" s="48" t="s">
+        <v>729</v>
+      </c>
+      <c r="C92" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="D92" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="E92" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="46"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="49"/>
-      <c r="J92" s="49"/>
-      <c r="K92" s="49"/>
-      <c r="L92" s="49"/>
-      <c r="M92" s="46"/>
-      <c r="N92" s="46"/>
-      <c r="O92" s="46"/>
-      <c r="P92" s="46"/>
-      <c r="Q92" s="46"/>
-      <c r="R92" s="46"/>
-    </row>
-    <row r="93" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
-      <c r="B93" s="50" t="s">
+      <c r="F92" s="45"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="48"/>
+      <c r="L92" s="48"/>
+      <c r="M92" s="45"/>
+      <c r="N92" s="45"/>
+      <c r="O92" s="45"/>
+      <c r="P92" s="45"/>
+      <c r="Q92" s="45"/>
+      <c r="R92" s="45"/>
+    </row>
+    <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="39"/>
+      <c r="B93" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="50"/>
-      <c r="D93" s="50" t="s">
-        <v>726</v>
-      </c>
-      <c r="E93" s="50" t="s">
-        <v>727</v>
-      </c>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50" t="s">
+      <c r="C93" s="49"/>
+      <c r="D93" s="49" t="s">
+        <v>723</v>
+      </c>
+      <c r="E93" s="49" t="s">
+        <v>724</v>
+      </c>
+      <c r="F93" s="49"/>
+      <c r="G93" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="H93" s="50"/>
-      <c r="I93" s="50">
+      <c r="H93" s="49"/>
+      <c r="I93" s="49">
         <v>1</v>
       </c>
-      <c r="J93" s="50"/>
-      <c r="K93" s="50">
+      <c r="J93" s="49"/>
+      <c r="K93" s="49">
         <v>0.5</v>
       </c>
-      <c r="L93" s="50">
+      <c r="L93" s="49">
         <v>4</v>
       </c>
-      <c r="M93" s="42">
+      <c r="M93" s="41">
         <v>1.75</v>
       </c>
-      <c r="N93" s="40">
+      <c r="N93" s="39">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O93" s="50">
+      <c r="O93" s="49">
         <v>0.1</v>
       </c>
-      <c r="P93" s="40"/>
-      <c r="Q93" s="40"/>
-      <c r="R93" s="40" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="50"/>
-      <c r="B94" s="50" t="s">
+      <c r="P93" s="39"/>
+      <c r="Q93" s="39"/>
+      <c r="R93" s="39" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="49"/>
+      <c r="B94" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="50"/>
-      <c r="D94" s="50" t="s">
+      <c r="C94" s="49"/>
+      <c r="D94" s="49" t="s">
+        <v>725</v>
+      </c>
+      <c r="E94" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="F94" s="49"/>
+      <c r="G94" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H94" s="49"/>
+      <c r="I94" s="49">
+        <v>1</v>
+      </c>
+      <c r="J94" s="49"/>
+      <c r="K94" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="L94" s="49">
+        <v>3</v>
+      </c>
+      <c r="M94" s="41">
+        <v>1.75</v>
+      </c>
+      <c r="N94" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="O94" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
+      <c r="R94" s="39" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="49"/>
+      <c r="B95" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49" t="s">
+        <v>727</v>
+      </c>
+      <c r="E95" s="49" t="s">
         <v>728</v>
       </c>
-      <c r="E94" s="50" t="s">
-        <v>729</v>
-      </c>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50" t="s">
+      <c r="F95" s="49"/>
+      <c r="G95" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="50"/>
-      <c r="I94" s="50">
+      <c r="H95" s="49"/>
+      <c r="I95" s="49">
         <v>1</v>
       </c>
-      <c r="J94" s="50"/>
-      <c r="K94" s="50">
+      <c r="J95" s="49"/>
+      <c r="K95" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="L95" s="49">
+        <v>3</v>
+      </c>
+      <c r="M95" s="41">
+        <v>1.75</v>
+      </c>
+      <c r="N95" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="O95" s="41">
         <v>0.1</v>
       </c>
-      <c r="L94" s="50">
+      <c r="P95" s="41"/>
+      <c r="Q95" s="41"/>
+      <c r="R95" s="39" t="s">
+        <v>833</v>
+      </c>
+      <c r="T95" s="30"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B96" s="48" t="s">
+        <v>731</v>
+      </c>
+      <c r="C96" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="D96" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="E96" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F96" s="45"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="48"/>
+      <c r="J96" s="48"/>
+      <c r="K96" s="48"/>
+      <c r="L96" s="48"/>
+      <c r="M96" s="45"/>
+      <c r="N96" s="45"/>
+      <c r="O96" s="45"/>
+      <c r="P96" s="45"/>
+      <c r="Q96" s="45"/>
+      <c r="R96" s="45"/>
+    </row>
+    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="39"/>
+      <c r="B97" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="49"/>
+      <c r="D97" s="49" t="s">
+        <v>733</v>
+      </c>
+      <c r="E97" s="49" t="s">
+        <v>724</v>
+      </c>
+      <c r="F97" s="49"/>
+      <c r="G97" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H97" s="49"/>
+      <c r="I97" s="49">
+        <v>1</v>
+      </c>
+      <c r="J97" s="49"/>
+      <c r="K97" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="L97" s="49">
         <v>3</v>
       </c>
-      <c r="M94" s="42">
+      <c r="M97" s="41">
         <v>1.75</v>
       </c>
-      <c r="N94" s="50">
-        <v>0.25</v>
-      </c>
-      <c r="O94" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="P94" s="40"/>
-      <c r="Q94" s="40"/>
-      <c r="R94" s="40" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="50"/>
-      <c r="B95" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C95" s="50"/>
-      <c r="D95" s="50" t="s">
-        <v>730</v>
-      </c>
-      <c r="E95" s="50" t="s">
-        <v>731</v>
-      </c>
-      <c r="F95" s="50"/>
-      <c r="G95" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H95" s="50"/>
-      <c r="I95" s="50">
-        <v>1</v>
-      </c>
-      <c r="J95" s="50"/>
-      <c r="K95" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L95" s="50">
-        <v>3</v>
-      </c>
-      <c r="M95" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N95" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="O95" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="P95" s="42"/>
-      <c r="Q95" s="42"/>
-      <c r="R95" s="40" t="s">
-        <v>837</v>
-      </c>
-      <c r="T95" s="31"/>
-    </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B96" s="49" t="s">
-        <v>734</v>
-      </c>
-      <c r="C96" s="49" t="s">
-        <v>735</v>
-      </c>
-      <c r="D96" s="49" t="s">
-        <v>735</v>
-      </c>
-      <c r="E96" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="F96" s="46"/>
-      <c r="G96" s="49"/>
-      <c r="H96" s="49"/>
-      <c r="I96" s="49"/>
-      <c r="J96" s="49"/>
-      <c r="K96" s="49"/>
-      <c r="L96" s="49"/>
-      <c r="M96" s="46"/>
-      <c r="N96" s="46"/>
-      <c r="O96" s="46"/>
-      <c r="P96" s="46"/>
-      <c r="Q96" s="46"/>
-      <c r="R96" s="46"/>
-    </row>
-    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
-      <c r="B97" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C97" s="50"/>
-      <c r="D97" s="50" t="s">
-        <v>736</v>
-      </c>
-      <c r="E97" s="50" t="s">
-        <v>727</v>
-      </c>
-      <c r="F97" s="50"/>
-      <c r="G97" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H97" s="50"/>
-      <c r="I97" s="50">
-        <v>1</v>
-      </c>
-      <c r="J97" s="50"/>
-      <c r="K97" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L97" s="50">
-        <v>3</v>
-      </c>
-      <c r="M97" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N97" s="40">
+      <c r="N97" s="39">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O97" s="50">
+      <c r="O97" s="49">
         <v>0.1</v>
       </c>
-      <c r="P97" s="40"/>
-      <c r="Q97" s="40"/>
-      <c r="R97" s="40" t="s">
-        <v>837</v>
+      <c r="P97" s="39"/>
+      <c r="Q97" s="39"/>
+      <c r="R97" s="39" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="50"/>
-      <c r="B98" s="50" t="s">
+      <c r="A98" s="49"/>
+      <c r="B98" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="50"/>
-      <c r="D98" s="50" t="s">
-        <v>737</v>
-      </c>
-      <c r="E98" s="50" t="s">
-        <v>729</v>
-      </c>
-      <c r="F98" s="50"/>
-      <c r="G98" s="50" t="s">
+      <c r="C98" s="49"/>
+      <c r="D98" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E98" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="H98" s="50"/>
-      <c r="I98" s="50">
+      <c r="H98" s="49"/>
+      <c r="I98" s="49">
         <v>1</v>
       </c>
-      <c r="J98" s="50"/>
-      <c r="K98" s="50">
+      <c r="J98" s="49"/>
+      <c r="K98" s="49">
         <v>0.5</v>
       </c>
-      <c r="L98" s="50">
+      <c r="L98" s="49">
         <v>4</v>
       </c>
-      <c r="M98" s="42">
+      <c r="M98" s="41">
         <v>1.75</v>
       </c>
-      <c r="N98" s="50">
+      <c r="N98" s="49">
         <v>0.25</v>
       </c>
-      <c r="O98" s="50">
+      <c r="O98" s="49">
         <v>0.1</v>
       </c>
-      <c r="P98" s="40"/>
-      <c r="Q98" s="40"/>
-      <c r="R98" s="40" t="s">
-        <v>837</v>
+      <c r="P98" s="39"/>
+      <c r="Q98" s="39"/>
+      <c r="R98" s="39" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="50"/>
-      <c r="B99" s="50" t="s">
+      <c r="A99" s="49"/>
+      <c r="B99" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="50"/>
-      <c r="D99" s="50" t="s">
-        <v>738</v>
-      </c>
-      <c r="E99" s="50" t="s">
-        <v>731</v>
-      </c>
-      <c r="F99" s="50"/>
-      <c r="G99" s="50" t="s">
+      <c r="C99" s="49"/>
+      <c r="D99" s="49" t="s">
+        <v>735</v>
+      </c>
+      <c r="E99" s="49" t="s">
+        <v>728</v>
+      </c>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="H99" s="50"/>
-      <c r="I99" s="50">
+      <c r="H99" s="49"/>
+      <c r="I99" s="49">
         <v>1</v>
       </c>
-      <c r="J99" s="50"/>
-      <c r="K99" s="50">
+      <c r="J99" s="49"/>
+      <c r="K99" s="49">
         <v>0.5</v>
       </c>
-      <c r="L99" s="50">
+      <c r="L99" s="49">
         <v>3</v>
       </c>
-      <c r="M99" s="42">
+      <c r="M99" s="41">
         <v>1.75</v>
       </c>
-      <c r="N99" s="42">
+      <c r="N99" s="41">
         <v>0.25</v>
       </c>
-      <c r="O99" s="42">
+      <c r="O99" s="41">
         <v>0.1</v>
       </c>
-      <c r="P99" s="42"/>
-      <c r="Q99" s="42"/>
-      <c r="R99" s="40" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="46" t="b">
+      <c r="P99" s="41"/>
+      <c r="Q99" s="41"/>
+      <c r="R99" s="39" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B100" s="46" t="s">
+      <c r="B100" s="45" t="s">
+        <v>758</v>
+      </c>
+      <c r="C100" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="D100" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="E100" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="55" t="s">
         <v>761</v>
       </c>
-      <c r="C100" s="46" t="s">
-        <v>760</v>
-      </c>
-      <c r="D100" s="46" t="s">
-        <v>760</v>
-      </c>
-      <c r="E100" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="56" t="s">
-        <v>764</v>
-      </c>
-      <c r="E101" s="56" t="s">
-        <v>762</v>
-      </c>
-      <c r="F101" s="63"/>
-      <c r="G101" s="56" t="s">
+      <c r="E101" s="55" t="s">
+        <v>759</v>
+      </c>
+      <c r="F101" s="62"/>
+      <c r="G101" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="H101" s="56" t="s">
-        <v>654</v>
-      </c>
-      <c r="I101" s="56">
+      <c r="H101" s="55" t="s">
+        <v>651</v>
+      </c>
+      <c r="I101" s="55">
         <v>1</v>
       </c>
-      <c r="J101" s="59"/>
-      <c r="K101" s="58">
+      <c r="J101" s="58"/>
+      <c r="K101" s="57">
         <v>0.9</v>
       </c>
-      <c r="L101" s="58">
+      <c r="L101" s="57">
         <v>1</v>
       </c>
-      <c r="M101" s="58">
+      <c r="M101" s="57">
         <v>0.95</v>
       </c>
-      <c r="N101" s="58">
+      <c r="N101" s="57">
         <f>(L101-K101)/6</f>
         <v>1.6666666666666663E-2</v>
       </c>
-      <c r="O101" s="58">
+      <c r="O101" s="57">
         <v>0.1</v>
       </c>
-      <c r="R101" s="40" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="40" t="s">
+      <c r="R101" s="39" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B102" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="40" t="s">
-        <v>765</v>
-      </c>
-      <c r="E102" s="40" t="s">
-        <v>763</v>
-      </c>
-      <c r="F102" s="50"/>
-      <c r="G102" s="40" t="s">
+      <c r="D102" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="E102" s="39" t="s">
+        <v>760</v>
+      </c>
+      <c r="F102" s="49"/>
+      <c r="G102" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H102" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I102" s="40">
+      <c r="H102" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I102" s="39">
         <v>1450</v>
       </c>
-      <c r="J102" s="43"/>
-      <c r="K102" s="42">
-        <v>0</v>
-      </c>
-      <c r="L102" s="42">
+      <c r="J102" s="42"/>
+      <c r="K102" s="41">
+        <v>0</v>
+      </c>
+      <c r="L102" s="41">
         <v>3000</v>
       </c>
-      <c r="M102" s="42">
+      <c r="M102" s="41">
         <v>1450</v>
       </c>
-      <c r="N102" s="42">
+      <c r="N102" s="41">
         <f>(L102-K102)/6</f>
         <v>500</v>
       </c>
-      <c r="O102" s="42">
+      <c r="O102" s="41">
         <v>10</v>
       </c>
-      <c r="R102" s="40" t="s">
-        <v>837</v>
+      <c r="R102" s="39" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="37" t="b">
+      <c r="A103" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B103" s="37" t="s">
-        <v>739</v>
-      </c>
-      <c r="C103" s="37" t="s">
-        <v>740</v>
-      </c>
-      <c r="D103" s="37" t="s">
-        <v>740</v>
-      </c>
-      <c r="E103" s="37" t="s">
+      <c r="B103" s="36" t="s">
+        <v>736</v>
+      </c>
+      <c r="C103" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="D103" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="E103" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="37"/>
-      <c r="K103" s="37"/>
-      <c r="L103" s="37"/>
-      <c r="M103" s="37"/>
-      <c r="N103" s="37"/>
-      <c r="O103" s="37"/>
-      <c r="P103" s="37"/>
-      <c r="Q103" s="37"/>
-      <c r="R103" s="37"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="36"/>
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="36"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="63"/>
-      <c r="I104" s="31"/>
-      <c r="J104" s="31"/>
+      <c r="F104" s="62"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F105" s="47"/>
-      <c r="I105" s="31"/>
-      <c r="J105" s="31"/>
+      <c r="F105" s="46"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F106" s="47"/>
-      <c r="I106" s="31"/>
-      <c r="J106" s="31"/>
+      <c r="F106" s="46"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="30"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F107" s="47"/>
-      <c r="I107" s="31"/>
-      <c r="J107" s="31"/>
+      <c r="F107" s="46"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F108" s="47"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="31"/>
+      <c r="F108" s="46"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F109" s="47"/>
-      <c r="I109" s="31"/>
-      <c r="J109" s="31"/>
+      <c r="F109" s="46"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F110" s="47"/>
-      <c r="I110" s="31"/>
-      <c r="J110" s="31"/>
+      <c r="F110" s="46"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="30"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F111" s="47"/>
-      <c r="I111" s="31"/>
-      <c r="J111" s="31"/>
+      <c r="F111" s="46"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="47"/>
-      <c r="I112" s="31"/>
-      <c r="J112" s="31"/>
+      <c r="F112" s="46"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="30"/>
     </row>
     <row r="113" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I113" s="31"/>
-      <c r="J113" s="31"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="30"/>
     </row>
     <row r="114" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I114" s="31"/>
-      <c r="J114" s="31"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="30"/>
     </row>
     <row r="115" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I115" s="31"/>
-      <c r="J115" s="31"/>
+      <c r="I115" s="30"/>
+      <c r="J115" s="30"/>
     </row>
     <row r="116" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I116" s="31"/>
-      <c r="J116" s="31"/>
+      <c r="I116" s="30"/>
+      <c r="J116" s="30"/>
     </row>
     <row r="117" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I117" s="31"/>
-      <c r="J117" s="31"/>
+      <c r="I117" s="30"/>
+      <c r="J117" s="30"/>
     </row>
     <row r="118" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I118" s="31"/>
-      <c r="J118" s="31"/>
+      <c r="I118" s="30"/>
+      <c r="J118" s="30"/>
     </row>
     <row r="119" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I119" s="31"/>
-      <c r="J119" s="31"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="30"/>
     </row>
     <row r="120" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I120" s="31"/>
-      <c r="J120" s="31"/>
+      <c r="I120" s="30"/>
+      <c r="J120" s="30"/>
     </row>
     <row r="121" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I121" s="31"/>
-      <c r="J121" s="31"/>
+      <c r="I121" s="30"/>
+      <c r="J121" s="30"/>
     </row>
     <row r="122" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I122" s="31"/>
-      <c r="J122" s="31"/>
+      <c r="I122" s="30"/>
+      <c r="J122" s="30"/>
     </row>
     <row r="123" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I123" s="31"/>
-      <c r="J123" s="31"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="30"/>
     </row>
     <row r="124" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I124" s="31"/>
-      <c r="J124" s="31"/>
+      <c r="I124" s="30"/>
+      <c r="J124" s="30"/>
     </row>
     <row r="125" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I125" s="31"/>
-      <c r="J125" s="31"/>
+      <c r="I125" s="30"/>
+      <c r="J125" s="30"/>
     </row>
     <row r="126" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I126" s="31"/>
-      <c r="J126" s="31"/>
+      <c r="I126" s="30"/>
+      <c r="J126" s="30"/>
     </row>
     <row r="127" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I127" s="31"/>
-      <c r="J127" s="31"/>
+      <c r="I127" s="30"/>
+      <c r="J127" s="30"/>
     </row>
     <row r="128" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I128" s="31"/>
-      <c r="J128" s="31"/>
+      <c r="I128" s="30"/>
+      <c r="J128" s="30"/>
     </row>
     <row r="129" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I129" s="31"/>
-      <c r="J129" s="31"/>
+      <c r="I129" s="30"/>
+      <c r="J129" s="30"/>
     </row>
     <row r="130" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I130" s="31"/>
-      <c r="J130" s="31"/>
+      <c r="I130" s="30"/>
+      <c r="J130" s="30"/>
     </row>
     <row r="131" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I131" s="31"/>
-      <c r="J131" s="31"/>
+      <c r="I131" s="30"/>
+      <c r="J131" s="30"/>
     </row>
     <row r="132" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I132" s="31"/>
-      <c r="J132" s="31"/>
+      <c r="I132" s="30"/>
+      <c r="J132" s="30"/>
     </row>
     <row r="133" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I133" s="31"/>
-      <c r="J133" s="31"/>
+      <c r="I133" s="30"/>
+      <c r="J133" s="30"/>
     </row>
     <row r="134" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I134" s="31"/>
-      <c r="J134" s="31"/>
+      <c r="I134" s="30"/>
+      <c r="J134" s="30"/>
     </row>
     <row r="135" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I135" s="31"/>
-      <c r="J135" s="31"/>
+      <c r="I135" s="30"/>
+      <c r="J135" s="30"/>
     </row>
     <row r="136" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I136" s="31"/>
-      <c r="J136" s="31"/>
+      <c r="I136" s="30"/>
+      <c r="J136" s="30"/>
     </row>
     <row r="137" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I137" s="31"/>
-      <c r="J137" s="31"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="30"/>
     </row>
     <row r="138" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I138" s="31"/>
-      <c r="J138" s="31"/>
+      <c r="I138" s="30"/>
+      <c r="J138" s="30"/>
     </row>
     <row r="139" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I139" s="31"/>
-      <c r="J139" s="31"/>
+      <c r="I139" s="30"/>
+      <c r="J139" s="30"/>
     </row>
     <row r="140" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I140" s="31"/>
-      <c r="J140" s="31"/>
+      <c r="I140" s="30"/>
+      <c r="J140" s="30"/>
     </row>
     <row r="141" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I141" s="31"/>
-      <c r="J141" s="31"/>
+      <c r="I141" s="30"/>
+      <c r="J141" s="30"/>
     </row>
     <row r="142" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I142" s="31"/>
-      <c r="J142" s="31"/>
+      <c r="I142" s="30"/>
+      <c r="J142" s="30"/>
     </row>
     <row r="143" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I143" s="31"/>
-      <c r="J143" s="31"/>
+      <c r="I143" s="30"/>
+      <c r="J143" s="30"/>
     </row>
     <row r="144" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I144" s="31"/>
-      <c r="J144" s="31"/>
+      <c r="I144" s="30"/>
+      <c r="J144" s="30"/>
     </row>
     <row r="145" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I145" s="31"/>
-      <c r="J145" s="31"/>
+      <c r="I145" s="30"/>
+      <c r="J145" s="30"/>
     </row>
     <row r="146" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I146" s="31"/>
-      <c r="J146" s="31"/>
+      <c r="I146" s="30"/>
+      <c r="J146" s="30"/>
     </row>
     <row r="147" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I147" s="31"/>
-      <c r="J147" s="31"/>
+      <c r="I147" s="30"/>
+      <c r="J147" s="30"/>
     </row>
     <row r="148" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I148" s="31"/>
-      <c r="J148" s="31"/>
+      <c r="I148" s="30"/>
+      <c r="J148" s="30"/>
     </row>
     <row r="149" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I149" s="31"/>
-      <c r="J149" s="31"/>
+      <c r="I149" s="30"/>
+      <c r="J149" s="30"/>
     </row>
     <row r="150" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I150" s="31"/>
-      <c r="J150" s="31"/>
+      <c r="I150" s="30"/>
+      <c r="J150" s="30"/>
     </row>
     <row r="151" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I151" s="31"/>
-      <c r="J151" s="31"/>
+      <c r="I151" s="30"/>
+      <c r="J151" s="30"/>
     </row>
     <row r="152" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I152" s="31"/>
-      <c r="J152" s="31"/>
+      <c r="I152" s="30"/>
+      <c r="J152" s="30"/>
     </row>
     <row r="153" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I153" s="31"/>
-      <c r="J153" s="31"/>
+      <c r="I153" s="30"/>
+      <c r="J153" s="30"/>
     </row>
     <row r="154" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I154" s="31"/>
-      <c r="J154" s="31"/>
+      <c r="I154" s="30"/>
+      <c r="J154" s="30"/>
     </row>
     <row r="155" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I155" s="31"/>
-      <c r="J155" s="31"/>
+      <c r="I155" s="30"/>
+      <c r="J155" s="30"/>
     </row>
     <row r="156" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I156" s="31"/>
-      <c r="J156" s="31"/>
+      <c r="I156" s="30"/>
+      <c r="J156" s="30"/>
     </row>
     <row r="157" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I157" s="31"/>
-      <c r="J157" s="31"/>
+      <c r="I157" s="30"/>
+      <c r="J157" s="30"/>
     </row>
     <row r="158" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I158" s="31"/>
-      <c r="J158" s="31"/>
+      <c r="I158" s="30"/>
+      <c r="J158" s="30"/>
     </row>
     <row r="159" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I159" s="31"/>
-      <c r="J159" s="31"/>
+      <c r="I159" s="30"/>
+      <c r="J159" s="30"/>
     </row>
     <row r="160" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I160" s="31"/>
-      <c r="J160" s="31"/>
+      <c r="I160" s="30"/>
+      <c r="J160" s="30"/>
     </row>
     <row r="161" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I161" s="31"/>
-      <c r="J161" s="31"/>
+      <c r="I161" s="30"/>
+      <c r="J161" s="30"/>
     </row>
     <row r="162" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I162" s="31"/>
-      <c r="J162" s="31"/>
+      <c r="I162" s="30"/>
+      <c r="J162" s="30"/>
     </row>
     <row r="163" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I163" s="31"/>
-      <c r="J163" s="31"/>
+      <c r="I163" s="30"/>
+      <c r="J163" s="30"/>
     </row>
     <row r="164" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I164" s="31"/>
-      <c r="J164" s="31"/>
+      <c r="I164" s="30"/>
+      <c r="J164" s="30"/>
     </row>
     <row r="165" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I165" s="31"/>
-      <c r="J165" s="31"/>
+      <c r="I165" s="30"/>
+      <c r="J165" s="30"/>
     </row>
     <row r="166" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I166" s="31"/>
-      <c r="J166" s="31"/>
+      <c r="I166" s="30"/>
+      <c r="J166" s="30"/>
     </row>
     <row r="167" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I167" s="31"/>
-      <c r="J167" s="31"/>
+      <c r="I167" s="30"/>
+      <c r="J167" s="30"/>
     </row>
     <row r="168" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I168" s="31"/>
-      <c r="J168" s="31"/>
+      <c r="I168" s="30"/>
+      <c r="J168" s="30"/>
     </row>
     <row r="169" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I169" s="31"/>
-      <c r="J169" s="31"/>
+      <c r="I169" s="30"/>
+      <c r="J169" s="30"/>
     </row>
     <row r="170" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I170" s="31"/>
-      <c r="J170" s="31"/>
+      <c r="I170" s="30"/>
+      <c r="J170" s="30"/>
     </row>
     <row r="171" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I171" s="31"/>
-      <c r="J171" s="31"/>
+      <c r="I171" s="30"/>
+      <c r="J171" s="30"/>
     </row>
     <row r="172" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I172" s="31"/>
-      <c r="J172" s="31"/>
+      <c r="I172" s="30"/>
+      <c r="J172" s="30"/>
     </row>
     <row r="173" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I173" s="31"/>
-      <c r="J173" s="31"/>
+      <c r="I173" s="30"/>
+      <c r="J173" s="30"/>
     </row>
     <row r="174" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I174" s="31"/>
-      <c r="J174" s="31"/>
+      <c r="I174" s="30"/>
+      <c r="J174" s="30"/>
     </row>
     <row r="175" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I175" s="31"/>
-      <c r="J175" s="31"/>
+      <c r="I175" s="30"/>
+      <c r="J175" s="30"/>
     </row>
     <row r="176" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I176" s="31"/>
-      <c r="J176" s="31"/>
+      <c r="I176" s="30"/>
+      <c r="J176" s="30"/>
     </row>
     <row r="177" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I177" s="31"/>
-      <c r="J177" s="31"/>
+      <c r="I177" s="30"/>
+      <c r="J177" s="30"/>
     </row>
     <row r="178" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I178" s="31"/>
-      <c r="J178" s="31"/>
+      <c r="I178" s="30"/>
+      <c r="J178" s="30"/>
     </row>
     <row r="179" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I179" s="31"/>
-      <c r="J179" s="31"/>
+      <c r="I179" s="30"/>
+      <c r="J179" s="30"/>
     </row>
     <row r="180" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I180" s="31"/>
-      <c r="J180" s="31"/>
+      <c r="I180" s="30"/>
+      <c r="J180" s="30"/>
     </row>
     <row r="181" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I181" s="31"/>
-      <c r="J181" s="31"/>
+      <c r="I181" s="30"/>
+      <c r="J181" s="30"/>
     </row>
     <row r="182" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I182" s="31"/>
-      <c r="J182" s="31"/>
+      <c r="I182" s="30"/>
+      <c r="J182" s="30"/>
     </row>
     <row r="183" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I183" s="31"/>
-      <c r="J183" s="31"/>
+      <c r="I183" s="30"/>
+      <c r="J183" s="30"/>
     </row>
     <row r="184" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I184" s="31"/>
-      <c r="J184" s="31"/>
+      <c r="I184" s="30"/>
+      <c r="J184" s="30"/>
     </row>
     <row r="185" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I185" s="31"/>
-      <c r="J185" s="31"/>
+      <c r="I185" s="30"/>
+      <c r="J185" s="30"/>
     </row>
     <row r="186" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I186" s="31"/>
-      <c r="J186" s="31"/>
+      <c r="I186" s="30"/>
+      <c r="J186" s="30"/>
     </row>
     <row r="187" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I187" s="31"/>
-      <c r="J187" s="31"/>
+      <c r="I187" s="30"/>
+      <c r="J187" s="30"/>
     </row>
     <row r="188" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I188" s="31"/>
-      <c r="J188" s="31"/>
+      <c r="I188" s="30"/>
+      <c r="J188" s="30"/>
     </row>
     <row r="189" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I189" s="31"/>
-      <c r="J189" s="31"/>
+      <c r="I189" s="30"/>
+      <c r="J189" s="30"/>
     </row>
     <row r="190" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I190" s="31"/>
-      <c r="J190" s="31"/>
+      <c r="I190" s="30"/>
+      <c r="J190" s="30"/>
     </row>
     <row r="191" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I191" s="31"/>
-      <c r="J191" s="31"/>
+      <c r="I191" s="30"/>
+      <c r="J191" s="30"/>
     </row>
     <row r="192" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I192" s="31"/>
-      <c r="J192" s="31"/>
+      <c r="I192" s="30"/>
+      <c r="J192" s="30"/>
     </row>
     <row r="193" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I193" s="31"/>
-      <c r="J193" s="31"/>
+      <c r="I193" s="30"/>
+      <c r="J193" s="30"/>
     </row>
     <row r="194" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I194" s="31"/>
-      <c r="J194" s="31"/>
+      <c r="I194" s="30"/>
+      <c r="J194" s="30"/>
     </row>
     <row r="195" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I195" s="31"/>
-      <c r="J195" s="31"/>
+      <c r="I195" s="30"/>
+      <c r="J195" s="30"/>
     </row>
     <row r="196" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I196" s="31"/>
-      <c r="J196" s="31"/>
+      <c r="I196" s="30"/>
+      <c r="J196" s="30"/>
     </row>
     <row r="197" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I197" s="31"/>
-      <c r="J197" s="31"/>
+      <c r="I197" s="30"/>
+      <c r="J197" s="30"/>
     </row>
     <row r="198" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I198" s="31"/>
-      <c r="J198" s="31"/>
+      <c r="I198" s="30"/>
+      <c r="J198" s="30"/>
     </row>
     <row r="199" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I199" s="31"/>
-      <c r="J199" s="31"/>
+      <c r="I199" s="30"/>
+      <c r="J199" s="30"/>
     </row>
     <row r="200" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I200" s="31"/>
-      <c r="J200" s="31"/>
+      <c r="I200" s="30"/>
+      <c r="J200" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA127"/>
@@ -10378,26 +10341,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="31" customWidth="1"/>
-    <col min="4" max="4" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.44140625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="31" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="31"/>
+    <col min="1" max="1" width="29.44140625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="71" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.44140625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="30" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="30" customWidth="1"/>
+    <col min="12" max="16384" width="11.44140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="60"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -10411,11 +10374,11 @@
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B2" s="65" t="s">
-        <v>768</v>
+      <c r="B2" s="64" t="s">
+        <v>765</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>458</v>
@@ -10427,40 +10390,40 @@
         <v>11</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>618</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>622</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>769</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>625</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>459</v>
@@ -10472,1145 +10435,1145 @@
         <v>459</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="L3" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>628</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>625</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>629</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>636</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>767</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>631</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>623</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>768</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>630</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>624</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>637</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>631</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>628</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F4" s="30" t="s">
+      <c r="E7" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="30" t="b">
+      <c r="G7" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>638</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>632</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>629</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F5" s="30" t="s">
+      <c r="I7" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29" t="s">
+        <v>675</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="30" t="b">
+      <c r="G8" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>639</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>770</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>634</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>626</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F6" s="30" t="s">
+      <c r="I8" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="30" t="b">
+      <c r="G9" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>640</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>771</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>633</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>627</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F7" s="30" t="s">
+      <c r="I9" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="30" t="b">
+      <c r="G10" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>677</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30" t="s">
-        <v>678</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F8" s="30" t="s">
+      <c r="I10" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>680</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29" t="s">
+        <v>681</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="30" t="b">
+      <c r="G11" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>679</v>
-      </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30" t="s">
-        <v>680</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F9" s="30" t="s">
+      <c r="I11" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F12" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="30" t="b">
+      <c r="G12" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>681</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30" t="s">
-        <v>682</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F10" s="30" t="s">
+      <c r="I12" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>684</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="30" t="b">
+      <c r="G13" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>683</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30" t="s">
-        <v>684</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F11" s="30" t="s">
+      <c r="I13" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>686</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29" t="s">
+        <v>687</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="30" t="b">
+      <c r="G14" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>685</v>
-      </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30" t="s">
-        <v>686</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F12" s="30" t="s">
+      <c r="I14" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>688</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="30" t="b">
+      <c r="G15" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
-        <v>687</v>
-      </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F13" s="30" t="s">
+      <c r="I15" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>690</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29" t="s">
+        <v>691</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="30" t="b">
+      <c r="G16" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I13" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>689</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30" t="s">
-        <v>690</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F14" s="30" t="s">
+      <c r="I16" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>692</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29" t="s">
+        <v>693</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="30" t="b">
+      <c r="G17" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I14" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>691</v>
-      </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F15" s="30" t="s">
+      <c r="I17" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>694</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29" t="s">
+        <v>695</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="30" t="b">
+      <c r="G18" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I15" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>693</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30" t="s">
-        <v>694</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F16" s="30" t="s">
+      <c r="I18" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>696</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29" t="s">
+        <v>697</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F19" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="30" t="b">
+      <c r="G19" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
-        <v>695</v>
-      </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30" t="s">
-        <v>696</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F17" s="30" t="s">
+      <c r="I19" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>698</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29" t="s">
+        <v>699</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F20" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="30" t="b">
+      <c r="G20" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I17" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>697</v>
-      </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30" t="s">
-        <v>698</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F18" s="30" t="s">
+      <c r="I20" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>700</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29" t="s">
+        <v>701</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F21" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="30" t="b">
+      <c r="G21" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I18" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
-        <v>699</v>
-      </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30" t="s">
-        <v>700</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F19" s="30" t="s">
+      <c r="I21" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29" t="s">
+        <v>703</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="F22" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="30" t="b">
+      <c r="G22" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I19" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
-        <v>701</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30" t="s">
-        <v>702</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F20" s="30" t="s">
+      <c r="I22" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>705</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29" t="s">
+        <v>706</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="F23" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="30" t="b">
+      <c r="G23" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I20" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
-        <v>703</v>
-      </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30" t="s">
+      <c r="I23" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29" t="s">
+        <v>708</v>
+      </c>
+      <c r="E24" s="29" t="s">
         <v>704</v>
       </c>
-      <c r="E21" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F21" s="30" t="s">
+      <c r="F24" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="30" t="b">
+      <c r="G24" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I21" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
-        <v>705</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30" t="s">
-        <v>706</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="F22" s="30" t="s">
+      <c r="I24" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>709</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29" t="s">
+        <v>710</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>711</v>
+      </c>
+      <c r="F25" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="30" t="b">
+      <c r="G25" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I22" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
-        <v>708</v>
-      </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30" t="s">
-        <v>709</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="F23" s="30" t="s">
+      <c r="I25" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="F26" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="30" t="b">
+      <c r="G26" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I23" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30" t="s">
-        <v>711</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="F24" s="30" t="s">
+      <c r="I26" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>644</v>
+      </c>
+      <c r="B27" s="46"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29" t="s">
+        <v>821</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="F27" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="30" t="b">
+      <c r="G27" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I24" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+      <c r="I27" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
         <v>712</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29" t="s">
+        <v>822</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
         <v>713</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
         <v>714</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F30" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="30" t="b">
+      <c r="G30" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I25" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
-        <v>645</v>
-      </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30" t="s">
-        <v>823</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>646</v>
-      </c>
-      <c r="F26" s="30" t="s">
+      <c r="H30" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
+        <v>715</v>
+      </c>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29" t="s">
+        <v>825</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F31" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="30" t="b">
+      <c r="G31" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I26" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
-        <v>647</v>
-      </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30" t="s">
-        <v>824</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>648</v>
-      </c>
-      <c r="F27" s="30" t="s">
+      <c r="H31" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
+        <v>716</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29" t="s">
+        <v>826</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F32" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="30" t="b">
+      <c r="G32" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I27" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
-        <v>715</v>
-      </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30" t="s">
-        <v>825</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F28" s="31" t="s">
+      <c r="H32" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
+        <v>717</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29" t="s">
+        <v>827</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F33" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="30" t="b">
+      <c r="G33" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I28" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
-        <v>716</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30" t="s">
-        <v>826</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F29" s="31" t="s">
+      <c r="H33" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="s">
+        <v>739</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="30" t="b">
+      <c r="G34" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I29" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
-        <v>717</v>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30" t="s">
-        <v>827</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F30" s="31" t="s">
+      <c r="H34" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>740</v>
+      </c>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="E35" s="29"/>
+      <c r="F35" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="30" t="b">
+      <c r="G35" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H30" s="30" t="b">
+      <c r="H35" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I30" s="30" t="b">
+      <c r="I35" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>741</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29" t="s">
+        <v>830</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30" t="s">
-        <v>828</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F31" s="31" t="s">
+      <c r="H36" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>742</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="D37" s="29" t="s">
+        <v>831</v>
+      </c>
+      <c r="F37" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="30" t="b">
+      <c r="G37" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H31" s="30" t="b">
+      <c r="H37" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I31" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
-        <v>719</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30" t="s">
-        <v>829</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30" t="s">
-        <v>830</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
-        <v>742</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30" t="s">
-        <v>831</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
-        <v>743</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30" t="s">
-        <v>832</v>
-      </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
-        <v>744</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30" t="s">
-        <v>833</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
-        <v>745</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="D37" s="30" t="s">
-        <v>834</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="30" t="b">
+      <c r="I37" s="29" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="30"/>
+      <c r="B38" s="29"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="30"/>
+      <c r="B39" s="29"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="30"/>
+      <c r="B40" s="29"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="30"/>
+      <c r="B41" s="29"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="30"/>
+      <c r="B42" s="29"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="30"/>
+      <c r="B43" s="29"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="30"/>
+      <c r="B44" s="29"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="30"/>
+      <c r="B45" s="29"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="30"/>
+      <c r="B46" s="29"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="30"/>
+      <c r="B47" s="29"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="30"/>
+      <c r="B48" s="29"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="30"/>
+      <c r="B49" s="29"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="30"/>
+      <c r="B50" s="29"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="30"/>
+      <c r="B51" s="29"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="30"/>
+      <c r="B52" s="29"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="30"/>
+      <c r="B53" s="29"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="30"/>
+      <c r="B54" s="29"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="30"/>
+      <c r="B55" s="29"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="30"/>
+      <c r="B56" s="29"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="30"/>
+      <c r="B57" s="29"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="30"/>
+      <c r="B58" s="29"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="30"/>
+      <c r="B59" s="29"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="30"/>
+      <c r="B60" s="29"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="30"/>
+      <c r="B61" s="29"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="30"/>
+      <c r="B62" s="29"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="30"/>
+      <c r="B63" s="29"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="30"/>
+      <c r="B64" s="29"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="30"/>
+      <c r="B65" s="29"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="30"/>
+      <c r="B66" s="29"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="30"/>
+      <c r="B67" s="29"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="30"/>
+      <c r="B68" s="29"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="30"/>
+      <c r="B69" s="29"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="30"/>
+      <c r="B70" s="29"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="30"/>
+      <c r="B71" s="29"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="30"/>
+      <c r="B72" s="29"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="30"/>
+      <c r="B73" s="29"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="30"/>
+      <c r="B74" s="29"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="30"/>
+      <c r="B75" s="29"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="30"/>
+      <c r="B76" s="29"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="30"/>
+      <c r="B77" s="29"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="30"/>
+      <c r="B78" s="29"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="30"/>
+      <c r="B79" s="29"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="30"/>
+      <c r="B80" s="29"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="30"/>
+      <c r="B81" s="29"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="30"/>
+      <c r="B82" s="29"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="30"/>
+      <c r="B83" s="29"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="30"/>
+      <c r="B84" s="29"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="30"/>
+      <c r="B85" s="29"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="30"/>
+      <c r="B86" s="29"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="30"/>
+      <c r="B87" s="29"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="30"/>
+      <c r="B88" s="29"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="30"/>
+      <c r="B89" s="29"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="30"/>
+      <c r="B90" s="29"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="30"/>
+      <c r="B91" s="29"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="30"/>
+      <c r="B92" s="29"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="30"/>
+      <c r="B93" s="29"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="30"/>
+      <c r="B94" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18983,10 +18946,10 @@
         <v>0</v>
       </c>
       <c r="B328" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C328" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D328" t="s">
         <v>66</v>
@@ -18997,10 +18960,10 @@
         <v>21</v>
       </c>
       <c r="C329" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D329" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E329" t="s">
         <v>2</v>
@@ -19009,10 +18972,10 @@
         <v>60</v>
       </c>
       <c r="H329" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I329" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -19020,10 +18983,10 @@
         <v>21</v>
       </c>
       <c r="C330" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D330" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E330" t="s">
         <v>2</v>
@@ -19040,10 +19003,10 @@
         <v>21</v>
       </c>
       <c r="C331" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D331" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E331" t="s">
         <v>2</v>
@@ -19060,10 +19023,10 @@
         <v>21</v>
       </c>
       <c r="C332" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D332" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E332" t="s">
         <v>2</v>
@@ -19080,10 +19043,10 @@
         <v>21</v>
       </c>
       <c r="C333" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D333" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E333" t="s">
         <v>2</v>
@@ -19097,10 +19060,10 @@
         <v>21</v>
       </c>
       <c r="C334" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D334" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E334" t="s">
         <v>2</v>
@@ -19109,10 +19072,10 @@
         <v>60</v>
       </c>
       <c r="H334" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I334" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -19120,10 +19083,10 @@
         <v>21</v>
       </c>
       <c r="C335" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D335" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E335" t="s">
         <v>2</v>
@@ -19132,10 +19095,10 @@
         <v>60</v>
       </c>
       <c r="H335" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I335" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -19143,10 +19106,10 @@
         <v>0</v>
       </c>
       <c r="B336" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C336" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D336" t="s">
         <v>66</v>
@@ -19157,10 +19120,10 @@
         <v>21</v>
       </c>
       <c r="C337" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D337" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E337" t="s">
         <v>2</v>
@@ -19169,10 +19132,10 @@
         <v>60</v>
       </c>
       <c r="H337" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I337" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.3">
@@ -19180,10 +19143,10 @@
         <v>21</v>
       </c>
       <c r="C338" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D338" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E338" t="s">
         <v>2</v>
@@ -19192,10 +19155,10 @@
         <v>60</v>
       </c>
       <c r="H338" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I338" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.3">
@@ -19203,10 +19166,10 @@
         <v>21</v>
       </c>
       <c r="C339" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D339" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E339" t="s">
         <v>2</v>
@@ -19223,10 +19186,10 @@
         <v>21</v>
       </c>
       <c r="C340" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D340" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E340" t="s">
         <v>2</v>
@@ -19243,10 +19206,10 @@
         <v>21</v>
       </c>
       <c r="C341" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D341" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E341" t="s">
         <v>2</v>
@@ -19260,10 +19223,10 @@
         <v>0</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>66</v>
@@ -19287,10 +19250,10 @@
         <v>21</v>
       </c>
       <c r="C343" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D343" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E343" t="s">
         <v>2</v>
@@ -19299,10 +19262,10 @@
         <v>60</v>
       </c>
       <c r="H343" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I343" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
@@ -19316,10 +19279,10 @@
         <v>21</v>
       </c>
       <c r="C344" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D344" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E344" t="s">
         <v>2</v>
@@ -19354,10 +19317,10 @@
         <v>0</v>
       </c>
       <c r="B345" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C345" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>66</v>
@@ -19368,10 +19331,10 @@
         <v>21</v>
       </c>
       <c r="C346" t="s">
+        <v>516</v>
+      </c>
+      <c r="D346" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="E346" t="s">
         <v>2</v>
@@ -19582,10 +19545,10 @@
         <v>0</v>
       </c>
       <c r="B357" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C357" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D357" t="s">
         <v>66</v>
@@ -19596,10 +19559,10 @@
         <v>21</v>
       </c>
       <c r="C358" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D358" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E358" t="s">
         <v>2</v>
@@ -19616,10 +19579,10 @@
         <v>21</v>
       </c>
       <c r="C359" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D359" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E359" t="s">
         <v>2</v>
@@ -19636,10 +19599,10 @@
         <v>0</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>66</v>
@@ -19652,10 +19615,10 @@
         <v>21</v>
       </c>
       <c r="C361" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D361" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E361" t="s">
         <v>2</v>
@@ -19665,10 +19628,10 @@
       </c>
       <c r="G361"/>
       <c r="H361" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I361" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J361"/>
       <c r="K361"/>
@@ -19679,10 +19642,10 @@
         <v>22</v>
       </c>
       <c r="C362" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D362" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E362" t="s">
         <v>15</v>
@@ -19719,10 +19682,10 @@
         <v>0</v>
       </c>
       <c r="B363" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C363" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>66</v>
@@ -19733,10 +19696,10 @@
         <v>21</v>
       </c>
       <c r="C364" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D364" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E364" t="s">
         <v>2</v>
@@ -19753,10 +19716,10 @@
         <v>0</v>
       </c>
       <c r="B365" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C365" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>66</v>
@@ -19767,10 +19730,10 @@
         <v>21</v>
       </c>
       <c r="C366" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D366" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E366" t="s">
         <v>2</v>
@@ -19822,130 +19785,130 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="B2" s="30" t="s">
+    </row>
+    <row r="3" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>588</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>590</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="C5" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>591</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>592</v>
-      </c>
-      <c r="B4" s="30" t="s">
+      <c r="C6" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>593</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>594</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>443</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>595</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>596</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>444</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="D7" s="29" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
         <v>597</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="B7" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>598</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="D8" s="29" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="B9" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>601</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>565</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="E11" t="s">
+        <v>550</v>
+      </c>
+      <c r="G11" t="s">
         <v>567</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="E11" t="s">
-        <v>552</v>
-      </c>
-      <c r="G11" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -19956,10 +19919,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -19970,66 +19933,66 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C16" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L16" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O16" t="s">
-        <v>561</v>
-      </c>
-      <c r="R16" s="30" t="s">
-        <v>549</v>
-      </c>
-      <c r="U16" s="30" t="s">
-        <v>550</v>
+        <v>559</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>547</v>
+      </c>
+      <c r="U16" s="29" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G17" t="s">
         <v>452</v>
       </c>
       <c r="H17" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="J17" s="29">
+        <v>534</v>
+      </c>
+      <c r="J17" s="28">
         <v>0.01</v>
       </c>
-      <c r="K17" s="31" t="s">
-        <v>575</v>
+      <c r="K17" s="30" t="s">
+        <v>573</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M17">
         <v>30</v>
       </c>
       <c r="N17" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="O17" t="s">
         <v>4</v>
@@ -20037,8 +20000,8 @@
       <c r="P17">
         <v>30</v>
       </c>
-      <c r="Q17" s="30" t="s">
-        <v>577</v>
+      <c r="Q17" s="29" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -20052,232 +20015,232 @@
         <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="J18" s="29">
+        <v>539</v>
+      </c>
+      <c r="J18" s="28">
         <v>0.01</v>
       </c>
       <c r="K18" t="s">
-        <v>574</v>
-      </c>
-      <c r="L18" s="31" t="s">
-        <v>562</v>
+        <v>572</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>560</v>
       </c>
       <c r="M18">
         <v>5</v>
       </c>
-      <c r="N18" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="O18" s="31" t="s">
-        <v>562</v>
+      <c r="N18" s="29" t="s">
+        <v>574</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>560</v>
       </c>
       <c r="P18">
         <v>3</v>
       </c>
       <c r="Q18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="J19" s="29">
+        <v>553</v>
+      </c>
+      <c r="J19" s="28">
         <v>45036000000000</v>
       </c>
       <c r="K19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M19">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>581</v>
-      </c>
-      <c r="O19" s="31" t="s">
-        <v>563</v>
+        <v>579</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>561</v>
       </c>
       <c r="P19">
         <v>0.85</v>
       </c>
       <c r="Q19" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M20">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>579</v>
-      </c>
-      <c r="O20" s="31" t="s">
-        <v>564</v>
+        <v>577</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>562</v>
       </c>
       <c r="P20">
         <v>2</v>
       </c>
       <c r="Q20" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="J21" s="31" t="s">
-        <v>538</v>
+        <v>535</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>536</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="M21" s="29">
+        <v>558</v>
+      </c>
+      <c r="M21" s="28">
         <v>0.01</v>
       </c>
-      <c r="N21" s="31" t="s">
-        <v>580</v>
-      </c>
-      <c r="O21" s="31" t="s">
-        <v>565</v>
+      <c r="N21" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>563</v>
       </c>
       <c r="P21">
         <v>2</v>
       </c>
-      <c r="Q21" s="30" t="s">
-        <v>585</v>
+      <c r="Q21" s="29" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="J22" s="31">
+        <v>537</v>
+      </c>
+      <c r="J22" s="30">
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="M22" s="29">
+        <v>534</v>
+      </c>
+      <c r="M22" s="28">
         <v>0.01</v>
       </c>
-      <c r="N22" s="31" t="s">
-        <v>575</v>
-      </c>
-      <c r="O22" s="31" t="s">
-        <v>566</v>
+      <c r="N22" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>564</v>
       </c>
       <c r="P22">
         <v>0.8</v>
       </c>
       <c r="Q22" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="M23" s="29">
+        <v>539</v>
+      </c>
+      <c r="M23" s="28">
         <v>0.01</v>
       </c>
-      <c r="N23" s="30" t="s">
-        <v>574</v>
-      </c>
-      <c r="O23" s="31" t="s">
-        <v>537</v>
-      </c>
-      <c r="P23" s="31" t="s">
-        <v>538</v>
+      <c r="N23" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="M24" s="29">
+        <v>553</v>
+      </c>
+      <c r="M24" s="28">
         <v>45036000000000</v>
       </c>
-      <c r="N24" s="30" t="s">
-        <v>573</v>
-      </c>
-      <c r="O24" s="31" t="s">
-        <v>539</v>
-      </c>
-      <c r="P24" s="31">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="30" t="s">
+      <c r="N24" s="29" t="s">
         <v>571</v>
+      </c>
+      <c r="O24" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="P24" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="M25" s="30">
+        <v>554</v>
+      </c>
+      <c r="M25" s="29">
         <v>100</v>
       </c>
-      <c r="N25" s="30" t="s">
-        <v>572</v>
+      <c r="N25" s="29" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="M26" s="31" t="s">
-        <v>538</v>
+        <v>535</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="M27" s="31">
-        <v>2</v>
-      </c>
-      <c r="N27" s="30" t="s">
-        <v>571</v>
+        <v>537</v>
+      </c>
+      <c r="M27" s="30">
+        <v>2</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/projects/SEB_calibration_PSO_2013.xlsx
+++ b/projects/SEB_calibration_PSO_2013.xlsx
@@ -2544,7 +2544,7 @@
     <t>uniform</t>
   </si>
   <si>
-    <t>1.17.0</t>
+    <t>1.21.14</t>
   </si>
 </sst>
 </file>
@@ -6865,7 +6865,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6983,7 +6983,7 @@
         <v>456</v>
       </c>
       <c r="B9" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="32"/>

--- a/projects/SEB_calibration_PSO_2013.xlsx
+++ b/projects/SEB_calibration_PSO_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="833">
   <si>
     <t>type</t>
   </si>
@@ -2250,12 +2250,6 @@
     <t>Roof thermal mass multiplier</t>
   </si>
   <si>
-    <t>Server Directory Cleanup</t>
-  </si>
-  <si>
-    <t>ServerDirectoryCleanup</t>
-  </si>
-  <si>
     <t>../analysis</t>
   </si>
   <si>
@@ -2370,9 +2364,6 @@
     <t>SEB4 baseboard PSO 2013</t>
   </si>
   <si>
-    <t>pso</t>
-  </si>
-  <si>
     <t>vini</t>
   </si>
   <si>
@@ -2499,45 +2490,6 @@
     <t>spso2011</t>
   </si>
   <si>
-    <t>CalibrationReportsEnhanced</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Calibration Reports Enhanced</t>
   </si>
   <si>
@@ -2545,6 +2497,48 @@
   </si>
   <si>
     <t>1.21.14</t>
+  </si>
+  <si>
+    <t>single_run</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electric_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electric_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electric_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electric_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electric_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electric_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_nmbe_within_limit</t>
   </si>
 </sst>
 </file>
@@ -6864,8 +6858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6901,7 +6895,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6912,7 +6906,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6923,7 +6917,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -6934,7 +6928,7 @@
         <v>466</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>468</v>
@@ -7005,7 +6999,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
@@ -7016,7 +7010,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>647</v>
@@ -7027,7 +7021,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>647</v>
@@ -7073,7 +7067,7 @@
         <v>449</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>776</v>
+        <v>819</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7099,7 +7093,7 @@
     </row>
     <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B22" s="29">
         <v>94</v>
@@ -7119,7 +7113,7 @@
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B24" s="29">
         <v>3000</v>
@@ -7129,7 +7123,7 @@
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B25" s="29">
         <v>0.9</v>
@@ -7139,7 +7133,7 @@
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B26" s="28">
         <v>1</v>
@@ -7148,7 +7142,7 @@
     </row>
     <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B27" s="28">
         <v>1</v>
@@ -7157,27 +7151,27 @@
     </row>
     <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="34"/>
     </row>
     <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="34"/>
     </row>
     <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>15</v>
@@ -7187,17 +7181,17 @@
     </row>
     <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B32" s="28">
         <v>0.01</v>
@@ -7207,7 +7201,7 @@
     </row>
     <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B33" s="28">
         <v>0.01</v>
@@ -7217,10 +7211,10 @@
     </row>
     <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="2"/>
@@ -7243,7 +7237,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7271,7 +7265,7 @@
         <v>638</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E39" s="2"/>
     </row>
@@ -7298,7 +7292,7 @@
         <v>640</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7328,9 +7322,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R121" sqref="R121"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7428,7 +7422,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7493,13 +7487,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E4" s="36" t="s">
         <v>66</v>
@@ -7512,17 +7506,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F5" s="62"/>
       <c r="G5" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J5" s="30"/>
     </row>
@@ -7531,7 +7525,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>164</v>
@@ -7541,7 +7535,7 @@
         <v>718</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="J6" s="30"/>
     </row>
@@ -7550,17 +7544,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F7" s="62"/>
       <c r="G7" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="J7" s="30"/>
     </row>
@@ -7569,10 +7563,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F8" s="62"/>
       <c r="G8" s="30" t="s">
@@ -7588,17 +7582,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F9" s="62"/>
       <c r="G9" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="J9" s="30"/>
     </row>
@@ -7617,7 +7611,7 @@
         <v>718</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="J10" s="30"/>
     </row>
@@ -7636,7 +7630,7 @@
         <v>718</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J11" s="30"/>
     </row>
@@ -7645,17 +7639,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F12" s="62"/>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="J12" s="30"/>
     </row>
@@ -7664,17 +7658,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F13" s="62"/>
       <c r="G13" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="J13" s="30"/>
     </row>
@@ -7683,13 +7677,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>66</v>
@@ -7702,17 +7696,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F15" s="62"/>
       <c r="G15" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="J15" s="30"/>
     </row>
@@ -7721,7 +7715,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>164</v>
@@ -7731,7 +7725,7 @@
         <v>718</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="J16" s="30"/>
     </row>
@@ -7740,17 +7734,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F17" s="62"/>
       <c r="G17" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="J17" s="30"/>
     </row>
@@ -7759,10 +7753,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F18" s="62"/>
       <c r="G18" s="30" t="s">
@@ -7778,17 +7772,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F19" s="62"/>
       <c r="G19" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="J19" s="30"/>
     </row>
@@ -7807,7 +7801,7 @@
         <v>718</v>
       </c>
       <c r="I20" s="47" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="J20" s="30"/>
     </row>
@@ -7826,7 +7820,7 @@
         <v>718</v>
       </c>
       <c r="I21" s="47" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J21" s="30"/>
     </row>
@@ -7835,17 +7829,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F22" s="62"/>
       <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="47" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="J22" s="30"/>
     </row>
@@ -7854,13 +7848,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E23" s="36" t="s">
         <v>231</v>
@@ -7941,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="39" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7996,7 +7990,7 @@
         <v>0.01</v>
       </c>
       <c r="R28" s="39" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8173,7 +8167,7 @@
       </c>
       <c r="Q36" s="54"/>
       <c r="R36" s="39" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8441,7 +8435,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="39" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8593,13 +8587,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D54" s="45" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E54" s="45" t="s">
         <v>66</v>
@@ -8631,10 +8625,10 @@
         <v>22</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F56" s="49"/>
       <c r="G56" s="39" t="s">
@@ -8664,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="39" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8834,13 +8828,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E65" s="45" t="s">
         <v>66</v>
@@ -8851,7 +8845,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E66" s="29" t="s">
         <v>124</v>
@@ -8872,10 +8866,10 @@
         <v>22</v>
       </c>
       <c r="D67" s="39" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E67" s="39" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F67" s="49"/>
       <c r="G67" s="39" t="s">
@@ -8905,7 +8899,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="39" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9113,7 +9107,7 @@
         <v>22</v>
       </c>
       <c r="D78" s="39" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E78" s="39" t="s">
         <v>243</v>
@@ -9146,7 +9140,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="39" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9154,10 +9148,10 @@
         <v>22</v>
       </c>
       <c r="D79" s="39" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E79" s="39" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F79" s="49"/>
       <c r="G79" s="39" t="s">
@@ -9187,7 +9181,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="39" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9407,7 +9401,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="39" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9448,7 +9442,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="39" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9544,7 +9538,7 @@
       <c r="P93" s="39"/>
       <c r="Q93" s="39"/>
       <c r="R93" s="39" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9586,7 +9580,7 @@
       <c r="P94" s="39"/>
       <c r="Q94" s="39"/>
       <c r="R94" s="39" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9628,7 +9622,7 @@
       <c r="P95" s="41"/>
       <c r="Q95" s="41"/>
       <c r="R95" s="39" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="T95" s="30"/>
     </row>
@@ -9702,7 +9696,7 @@
       <c r="P97" s="39"/>
       <c r="Q97" s="39"/>
       <c r="R97" s="39" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9744,7 +9738,7 @@
       <c r="P98" s="39"/>
       <c r="Q98" s="39"/>
       <c r="R98" s="39" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9786,7 +9780,7 @@
       <c r="P99" s="41"/>
       <c r="Q99" s="41"/>
       <c r="R99" s="39" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9794,13 +9788,13 @@
         <v>1</v>
       </c>
       <c r="B100" s="45" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D100" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E100" s="45" t="s">
         <v>66</v>
@@ -9811,10 +9805,10 @@
         <v>21</v>
       </c>
       <c r="D101" s="55" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E101" s="55" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F101" s="62"/>
       <c r="G101" s="55" t="s">
@@ -9844,7 +9838,7 @@
         <v>0.1</v>
       </c>
       <c r="R101" s="39" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9852,10 +9846,10 @@
         <v>22</v>
       </c>
       <c r="D102" s="39" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E102" s="39" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F102" s="49"/>
       <c r="G102" s="39" t="s">
@@ -9885,25 +9879,15 @@
         <v>10</v>
       </c>
       <c r="R102" s="39" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="B103" s="36" t="s">
-        <v>736</v>
-      </c>
-      <c r="C103" s="36" t="s">
-        <v>737</v>
-      </c>
-      <c r="D103" s="36" t="s">
-        <v>737</v>
-      </c>
-      <c r="E103" s="36" t="s">
-        <v>231</v>
-      </c>
+      <c r="A103" s="36"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
       <c r="H103" s="37"/>
@@ -10334,9 +10318,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD37"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10375,7 +10359,7 @@
         <v>457</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>627</v>
@@ -10413,7 +10397,7 @@
         <v>619</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>632</v>
@@ -10511,7 +10495,7 @@
         <v>636</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>631</v>
@@ -10543,7 +10527,7 @@
         <v>637</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>630</v>
@@ -11095,7 +11079,7 @@
       <c r="B26" s="46"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>643</v>
@@ -11124,7 +11108,7 @@
       <c r="B27" s="46"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E27" s="29" t="s">
         <v>645</v>
@@ -11153,7 +11137,7 @@
       <c r="B28" s="46"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>651</v>
@@ -11181,7 +11165,7 @@
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>651</v>
@@ -11209,7 +11193,7 @@
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>651</v>
@@ -11237,7 +11221,7 @@
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>651</v>
@@ -11265,7 +11249,7 @@
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>651</v>
@@ -11293,7 +11277,7 @@
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>651</v>
@@ -11316,12 +11300,12 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="30" t="s">
@@ -11339,12 +11323,12 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="30" t="s">
@@ -11362,12 +11346,12 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="30" t="s">
@@ -11385,11 +11369,11 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B37" s="29"/>
       <c r="D37" s="29" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F37" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_PSO_2013.xlsx
+++ b/projects/SEB_calibration_PSO_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2499,46 +2499,46 @@
     <t>1.21.14</t>
   </si>
   <si>
-    <t>single_run</t>
-  </si>
-  <si>
     <t>CalibrationReportsEnhanced20</t>
   </si>
   <si>
-    <t>calibration_reports_enhanced20.electric_consumption_modeled</t>
-  </si>
-  <si>
     <t>calibration_reports_enhanced20.gas_consumption_modeled</t>
   </si>
   <si>
-    <t>calibration_reports_enhanced20.electric_rmse</t>
-  </si>
-  <si>
     <t>calibration_reports_enhanced20.gas_rmse</t>
   </si>
   <si>
-    <t>calibration_reports_enhanced20.electric_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electric_consumption_nmbe</t>
-  </si>
-  <si>
     <t>calibration_reports_enhanced20.gas_consumption_cvrmse</t>
   </si>
   <si>
     <t>calibration_reports_enhanced20.gas_consumption_nmbe</t>
   </si>
   <si>
-    <t>calibration_reports_enhanced20.electric_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electric_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>calibration_reports_enhanced20.gas_cvrmse_within_limit</t>
   </si>
   <si>
     <t>calibration_reports_enhanced20.gas_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>pso</t>
   </si>
 </sst>
 </file>
@@ -6858,8 +6858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7067,7 +7067,7 @@
         <v>449</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7096,7 +7096,7 @@
         <v>808</v>
       </c>
       <c r="B22" s="29">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="34"/>
@@ -7106,7 +7106,7 @@
         <v>554</v>
       </c>
       <c r="B23" s="29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="34"/>
@@ -7323,7 +7323,7 @@
   <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -7851,10 +7851,10 @@
         <v>816</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E23" s="36" t="s">
         <v>231</v>
@@ -10318,9 +10318,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11079,7 +11079,7 @@
       <c r="B26" s="46"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>643</v>
@@ -11108,7 +11108,7 @@
       <c r="B27" s="46"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E27" s="29" t="s">
         <v>645</v>
@@ -11137,7 +11137,7 @@
       <c r="B28" s="46"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>651</v>
@@ -11165,7 +11165,7 @@
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>651</v>
@@ -11193,7 +11193,7 @@
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>651</v>
@@ -11221,7 +11221,7 @@
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>651</v>
@@ -11249,7 +11249,7 @@
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>651</v>
@@ -11277,7 +11277,7 @@
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>651</v>
@@ -11305,7 +11305,7 @@
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="30" t="s">
@@ -11328,7 +11328,7 @@
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="30" t="s">
@@ -11351,7 +11351,7 @@
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="30" t="s">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="B37" s="29"/>
       <c r="D37" s="29" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="F37" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_PSO_2013.xlsx
+++ b/projects/SEB_calibration_PSO_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="784">
   <si>
     <t>type</t>
   </si>
@@ -1911,33 +1911,15 @@
     <t>Measure/Variable Unique Name</t>
   </si>
   <si>
-    <t>standard_report_legacy.total_natural_gas</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.total_electricity</t>
-  </si>
-  <si>
     <t>standard_report_legacy.total_energy</t>
   </si>
   <si>
-    <t>standard_report_legacy.total_source_energy</t>
-  </si>
-  <si>
     <t>Taxonomy Identifier</t>
   </si>
   <si>
     <t>total_site_energy_intensity</t>
   </si>
   <si>
-    <t>total_source_energy_intensity</t>
-  </si>
-  <si>
-    <t>total_electricity_intensity</t>
-  </si>
-  <si>
-    <t>total_natural_gas_intensity</t>
-  </si>
-  <si>
     <t>Machine Name thats Link to Dencity Taxonomy</t>
   </si>
   <si>
@@ -1947,15 +1929,6 @@
     <t>Total Site Energy Intensity</t>
   </si>
   <si>
-    <t>Total Source Energy Intensity</t>
-  </si>
-  <si>
-    <t>Total Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>Total Electricity Intensity</t>
-  </si>
-  <si>
     <t>OSM</t>
   </si>
   <si>
@@ -2064,120 +2037,6 @@
     <t>Space Infiltration Reduction</t>
   </si>
   <si>
-    <t>Natural Gas Heating Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.heating_natural_gas</t>
-  </si>
-  <si>
-    <t>Cooling Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.cooling_electricity</t>
-  </si>
-  <si>
-    <t>Interior Lighting Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_lighting_electricity</t>
-  </si>
-  <si>
-    <t>Exterior Lighting Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.exterior_lighting_electricity</t>
-  </si>
-  <si>
-    <t>Equipment Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_equipment_electricity</t>
-  </si>
-  <si>
-    <t>Equipment Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_equipment_natural_gas</t>
-  </si>
-  <si>
-    <t>Experior Equipment Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.exterior_equipment_electricity</t>
-  </si>
-  <si>
-    <t>Fans Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.fans_electricity</t>
-  </si>
-  <si>
-    <t>Pumps Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.pumps_electricity</t>
-  </si>
-  <si>
-    <t>Heat Rejection Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.heat_rejection_electricity</t>
-  </si>
-  <si>
-    <t>Humidification Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.humidification_electricity</t>
-  </si>
-  <si>
-    <t>Water Systems Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.water_systems_electricity</t>
-  </si>
-  <si>
-    <t>Water Systems Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.water_systems_natural_gas</t>
-  </si>
-  <si>
-    <t>Refrigeration Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.refrigeration_electricity</t>
-  </si>
-  <si>
-    <t>Unmet Cooling Hours</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_cooling</t>
-  </si>
-  <si>
-    <t>hrs</t>
-  </si>
-  <si>
-    <t>Unmet Heating Hours</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_heating</t>
-  </si>
-  <si>
-    <t>Total Unmet Hours</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_hours</t>
-  </si>
-  <si>
-    <t>Building Area</t>
-  </si>
-  <si>
-    <t>standard_report.total_building_area</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
     <t>Electric RMSE</t>
   </si>
   <si>
@@ -2335,12 +2194,6 @@
   </si>
   <si>
     <t>Short display names are used for plots and exported to metadata</t>
-  </si>
-  <si>
-    <t>NG EUI</t>
-  </si>
-  <si>
-    <t>Elec EUI</t>
   </si>
   <si>
     <t>default</t>
@@ -4580,7 +4433,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4642,7 +4495,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -6858,7 +6710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -6895,7 +6747,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>761</v>
+        <v>714</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6906,7 +6758,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>768</v>
+        <v>719</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6917,7 +6769,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>818</v>
+        <v>769</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -6928,7 +6780,7 @@
         <v>466</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>767</v>
+        <v>718</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>468</v>
@@ -6941,11 +6793,11 @@
       <c r="B7" s="24" t="s">
         <v>588</v>
       </c>
-      <c r="C7" s="32" t="str">
+      <c r="C7" s="31" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
         <v>4 Cores - Recommended for Server</v>
       </c>
-      <c r="D7" s="32" t="str">
+      <c r="D7" s="31" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
         <v>$0.28/hour</v>
       </c>
@@ -6960,11 +6812,11 @@
       <c r="B8" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="C8" s="32" t="str">
+      <c r="C8" s="31" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
         <v>16 Cores - Worker Only - Recommended for Worker</v>
       </c>
-      <c r="D8" s="32" t="str">
+      <c r="D8" s="31" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
         <v>$1.68/hour</v>
       </c>
@@ -6980,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="32"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="2" t="s">
         <v>602</v>
       </c>
@@ -6999,7 +6851,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>773</v>
+        <v>724</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
@@ -7010,10 +6862,10 @@
         <v>24</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>769</v>
+        <v>720</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -7021,10 +6873,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>736</v>
+        <v>689</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -7067,7 +6919,7 @@
         <v>449</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>832</v>
+        <v>783</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7093,13 +6945,13 @@
     </row>
     <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>808</v>
+        <v>759</v>
       </c>
       <c r="B22" s="29">
         <v>4</v>
       </c>
       <c r="C22" s="29"/>
-      <c r="D22" s="34"/>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
@@ -7109,114 +6961,114 @@
         <v>1</v>
       </c>
       <c r="C23" s="29"/>
-      <c r="D23" s="34"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>809</v>
+        <v>760</v>
       </c>
       <c r="B24" s="29">
         <v>3000</v>
       </c>
       <c r="C24" s="29"/>
-      <c r="D24" s="34"/>
+      <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
-        <v>781</v>
+        <v>732</v>
       </c>
       <c r="B25" s="29">
         <v>0.9</v>
       </c>
       <c r="C25" s="29"/>
-      <c r="D25" s="34"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>780</v>
+        <v>731</v>
       </c>
       <c r="B26" s="28">
         <v>1</v>
       </c>
-      <c r="D26" s="34"/>
+      <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>779</v>
+        <v>730</v>
       </c>
       <c r="B27" s="28">
         <v>1</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>777</v>
+        <v>728</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>778</v>
+        <v>729</v>
       </c>
       <c r="C28" s="29"/>
-      <c r="D28" s="34"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>810</v>
+        <v>761</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>811</v>
+        <v>762</v>
       </c>
       <c r="C29" s="29"/>
-      <c r="D29" s="34"/>
+      <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>776</v>
+        <v>727</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="29"/>
-      <c r="D30" s="34"/>
+      <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>774</v>
+        <v>725</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>775</v>
+        <v>726</v>
       </c>
       <c r="C31" s="29"/>
-      <c r="D31" s="34"/>
+      <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>812</v>
+        <v>763</v>
       </c>
       <c r="B32" s="28">
         <v>0.01</v>
       </c>
       <c r="C32" s="29"/>
-      <c r="D32" s="34"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>813</v>
+        <v>764</v>
       </c>
       <c r="B33" s="28">
         <v>0.01</v>
       </c>
-      <c r="C33" s="33"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>814</v>
+        <v>765</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>815</v>
-      </c>
-      <c r="C34" s="33"/>
+        <v>766</v>
+      </c>
+      <c r="C34" s="32"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7224,7 +7076,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>30</v>
@@ -7237,7 +7089,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>770</v>
+        <v>721</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7251,7 +7103,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>447</v>
@@ -7262,10 +7114,10 @@
         <v>31</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>771</v>
+        <v>722</v>
       </c>
       <c r="E39" s="2"/>
     </row>
@@ -7277,7 +7129,7 @@
         <v>33</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="13" t="s">
@@ -7286,13 +7138,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>772</v>
+        <v>723</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7323,7 +7175,7 @@
   <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -7360,7 +7212,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="59"/>
+      <c r="F1" s="58"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
@@ -7372,21 +7224,21 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="34" t="s">
         <v>470</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7401,7 +7253,7 @@
       <c r="D2" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="59"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -7421,8 +7273,8 @@
       <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="61" t="s">
-        <v>762</v>
+      <c r="F3" s="60" t="s">
+        <v>715</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7482,41 +7334,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="b">
+    <row r="4" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>782</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>783</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>783</v>
-      </c>
-      <c r="E4" s="36" t="s">
+      <c r="B4" s="35" t="s">
+        <v>733</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>784</v>
+        <v>735</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>785</v>
-      </c>
-      <c r="F5" s="62"/>
+        <v>736</v>
+      </c>
+      <c r="F5" s="61"/>
       <c r="G5" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>786</v>
+        <v>737</v>
       </c>
       <c r="J5" s="30"/>
     </row>
@@ -7525,17 +7377,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>787</v>
+        <v>738</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>788</v>
+        <v>739</v>
       </c>
       <c r="J6" s="30"/>
     </row>
@@ -7544,17 +7396,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>789</v>
+        <v>740</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>790</v>
-      </c>
-      <c r="F7" s="62"/>
+        <v>741</v>
+      </c>
+      <c r="F7" s="61"/>
       <c r="G7" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>791</v>
+        <v>742</v>
       </c>
       <c r="J7" s="30"/>
     </row>
@@ -7563,17 +7415,17 @@
         <v>21</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>792</v>
+        <v>743</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="F8" s="62"/>
+        <v>744</v>
+      </c>
+      <c r="F8" s="61"/>
       <c r="G8" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="J8" s="30"/>
     </row>
@@ -7582,17 +7434,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>794</v>
+        <v>745</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="F9" s="62"/>
+        <v>746</v>
+      </c>
+      <c r="F9" s="61"/>
       <c r="G9" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>796</v>
+        <v>747</v>
       </c>
       <c r="J9" s="30"/>
     </row>
@@ -7601,17 +7453,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>719</v>
+        <v>672</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="F10" s="62"/>
+        <v>673</v>
+      </c>
+      <c r="F10" s="61"/>
       <c r="G10" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>745</v>
+        <v>671</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>698</v>
       </c>
       <c r="J10" s="30"/>
     </row>
@@ -7620,17 +7472,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>721</v>
+        <v>674</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>722</v>
-      </c>
-      <c r="F11" s="62"/>
+        <v>675</v>
+      </c>
+      <c r="F11" s="61"/>
       <c r="G11" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>746</v>
+        <v>671</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>699</v>
       </c>
       <c r="J11" s="30"/>
     </row>
@@ -7639,17 +7491,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>797</v>
+        <v>748</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>798</v>
-      </c>
-      <c r="F12" s="62"/>
+        <v>749</v>
+      </c>
+      <c r="F12" s="61"/>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="47" t="s">
-        <v>799</v>
+      <c r="I12" s="46" t="s">
+        <v>750</v>
       </c>
       <c r="J12" s="30"/>
     </row>
@@ -7658,55 +7510,55 @@
         <v>21</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>800</v>
+        <v>751</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>801</v>
-      </c>
-      <c r="F13" s="62"/>
+        <v>752</v>
+      </c>
+      <c r="F13" s="61"/>
       <c r="G13" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="47" t="s">
-        <v>799</v>
+      <c r="I13" s="46" t="s">
+        <v>750</v>
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="b">
+    <row r="14" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>802</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>783</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>783</v>
-      </c>
-      <c r="E14" s="36" t="s">
+      <c r="B14" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>784</v>
+        <v>735</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>785</v>
-      </c>
-      <c r="F15" s="62"/>
+        <v>736</v>
+      </c>
+      <c r="F15" s="61"/>
       <c r="G15" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>803</v>
+        <v>754</v>
       </c>
       <c r="J15" s="30"/>
     </row>
@@ -7715,17 +7567,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>787</v>
+        <v>738</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>804</v>
+        <v>755</v>
       </c>
       <c r="J16" s="30"/>
     </row>
@@ -7734,17 +7586,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>789</v>
+        <v>740</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>790</v>
-      </c>
-      <c r="F17" s="62"/>
+        <v>741</v>
+      </c>
+      <c r="F17" s="61"/>
       <c r="G17" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>805</v>
+        <v>756</v>
       </c>
       <c r="J17" s="30"/>
     </row>
@@ -7753,17 +7605,17 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>792</v>
+        <v>743</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="F18" s="62"/>
+        <v>744</v>
+      </c>
+      <c r="F18" s="61"/>
       <c r="G18" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="J18" s="30"/>
     </row>
@@ -7772,17 +7624,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>794</v>
+        <v>745</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="F19" s="62"/>
+        <v>746</v>
+      </c>
+      <c r="F19" s="61"/>
       <c r="G19" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>806</v>
+        <v>757</v>
       </c>
       <c r="J19" s="30"/>
     </row>
@@ -7791,17 +7643,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>719</v>
+        <v>672</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="F20" s="62"/>
+        <v>673</v>
+      </c>
+      <c r="F20" s="61"/>
       <c r="G20" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>745</v>
+        <v>671</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>698</v>
       </c>
       <c r="J20" s="30"/>
     </row>
@@ -7810,17 +7662,17 @@
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>721</v>
+        <v>674</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>722</v>
-      </c>
-      <c r="F21" s="62"/>
+        <v>675</v>
+      </c>
+      <c r="F21" s="61"/>
       <c r="G21" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I21" s="47" t="s">
-        <v>746</v>
+        <v>671</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>699</v>
       </c>
       <c r="J21" s="30"/>
     </row>
@@ -7829,53 +7681,53 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>797</v>
+        <v>748</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>798</v>
-      </c>
-      <c r="F22" s="62"/>
+        <v>749</v>
+      </c>
+      <c r="F22" s="61"/>
       <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="47" t="s">
-        <v>807</v>
+      <c r="I22" s="46" t="s">
+        <v>758</v>
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="b">
+    <row r="23" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>816</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>819</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>819</v>
-      </c>
-      <c r="E23" s="36" t="s">
+      <c r="B23" s="35" t="s">
+        <v>767</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>770</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>770</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-    </row>
-    <row r="24" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="b">
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7889,7 +7741,7 @@
       <c r="E25" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="62"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="29" t="s">
         <v>60</v>
       </c>
@@ -7901,41 +7753,41 @@
       </c>
       <c r="P25" s="30"/>
     </row>
-    <row r="26" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="39" t="s">
+    <row r="26" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>673</v>
-      </c>
-      <c r="E26" s="39" t="s">
+      <c r="D26" s="39" t="s">
+        <v>664</v>
+      </c>
+      <c r="E26" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="39" t="s">
+      <c r="F26" s="48"/>
+      <c r="G26" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="39">
-        <v>0</v>
-      </c>
-      <c r="K26" s="41">
-        <v>0</v>
-      </c>
-      <c r="L26" s="41">
+      <c r="I26" s="38">
+        <v>0</v>
+      </c>
+      <c r="K26" s="40">
+        <v>0</v>
+      </c>
+      <c r="L26" s="40">
         <v>100</v>
       </c>
-      <c r="M26" s="41">
+      <c r="M26" s="40">
         <v>15</v>
       </c>
-      <c r="N26" s="41">
+      <c r="N26" s="40">
         <f>(L26-K26)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O26" s="41">
+      <c r="O26" s="40">
         <v>1</v>
       </c>
-      <c r="R26" s="39" t="s">
-        <v>817</v>
+      <c r="R26" s="38" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7943,12 +7795,12 @@
         <v>21</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>666</v>
-      </c>
-      <c r="F27" s="62"/>
+        <v>657</v>
+      </c>
+      <c r="F27" s="61"/>
       <c r="G27" s="29" t="s">
         <v>62</v>
       </c>
@@ -7956,41 +7808,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="56" t="s">
-        <v>668</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>667</v>
-      </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="55" t="s">
+    <row r="28" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>659</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>658</v>
+      </c>
+      <c r="F28" s="61"/>
+      <c r="G28" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="55">
-        <v>0</v>
-      </c>
-      <c r="K28" s="57">
-        <v>0</v>
-      </c>
-      <c r="L28" s="57">
+      <c r="I28" s="54">
+        <v>0</v>
+      </c>
+      <c r="K28" s="56">
+        <v>0</v>
+      </c>
+      <c r="L28" s="56">
         <v>0.1</v>
       </c>
-      <c r="M28" s="57">
+      <c r="M28" s="56">
         <v>0.05</v>
       </c>
-      <c r="N28" s="57">
+      <c r="N28" s="56">
         <f>(L28-K28)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O28" s="57">
+      <c r="O28" s="56">
         <v>0.01</v>
       </c>
-      <c r="R28" s="39" t="s">
-        <v>817</v>
+      <c r="R28" s="38" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7998,12 +7850,12 @@
         <v>21</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>669</v>
-      </c>
-      <c r="F29" s="62"/>
+        <v>660</v>
+      </c>
+      <c r="F29" s="61"/>
       <c r="G29" s="29" t="s">
         <v>62</v>
       </c>
@@ -8016,12 +7868,12 @@
         <v>21</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>671</v>
-      </c>
-      <c r="F30" s="63"/>
+        <v>662</v>
+      </c>
+      <c r="F30" s="62"/>
       <c r="G30" s="29" t="s">
         <v>62</v>
       </c>
@@ -8039,7 +7891,7 @@
       <c r="E31" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="63"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="29" t="s">
         <v>62</v>
       </c>
@@ -8057,7 +7909,7 @@
       <c r="E32" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="63"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="29" t="s">
         <v>62</v>
       </c>
@@ -8075,7 +7927,7 @@
       <c r="E33" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="63"/>
+      <c r="F33" s="62"/>
       <c r="G33" s="29" t="s">
         <v>63</v>
       </c>
@@ -8084,20 +7936,20 @@
       </c>
       <c r="P33" s="30"/>
     </row>
-    <row r="34" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="b">
+    <row r="34" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8113,7 +7965,7 @@
       <c r="E35" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="29" t="s">
         <v>60</v>
       </c>
@@ -8129,45 +7981,45 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="Q35" s="38"/>
-    </row>
-    <row r="36" spans="1:18" s="51" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>649</v>
-      </c>
-      <c r="E36" s="51" t="s">
+      <c r="Q35" s="37"/>
+    </row>
+    <row r="36" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>640</v>
+      </c>
+      <c r="E36" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="63"/>
-      <c r="G36" s="51" t="s">
+      <c r="F36" s="62"/>
+      <c r="G36" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="51">
-        <v>0</v>
-      </c>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53">
+      <c r="I36" s="50">
+        <v>0</v>
+      </c>
+      <c r="J36" s="51"/>
+      <c r="K36" s="52">
         <v>-40</v>
       </c>
-      <c r="L36" s="53">
+      <c r="L36" s="52">
         <v>40</v>
       </c>
-      <c r="M36" s="53">
-        <v>0</v>
-      </c>
-      <c r="N36" s="53">
+      <c r="M36" s="52">
+        <v>0</v>
+      </c>
+      <c r="N36" s="52">
         <f>(L36-K36)/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="O36" s="53">
+      <c r="O36" s="52">
         <v>1</v>
       </c>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="39" t="s">
-        <v>817</v>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="38" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8176,13 +8028,13 @@
         <v>21</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="42" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="63"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="29" t="s">
         <v>62</v>
       </c>
@@ -8195,7 +8047,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="Q37" s="38"/>
+      <c r="Q37" s="37"/>
     </row>
     <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="29"/>
@@ -8209,7 +8061,7 @@
       <c r="E38" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="63"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="29" t="s">
         <v>62</v>
       </c>
@@ -8222,7 +8074,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="Q38" s="38"/>
+      <c r="Q38" s="37"/>
     </row>
     <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="29"/>
@@ -8236,7 +8088,7 @@
       <c r="E39" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="63"/>
+      <c r="F39" s="62"/>
       <c r="G39" s="29" t="s">
         <v>63</v>
       </c>
@@ -8249,7 +8101,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="Q39" s="38"/>
+      <c r="Q39" s="37"/>
     </row>
     <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
@@ -8263,7 +8115,7 @@
       <c r="E40" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="63"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="29" t="s">
         <v>61</v>
       </c>
@@ -8276,7 +8128,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="Q40" s="38"/>
+      <c r="Q40" s="37"/>
     </row>
     <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="29"/>
@@ -8290,7 +8142,7 @@
       <c r="E41" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="63"/>
+      <c r="F41" s="62"/>
       <c r="G41" s="29" t="s">
         <v>63</v>
       </c>
@@ -8303,7 +8155,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="Q41" s="38"/>
+      <c r="Q41" s="37"/>
     </row>
     <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
@@ -8317,7 +8169,7 @@
       <c r="E42" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="63"/>
+      <c r="F42" s="62"/>
       <c r="G42" s="29" t="s">
         <v>62</v>
       </c>
@@ -8330,7 +8182,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="Q42" s="38"/>
+      <c r="Q42" s="37"/>
     </row>
     <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
@@ -8344,7 +8196,7 @@
       <c r="E43" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="63"/>
+      <c r="F43" s="62"/>
       <c r="G43" s="29" t="s">
         <v>63</v>
       </c>
@@ -8357,22 +8209,22 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="Q43" s="38"/>
-    </row>
-    <row r="44" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="45" t="b">
+      <c r="Q43" s="37"/>
+    </row>
+    <row r="44" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="E44" s="45" t="s">
+      <c r="E44" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8386,7 +8238,7 @@
       <c r="E45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="63"/>
+      <c r="F45" s="62"/>
       <c r="G45" s="29" t="s">
         <v>60</v>
       </c>
@@ -8397,45 +8249,45 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="39" t="s">
+    <row r="46" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="39" t="s">
-        <v>650</v>
-      </c>
-      <c r="E46" s="39" t="s">
+      <c r="D46" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="E46" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="39" t="s">
+      <c r="F46" s="48"/>
+      <c r="G46" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I46" s="39">
-        <v>0</v>
-      </c>
-      <c r="J46" s="42"/>
-      <c r="K46" s="41">
+      <c r="H46" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I46" s="38">
+        <v>0</v>
+      </c>
+      <c r="J46" s="41"/>
+      <c r="K46" s="40">
         <v>-80</v>
       </c>
-      <c r="L46" s="41">
+      <c r="L46" s="40">
         <v>80</v>
       </c>
-      <c r="M46" s="41">
-        <v>0</v>
-      </c>
-      <c r="N46" s="41">
+      <c r="M46" s="40">
+        <v>0</v>
+      </c>
+      <c r="N46" s="40">
         <f>(L46-K46)/6</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="O46" s="41">
+      <c r="O46" s="40">
         <v>1</v>
       </c>
-      <c r="R46" s="39" t="s">
-        <v>817</v>
+      <c r="R46" s="38" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8443,17 +8295,17 @@
         <v>21</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E47" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="63"/>
+      <c r="F47" s="62"/>
       <c r="G47" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I47" s="29">
         <v>0</v>
@@ -8464,17 +8316,17 @@
         <v>21</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E48" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F48" s="62"/>
+      <c r="F48" s="61"/>
       <c r="G48" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I48" s="29">
         <v>0</v>
@@ -8485,17 +8337,17 @@
         <v>21</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E49" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="62"/>
+      <c r="F49" s="61"/>
       <c r="G49" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I49" s="29">
         <v>0</v>
@@ -8506,12 +8358,12 @@
         <v>21</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="62"/>
+      <c r="F50" s="61"/>
       <c r="G50" s="29" t="s">
         <v>61</v>
       </c>
@@ -8524,17 +8376,17 @@
         <v>21</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E51" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="62"/>
+      <c r="F51" s="61"/>
       <c r="G51" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I51" s="29">
         <v>15</v>
@@ -8545,17 +8397,17 @@
         <v>21</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E52" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="62"/>
+      <c r="F52" s="61"/>
       <c r="G52" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I52" s="29">
         <v>0</v>
@@ -8566,36 +8418,36 @@
         <v>21</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E53" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="63"/>
+      <c r="F53" s="62"/>
       <c r="G53" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H53" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I53" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="45" t="b">
+    <row r="54" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B54" s="45" t="s">
-        <v>741</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>742</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>742</v>
-      </c>
-      <c r="E54" s="45" t="s">
+      <c r="B54" s="44" t="s">
+        <v>694</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="D54" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="E54" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8609,56 +8461,56 @@
       <c r="E55" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="63"/>
+      <c r="F55" s="62"/>
       <c r="G55" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I55" s="50" t="s">
+      <c r="I55" s="49" t="s">
         <v>415</v>
       </c>
       <c r="J55" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="39" t="s">
+    <row r="56" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="39" t="s">
-        <v>743</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>744</v>
-      </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="39" t="s">
+      <c r="D56" s="38" t="s">
+        <v>696</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="F56" s="48"/>
+      <c r="G56" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I56" s="39">
+      <c r="H56" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I56" s="38">
         <v>0.8</v>
       </c>
-      <c r="J56" s="42"/>
-      <c r="K56" s="41">
+      <c r="J56" s="41"/>
+      <c r="K56" s="40">
         <v>0.78</v>
       </c>
-      <c r="L56" s="41">
+      <c r="L56" s="40">
         <v>0.98</v>
       </c>
-      <c r="M56" s="41">
+      <c r="M56" s="40">
         <v>0.8</v>
       </c>
-      <c r="N56" s="41">
+      <c r="N56" s="40">
         <f>(L56-K56)/6</f>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="O56" s="41">
+      <c r="O56" s="40">
         <v>1</v>
       </c>
-      <c r="R56" s="39" t="s">
-        <v>817</v>
+      <c r="R56" s="38" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8684,7 +8536,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E58" s="29" t="s">
         <v>126</v>
@@ -8694,7 +8546,7 @@
         <v>62</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I58" s="29">
         <v>0</v>
@@ -8705,7 +8557,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>48</v>
@@ -8715,7 +8567,7 @@
         <v>62</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I59" s="29">
         <v>0</v>
@@ -8726,7 +8578,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>50</v>
@@ -8736,7 +8588,7 @@
         <v>63</v>
       </c>
       <c r="H60" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I60" s="29">
         <v>0</v>
@@ -8747,12 +8599,12 @@
         <v>21</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E61" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F61" s="63"/>
+      <c r="F61" s="62"/>
       <c r="G61" s="29" t="s">
         <v>61</v>
       </c>
@@ -8765,17 +8617,17 @@
         <v>21</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E62" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F62" s="63"/>
+      <c r="F62" s="62"/>
       <c r="G62" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I62" s="29">
         <v>15</v>
@@ -8786,17 +8638,17 @@
         <v>21</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E63" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F63" s="63"/>
+      <c r="F63" s="62"/>
       <c r="G63" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H63" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I63" s="29">
         <v>0</v>
@@ -8807,36 +8659,36 @@
         <v>21</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E64" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F64" s="63"/>
+      <c r="F64" s="62"/>
       <c r="G64" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H64" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I64" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="45" t="b">
+    <row r="65" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B65" s="45" t="s">
-        <v>748</v>
-      </c>
-      <c r="C65" s="45" t="s">
-        <v>747</v>
-      </c>
-      <c r="D65" s="45" t="s">
-        <v>747</v>
-      </c>
-      <c r="E65" s="45" t="s">
+      <c r="B65" s="44" t="s">
+        <v>701</v>
+      </c>
+      <c r="C65" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="D65" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="E65" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8845,61 +8697,61 @@
         <v>21</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>749</v>
+        <v>702</v>
       </c>
       <c r="E66" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F66" s="63"/>
+      <c r="F66" s="62"/>
       <c r="G66" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I66" s="50" t="s">
+      <c r="I66" s="49" t="s">
         <v>415</v>
       </c>
       <c r="J66" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="39" t="s">
+    <row r="67" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="39" t="s">
-        <v>750</v>
-      </c>
-      <c r="E67" s="39" t="s">
-        <v>751</v>
-      </c>
-      <c r="F67" s="49"/>
-      <c r="G67" s="39" t="s">
+      <c r="D67" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="F67" s="48"/>
+      <c r="G67" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H67" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I67" s="39">
+      <c r="H67" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I67" s="38">
         <v>4</v>
       </c>
-      <c r="J67" s="42"/>
-      <c r="K67" s="41">
-        <v>2</v>
-      </c>
-      <c r="L67" s="41">
+      <c r="J67" s="41"/>
+      <c r="K67" s="40">
+        <v>2</v>
+      </c>
+      <c r="L67" s="40">
         <v>5</v>
       </c>
-      <c r="M67" s="41">
+      <c r="M67" s="40">
         <v>4</v>
       </c>
-      <c r="N67" s="41">
+      <c r="N67" s="40">
         <f>(L67-K67)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="41">
+      <c r="O67" s="40">
         <v>0.25</v>
       </c>
-      <c r="R67" s="39" t="s">
-        <v>817</v>
+      <c r="R67" s="38" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8912,7 +8764,7 @@
       <c r="E68" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="63"/>
+      <c r="F68" s="62"/>
       <c r="G68" s="29" t="s">
         <v>61</v>
       </c>
@@ -8925,17 +8777,17 @@
         <v>21</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E69" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F69" s="63"/>
+      <c r="F69" s="62"/>
       <c r="G69" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H69" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I69" s="29">
         <v>0</v>
@@ -8946,17 +8798,17 @@
         <v>21</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E70" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F70" s="63"/>
+      <c r="F70" s="62"/>
       <c r="G70" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I70" s="29">
         <v>0</v>
@@ -8967,17 +8819,17 @@
         <v>21</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E71" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F71" s="63"/>
+      <c r="F71" s="62"/>
       <c r="G71" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H71" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I71" s="29">
         <v>0</v>
@@ -8988,12 +8840,12 @@
         <v>21</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E72" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="63"/>
+      <c r="F72" s="62"/>
       <c r="G72" s="29" t="s">
         <v>61</v>
       </c>
@@ -9006,17 +8858,17 @@
         <v>21</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E73" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F73" s="63"/>
+      <c r="F73" s="62"/>
       <c r="G73" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I73" s="29">
         <v>15</v>
@@ -9027,17 +8879,17 @@
         <v>21</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E74" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="63"/>
+      <c r="F74" s="62"/>
       <c r="G74" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H74" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I74" s="29">
         <v>0</v>
@@ -9048,36 +8900,36 @@
         <v>21</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E75" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F75" s="63"/>
+      <c r="F75" s="62"/>
       <c r="G75" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I75" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="45" t="b">
+    <row r="76" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="45" t="s">
+      <c r="C76" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="D76" s="45" t="s">
+      <c r="D76" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="E76" s="45" t="s">
+      <c r="E76" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9091,97 +8943,97 @@
       <c r="E77" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F77" s="63"/>
+      <c r="F77" s="62"/>
       <c r="G77" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I77" s="50" t="s">
+      <c r="I77" s="49" t="s">
         <v>415</v>
       </c>
       <c r="J77" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="39" t="s">
+    <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="E78" s="39" t="s">
+      <c r="D78" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="E78" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="F78" s="49"/>
-      <c r="G78" s="39" t="s">
+      <c r="F78" s="48"/>
+      <c r="G78" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I78" s="39">
-        <v>0</v>
-      </c>
-      <c r="J78" s="42"/>
-      <c r="K78" s="41">
+      <c r="H78" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I78" s="38">
+        <v>0</v>
+      </c>
+      <c r="J78" s="41"/>
+      <c r="K78" s="40">
         <v>-20</v>
       </c>
-      <c r="L78" s="41">
+      <c r="L78" s="40">
         <v>14</v>
       </c>
-      <c r="M78" s="41">
-        <v>0</v>
-      </c>
-      <c r="N78" s="41">
+      <c r="M78" s="40">
+        <v>0</v>
+      </c>
+      <c r="N78" s="40">
         <f>(L78-K78)/6</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="O78" s="41">
+      <c r="O78" s="40">
         <v>1</v>
       </c>
-      <c r="R78" s="39" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="39" t="s">
+      <c r="R78" s="38" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="39" t="s">
-        <v>753</v>
-      </c>
-      <c r="E79" s="39" t="s">
-        <v>754</v>
-      </c>
-      <c r="F79" s="49"/>
-      <c r="G79" s="39" t="s">
+      <c r="D79" s="38" t="s">
+        <v>706</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="F79" s="48"/>
+      <c r="G79" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H79" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I79" s="39">
-        <v>0</v>
-      </c>
-      <c r="J79" s="42"/>
-      <c r="K79" s="41">
+      <c r="H79" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I79" s="38">
+        <v>0</v>
+      </c>
+      <c r="J79" s="41"/>
+      <c r="K79" s="40">
         <v>-20</v>
       </c>
-      <c r="L79" s="41">
+      <c r="L79" s="40">
         <v>30</v>
       </c>
-      <c r="M79" s="41">
-        <v>0</v>
-      </c>
-      <c r="N79" s="41">
+      <c r="M79" s="40">
+        <v>0</v>
+      </c>
+      <c r="N79" s="40">
         <f>(L79-K79)/6</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="O79" s="41">
+      <c r="O79" s="40">
         <v>1</v>
       </c>
-      <c r="R79" s="39" t="s">
-        <v>817</v>
+      <c r="R79" s="38" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9194,7 +9046,7 @@
       <c r="E80" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="63"/>
+      <c r="F80" s="62"/>
       <c r="G80" s="29" t="s">
         <v>61</v>
       </c>
@@ -9207,17 +9059,17 @@
         <v>21</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E81" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F81" s="63"/>
+      <c r="F81" s="62"/>
       <c r="G81" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H81" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I81" s="29">
         <v>0</v>
@@ -9228,17 +9080,17 @@
         <v>21</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E82" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F82" s="63"/>
+      <c r="F82" s="62"/>
       <c r="G82" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I82" s="29">
         <v>0</v>
@@ -9249,17 +9101,17 @@
         <v>21</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E83" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F83" s="63"/>
+      <c r="F83" s="62"/>
       <c r="G83" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I83" s="29">
         <v>0</v>
@@ -9270,12 +9122,12 @@
         <v>21</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E84" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F84" s="62"/>
+      <c r="F84" s="61"/>
       <c r="G84" s="29" t="s">
         <v>61</v>
       </c>
@@ -9288,17 +9140,17 @@
         <v>21</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E85" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F85" s="62"/>
+      <c r="F85" s="61"/>
       <c r="G85" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I85" s="29">
         <v>15</v>
@@ -9309,17 +9161,17 @@
         <v>21</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E86" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F86" s="62"/>
+      <c r="F86" s="61"/>
       <c r="G86" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H86" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I86" s="29">
         <v>0</v>
@@ -9330,119 +9182,119 @@
         <v>21</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E87" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F87" s="62"/>
+      <c r="F87" s="61"/>
       <c r="G87" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H87" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I87" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="45" t="b">
+    <row r="88" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B88" s="45" t="s">
+      <c r="B88" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="C88" s="45" t="s">
-        <v>660</v>
-      </c>
-      <c r="D88" s="45" t="s">
-        <v>660</v>
-      </c>
-      <c r="E88" s="45" t="s">
+      <c r="C88" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="D88" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="E88" s="44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B89" s="39" t="s">
+    <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="E89" s="39" t="s">
+      <c r="D89" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="E89" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="F89" s="49"/>
-      <c r="G89" s="39" t="s">
+      <c r="F89" s="48"/>
+      <c r="G89" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H89" s="39" t="s">
-        <v>662</v>
-      </c>
-      <c r="I89" s="39">
-        <v>0</v>
-      </c>
-      <c r="J89" s="42"/>
-      <c r="K89" s="41">
+      <c r="H89" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="I89" s="38">
+        <v>0</v>
+      </c>
+      <c r="J89" s="41"/>
+      <c r="K89" s="40">
         <v>-6</v>
       </c>
-      <c r="L89" s="41">
-        <v>2</v>
-      </c>
-      <c r="M89" s="41">
-        <v>0</v>
-      </c>
-      <c r="N89" s="41">
+      <c r="L89" s="40">
+        <v>2</v>
+      </c>
+      <c r="M89" s="40">
+        <v>0</v>
+      </c>
+      <c r="N89" s="40">
         <f>(L89-K89)/6</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O89" s="41">
+      <c r="O89" s="40">
         <v>1</v>
       </c>
-      <c r="R89" s="39" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="39" t="s">
+      <c r="R89" s="38" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="39" t="s">
-        <v>663</v>
-      </c>
-      <c r="E90" s="39" t="s">
+      <c r="D90" s="38" t="s">
+        <v>654</v>
+      </c>
+      <c r="E90" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="F90" s="49"/>
-      <c r="G90" s="39" t="s">
+      <c r="F90" s="48"/>
+      <c r="G90" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="39" t="s">
-        <v>662</v>
-      </c>
-      <c r="I90" s="39">
-        <v>0</v>
-      </c>
-      <c r="J90" s="42"/>
-      <c r="K90" s="41">
+      <c r="H90" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="I90" s="38">
+        <v>0</v>
+      </c>
+      <c r="J90" s="41"/>
+      <c r="K90" s="40">
         <v>-5</v>
       </c>
-      <c r="L90" s="41">
+      <c r="L90" s="40">
         <v>3.9</v>
       </c>
-      <c r="M90" s="41">
-        <v>0</v>
-      </c>
-      <c r="N90" s="41">
+      <c r="M90" s="40">
+        <v>0</v>
+      </c>
+      <c r="N90" s="40">
         <f>(L90-K90)/6</f>
         <v>1.4833333333333334</v>
       </c>
-      <c r="O90" s="41">
+      <c r="O90" s="40">
         <v>1</v>
       </c>
-      <c r="R90" s="39" t="s">
-        <v>817</v>
+      <c r="R90" s="38" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9450,12 +9302,12 @@
         <v>21</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="E91" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F91" s="62"/>
+      <c r="F91" s="61"/>
       <c r="G91" s="30" t="s">
         <v>61</v>
       </c>
@@ -9469,481 +9321,481 @@
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="48" t="b">
+      <c r="A92" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B92" s="48" t="s">
-        <v>729</v>
-      </c>
-      <c r="C92" s="48" t="s">
-        <v>730</v>
-      </c>
-      <c r="D92" s="48" t="s">
-        <v>730</v>
-      </c>
-      <c r="E92" s="45" t="s">
+      <c r="B92" s="47" t="s">
+        <v>682</v>
+      </c>
+      <c r="C92" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="D92" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="E92" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="45"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="48"/>
-      <c r="L92" s="48"/>
-      <c r="M92" s="45"/>
-      <c r="N92" s="45"/>
-      <c r="O92" s="45"/>
-      <c r="P92" s="45"/>
-      <c r="Q92" s="45"/>
-      <c r="R92" s="45"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="44"/>
+      <c r="N92" s="44"/>
+      <c r="O92" s="44"/>
+      <c r="P92" s="44"/>
+      <c r="Q92" s="44"/>
+      <c r="R92" s="44"/>
     </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="39"/>
-      <c r="B93" s="49" t="s">
+      <c r="A93" s="38"/>
+      <c r="B93" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49" t="s">
-        <v>723</v>
-      </c>
-      <c r="E93" s="49" t="s">
-        <v>724</v>
-      </c>
-      <c r="F93" s="49"/>
-      <c r="G93" s="49" t="s">
+      <c r="C93" s="48"/>
+      <c r="D93" s="48" t="s">
+        <v>676</v>
+      </c>
+      <c r="E93" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H93" s="49"/>
-      <c r="I93" s="49">
+      <c r="H93" s="48"/>
+      <c r="I93" s="48">
         <v>1</v>
       </c>
-      <c r="J93" s="49"/>
-      <c r="K93" s="49">
+      <c r="J93" s="48"/>
+      <c r="K93" s="48">
         <v>0.5</v>
       </c>
-      <c r="L93" s="49">
+      <c r="L93" s="48">
         <v>4</v>
       </c>
-      <c r="M93" s="41">
+      <c r="M93" s="40">
         <v>1.75</v>
       </c>
-      <c r="N93" s="39">
+      <c r="N93" s="38">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O93" s="49">
+      <c r="O93" s="48">
         <v>0.1</v>
       </c>
-      <c r="P93" s="39"/>
-      <c r="Q93" s="39"/>
-      <c r="R93" s="39" t="s">
-        <v>817</v>
+      <c r="P93" s="38"/>
+      <c r="Q93" s="38"/>
+      <c r="R93" s="38" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="49"/>
-      <c r="B94" s="49" t="s">
+      <c r="A94" s="48"/>
+      <c r="B94" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49" t="s">
-        <v>725</v>
-      </c>
-      <c r="E94" s="49" t="s">
-        <v>726</v>
-      </c>
-      <c r="F94" s="49"/>
-      <c r="G94" s="49" t="s">
+      <c r="C94" s="48"/>
+      <c r="D94" s="48" t="s">
+        <v>678</v>
+      </c>
+      <c r="E94" s="48" t="s">
+        <v>679</v>
+      </c>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="49"/>
-      <c r="I94" s="49">
+      <c r="H94" s="48"/>
+      <c r="I94" s="48">
         <v>1</v>
       </c>
-      <c r="J94" s="49"/>
-      <c r="K94" s="49">
+      <c r="J94" s="48"/>
+      <c r="K94" s="48">
         <v>0.1</v>
       </c>
-      <c r="L94" s="49">
+      <c r="L94" s="48">
         <v>3</v>
       </c>
-      <c r="M94" s="41">
+      <c r="M94" s="40">
         <v>1.75</v>
       </c>
-      <c r="N94" s="49">
+      <c r="N94" s="48">
         <v>0.25</v>
       </c>
-      <c r="O94" s="49">
+      <c r="O94" s="48">
         <v>0.1</v>
       </c>
-      <c r="P94" s="39"/>
-      <c r="Q94" s="39"/>
-      <c r="R94" s="39" t="s">
-        <v>817</v>
+      <c r="P94" s="38"/>
+      <c r="Q94" s="38"/>
+      <c r="R94" s="38" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="49"/>
-      <c r="B95" s="49" t="s">
+      <c r="A95" s="48"/>
+      <c r="B95" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49" t="s">
-        <v>727</v>
-      </c>
-      <c r="E95" s="49" t="s">
-        <v>728</v>
-      </c>
-      <c r="F95" s="49"/>
-      <c r="G95" s="49" t="s">
+      <c r="C95" s="48"/>
+      <c r="D95" s="48" t="s">
+        <v>680</v>
+      </c>
+      <c r="E95" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="49"/>
-      <c r="I95" s="49">
+      <c r="H95" s="48"/>
+      <c r="I95" s="48">
         <v>1</v>
       </c>
-      <c r="J95" s="49"/>
-      <c r="K95" s="49">
+      <c r="J95" s="48"/>
+      <c r="K95" s="48">
         <v>0.5</v>
       </c>
-      <c r="L95" s="49">
+      <c r="L95" s="48">
         <v>3</v>
       </c>
-      <c r="M95" s="41">
+      <c r="M95" s="40">
         <v>1.75</v>
       </c>
-      <c r="N95" s="41">
+      <c r="N95" s="40">
         <v>0.25</v>
       </c>
-      <c r="O95" s="41">
+      <c r="O95" s="40">
         <v>0.1</v>
       </c>
-      <c r="P95" s="41"/>
-      <c r="Q95" s="41"/>
-      <c r="R95" s="39" t="s">
-        <v>817</v>
+      <c r="P95" s="40"/>
+      <c r="Q95" s="40"/>
+      <c r="R95" s="38" t="s">
+        <v>768</v>
       </c>
       <c r="T95" s="30"/>
     </row>
     <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="48" t="b">
+      <c r="A96" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B96" s="48" t="s">
-        <v>731</v>
-      </c>
-      <c r="C96" s="48" t="s">
-        <v>732</v>
-      </c>
-      <c r="D96" s="48" t="s">
-        <v>732</v>
-      </c>
-      <c r="E96" s="45" t="s">
+      <c r="B96" s="47" t="s">
+        <v>684</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="D96" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="E96" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F96" s="45"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="48"/>
-      <c r="J96" s="48"/>
-      <c r="K96" s="48"/>
-      <c r="L96" s="48"/>
-      <c r="M96" s="45"/>
-      <c r="N96" s="45"/>
-      <c r="O96" s="45"/>
-      <c r="P96" s="45"/>
-      <c r="Q96" s="45"/>
-      <c r="R96" s="45"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="47"/>
+      <c r="I96" s="47"/>
+      <c r="J96" s="47"/>
+      <c r="K96" s="47"/>
+      <c r="L96" s="47"/>
+      <c r="M96" s="44"/>
+      <c r="N96" s="44"/>
+      <c r="O96" s="44"/>
+      <c r="P96" s="44"/>
+      <c r="Q96" s="44"/>
+      <c r="R96" s="44"/>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="39"/>
-      <c r="B97" s="49" t="s">
+      <c r="A97" s="38"/>
+      <c r="B97" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49" t="s">
-        <v>733</v>
-      </c>
-      <c r="E97" s="49" t="s">
-        <v>724</v>
-      </c>
-      <c r="F97" s="49"/>
-      <c r="G97" s="49" t="s">
+      <c r="C97" s="48"/>
+      <c r="D97" s="48" t="s">
+        <v>686</v>
+      </c>
+      <c r="E97" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H97" s="49"/>
-      <c r="I97" s="49">
+      <c r="H97" s="48"/>
+      <c r="I97" s="48">
         <v>1</v>
       </c>
-      <c r="J97" s="49"/>
-      <c r="K97" s="49">
+      <c r="J97" s="48"/>
+      <c r="K97" s="48">
         <v>0.5</v>
       </c>
-      <c r="L97" s="49">
+      <c r="L97" s="48">
         <v>3</v>
       </c>
-      <c r="M97" s="41">
+      <c r="M97" s="40">
         <v>1.75</v>
       </c>
-      <c r="N97" s="39">
+      <c r="N97" s="38">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O97" s="49">
+      <c r="O97" s="48">
         <v>0.1</v>
       </c>
-      <c r="P97" s="39"/>
-      <c r="Q97" s="39"/>
-      <c r="R97" s="39" t="s">
-        <v>817</v>
+      <c r="P97" s="38"/>
+      <c r="Q97" s="38"/>
+      <c r="R97" s="38" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="49"/>
-      <c r="B98" s="49" t="s">
+      <c r="A98" s="48"/>
+      <c r="B98" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49" t="s">
-        <v>734</v>
-      </c>
-      <c r="E98" s="49" t="s">
-        <v>726</v>
-      </c>
-      <c r="F98" s="49"/>
-      <c r="G98" s="49" t="s">
+      <c r="C98" s="48"/>
+      <c r="D98" s="48" t="s">
+        <v>687</v>
+      </c>
+      <c r="E98" s="48" t="s">
+        <v>679</v>
+      </c>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H98" s="49"/>
-      <c r="I98" s="49">
+      <c r="H98" s="48"/>
+      <c r="I98" s="48">
         <v>1</v>
       </c>
-      <c r="J98" s="49"/>
-      <c r="K98" s="49">
+      <c r="J98" s="48"/>
+      <c r="K98" s="48">
         <v>0.5</v>
       </c>
-      <c r="L98" s="49">
+      <c r="L98" s="48">
         <v>4</v>
       </c>
-      <c r="M98" s="41">
+      <c r="M98" s="40">
         <v>1.75</v>
       </c>
-      <c r="N98" s="49">
+      <c r="N98" s="48">
         <v>0.25</v>
       </c>
-      <c r="O98" s="49">
+      <c r="O98" s="48">
         <v>0.1</v>
       </c>
-      <c r="P98" s="39"/>
-      <c r="Q98" s="39"/>
-      <c r="R98" s="39" t="s">
-        <v>817</v>
+      <c r="P98" s="38"/>
+      <c r="Q98" s="38"/>
+      <c r="R98" s="38" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="49"/>
-      <c r="B99" s="49" t="s">
+      <c r="A99" s="48"/>
+      <c r="B99" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49" t="s">
-        <v>735</v>
-      </c>
-      <c r="E99" s="49" t="s">
-        <v>728</v>
-      </c>
-      <c r="F99" s="49"/>
-      <c r="G99" s="49" t="s">
+      <c r="C99" s="48"/>
+      <c r="D99" s="48" t="s">
+        <v>688</v>
+      </c>
+      <c r="E99" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H99" s="49"/>
-      <c r="I99" s="49">
+      <c r="H99" s="48"/>
+      <c r="I99" s="48">
         <v>1</v>
       </c>
-      <c r="J99" s="49"/>
-      <c r="K99" s="49">
+      <c r="J99" s="48"/>
+      <c r="K99" s="48">
         <v>0.5</v>
       </c>
-      <c r="L99" s="49">
+      <c r="L99" s="48">
         <v>3</v>
       </c>
-      <c r="M99" s="41">
+      <c r="M99" s="40">
         <v>1.75</v>
       </c>
-      <c r="N99" s="41">
+      <c r="N99" s="40">
         <v>0.25</v>
       </c>
-      <c r="O99" s="41">
+      <c r="O99" s="40">
         <v>0.1</v>
       </c>
-      <c r="P99" s="41"/>
-      <c r="Q99" s="41"/>
-      <c r="R99" s="39" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="45" t="b">
+      <c r="P99" s="40"/>
+      <c r="Q99" s="40"/>
+      <c r="R99" s="38" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B100" s="45" t="s">
-        <v>756</v>
-      </c>
-      <c r="C100" s="45" t="s">
-        <v>755</v>
-      </c>
-      <c r="D100" s="45" t="s">
-        <v>755</v>
-      </c>
-      <c r="E100" s="45" t="s">
+      <c r="B100" s="44" t="s">
+        <v>709</v>
+      </c>
+      <c r="C100" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="D100" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="E100" s="44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="55" t="s">
-        <v>759</v>
-      </c>
-      <c r="E101" s="55" t="s">
-        <v>757</v>
-      </c>
-      <c r="F101" s="62"/>
-      <c r="G101" s="55" t="s">
+    <row r="101" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="54" t="s">
+        <v>712</v>
+      </c>
+      <c r="E101" s="54" t="s">
+        <v>710</v>
+      </c>
+      <c r="F101" s="61"/>
+      <c r="G101" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="H101" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="I101" s="55">
+      <c r="H101" s="54" t="s">
+        <v>642</v>
+      </c>
+      <c r="I101" s="54">
         <v>1</v>
       </c>
-      <c r="J101" s="58"/>
-      <c r="K101" s="57">
+      <c r="J101" s="57"/>
+      <c r="K101" s="56">
         <v>0.9</v>
       </c>
-      <c r="L101" s="57">
+      <c r="L101" s="56">
         <v>1</v>
       </c>
-      <c r="M101" s="57">
+      <c r="M101" s="56">
         <v>0.95</v>
       </c>
-      <c r="N101" s="57">
+      <c r="N101" s="56">
         <f>(L101-K101)/6</f>
         <v>1.6666666666666663E-2</v>
       </c>
-      <c r="O101" s="57">
+      <c r="O101" s="56">
         <v>0.1</v>
       </c>
-      <c r="R101" s="39" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="39" t="s">
+      <c r="R101" s="38" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B102" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="39" t="s">
-        <v>760</v>
-      </c>
-      <c r="E102" s="39" t="s">
-        <v>758</v>
-      </c>
-      <c r="F102" s="49"/>
-      <c r="G102" s="39" t="s">
+      <c r="D102" s="38" t="s">
+        <v>713</v>
+      </c>
+      <c r="E102" s="38" t="s">
+        <v>711</v>
+      </c>
+      <c r="F102" s="48"/>
+      <c r="G102" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H102" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I102" s="39">
+      <c r="H102" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I102" s="38">
         <v>1450</v>
       </c>
-      <c r="J102" s="42"/>
-      <c r="K102" s="41">
-        <v>0</v>
-      </c>
-      <c r="L102" s="41">
+      <c r="J102" s="41"/>
+      <c r="K102" s="40">
+        <v>0</v>
+      </c>
+      <c r="L102" s="40">
         <v>3000</v>
       </c>
-      <c r="M102" s="41">
+      <c r="M102" s="40">
         <v>1450</v>
       </c>
-      <c r="N102" s="41">
+      <c r="N102" s="40">
         <f>(L102-K102)/6</f>
         <v>500</v>
       </c>
-      <c r="O102" s="41">
+      <c r="O102" s="40">
         <v>10</v>
       </c>
-      <c r="R102" s="39" t="s">
-        <v>817</v>
+      <c r="R102" s="38" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="36"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="37"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
-      <c r="L103" s="36"/>
-      <c r="M103" s="36"/>
-      <c r="N103" s="36"/>
-      <c r="O103" s="36"/>
-      <c r="P103" s="36"/>
-      <c r="Q103" s="36"/>
-      <c r="R103" s="36"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="35"/>
+      <c r="L103" s="35"/>
+      <c r="M103" s="35"/>
+      <c r="N103" s="35"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="35"/>
+      <c r="Q103" s="35"/>
+      <c r="R103" s="35"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="62"/>
+      <c r="F104" s="61"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F105" s="46"/>
+      <c r="F105" s="45"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F106" s="46"/>
+      <c r="F106" s="45"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F107" s="46"/>
+      <c r="F107" s="45"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F108" s="46"/>
+      <c r="F108" s="45"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F109" s="46"/>
+      <c r="F109" s="45"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F110" s="46"/>
+      <c r="F110" s="45"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F111" s="46"/>
+      <c r="F111" s="45"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="46"/>
+      <c r="F112" s="45"/>
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
@@ -10316,11 +10168,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD37"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10340,7 +10192,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="59"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="7" t="s">
@@ -10358,11 +10210,11 @@
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>763</v>
+      <c r="B2" s="63" t="s">
+        <v>716</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>458</v>
@@ -10396,11 +10248,11 @@
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>764</v>
+      <c r="B3" s="63" t="s">
+        <v>717</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>622</v>
@@ -10428,18 +10280,18 @@
         <v>621</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>464</v>
@@ -10462,16 +10314,15 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>635</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>629</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>626</v>
+        <v>777</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>464</v>
+        <v>634</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>62</v>
@@ -10492,19 +10343,15 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29" t="s">
+        <v>771</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>636</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>765</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>631</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>623</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>464</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>62</v>
@@ -10518,27 +10365,24 @@
       <c r="I6" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="31"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>766</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>630</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>624</v>
+        <v>778</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F7" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G7" s="29" t="b">
@@ -10550,23 +10394,23 @@
       <c r="I7" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="31"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>674</v>
-      </c>
-      <c r="B8" s="46"/>
+        <v>666</v>
+      </c>
+      <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>675</v>
+        <v>772</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F8" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="29" t="b">
@@ -10578,63 +10422,61 @@
       <c r="I8" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>676</v>
-      </c>
-      <c r="B9" s="46"/>
+        <v>667</v>
+      </c>
+      <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>677</v>
+        <v>779</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F9" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F9" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G9" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I9" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="29"/>
+        <v>1</v>
+      </c>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>678</v>
-      </c>
-      <c r="B10" s="46"/>
+        <v>668</v>
+      </c>
+      <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>679</v>
+        <v>780</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F10" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G10" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I10" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
@@ -10642,27 +10484,27 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>680</v>
-      </c>
-      <c r="B11" s="46"/>
+        <v>669</v>
+      </c>
+      <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>681</v>
+        <v>773</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F11" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F11" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G11" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I11" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
@@ -10670,27 +10512,27 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
-        <v>682</v>
-      </c>
-      <c r="B12" s="46"/>
+        <v>670</v>
+      </c>
+      <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>683</v>
+        <v>774</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F12" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F12" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G12" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I12" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
@@ -10698,21 +10540,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>684</v>
-      </c>
-      <c r="B13" s="46"/>
+        <v>690</v>
+      </c>
+      <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>685</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F13" s="29" t="s">
+        <v>781</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G13" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="29" t="b">
         <v>1</v>
@@ -10720,27 +10560,22 @@
       <c r="I13" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>686</v>
-      </c>
-      <c r="B14" s="46"/>
+        <v>691</v>
+      </c>
+      <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>687</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F14" s="29" t="s">
+        <v>782</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G14" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="29" t="b">
         <v>1</v>
@@ -10748,28 +10583,22 @@
       <c r="I14" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>688</v>
-      </c>
-      <c r="B15" s="46"/>
+        <v>692</v>
+      </c>
+      <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>689</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F15" s="29" t="s">
+        <v>775</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="29" t="b">
         <v>1</v>
@@ -10777,28 +10606,20 @@
       <c r="I15" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>690</v>
-      </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="29"/>
+        <v>693</v>
+      </c>
+      <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>691</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F16" s="29" t="s">
+        <v>776</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="29" t="b">
         <v>1</v>
@@ -10806,619 +10627,101 @@
       <c r="I16" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>692</v>
-      </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29" t="s">
-        <v>693</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>694</v>
-      </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29" t="s">
-        <v>695</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
-        <v>696</v>
-      </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29" t="s">
-        <v>697</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>698</v>
-      </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>700</v>
-      </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>702</v>
-      </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29" t="s">
-        <v>703</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>705</v>
-      </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29" t="s">
-        <v>706</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29" t="s">
-        <v>708</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>709</v>
-      </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29" t="s">
-        <v>710</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>711</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
-        <v>642</v>
-      </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29" t="s">
-        <v>826</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>643</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>644</v>
-      </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>645</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
-        <v>712</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29" t="s">
-        <v>827</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
-        <v>713</v>
-      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="29"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="29"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="29"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="29"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="29"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="29"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="29"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="29"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="29"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="29"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="29"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29" t="s">
-        <v>821</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
-        <v>714</v>
-      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
-        <v>715</v>
-      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
-        <v>716</v>
-      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29" t="s">
-        <v>822</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
-        <v>717</v>
-      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29" t="s">
-        <v>823</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
-        <v>737</v>
-      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29" t="s">
-        <v>830</v>
-      </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
-        <v>738</v>
-      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29" t="s">
-        <v>831</v>
-      </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
-        <v>739</v>
-      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29" t="s">
-        <v>824</v>
-      </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
-        <v>740</v>
-      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="29"/>
-      <c r="D37" s="29" t="s">
-        <v>825</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="29"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="29"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="29"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="29"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="29"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="29"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="29"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="29"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="29"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="29"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
@@ -11495,69 +10798,6 @@
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="29"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="29"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="29"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="29"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="29"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="29"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="29"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="29"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="29"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="29"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="29"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="29"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="29"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="29"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="29"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="29"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="29"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="29"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="29"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="29"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="29"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20176,7 +19416,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>553</v>

--- a/projects/SEB_calibration_PSO_2013.xlsx
+++ b/projects/SEB_calibration_PSO_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2355,43 +2355,43 @@
     <t>CalibrationReportsEnhanced20</t>
   </si>
   <si>
-    <t>calibration_reports_enhanced20.gas_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>pso</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_rmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_rmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
   </si>
 </sst>
 </file>
@@ -6710,7 +6710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -6919,7 +6919,7 @@
         <v>449</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -10170,9 +10170,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10319,7 +10319,7 @@
       <c r="B5" s="45"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10348,7 +10348,7 @@
       <c r="B6" s="45"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10377,7 +10377,7 @@
       <c r="B7" s="45"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10405,7 +10405,7 @@
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10433,7 +10433,7 @@
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10461,7 +10461,7 @@
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10489,7 +10489,7 @@
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10517,7 +10517,7 @@
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10545,7 +10545,7 @@
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10568,7 +10568,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10591,7 +10591,7 @@
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_PSO_2013.xlsx
+++ b/projects/SEB_calibration_PSO_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="789">
   <si>
     <t>type</t>
   </si>
@@ -2392,6 +2392,21 @@
   </si>
   <si>
     <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>Failed F Value</t>
+  </si>
+  <si>
+    <t>Debug Messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 or 0 </t>
+  </si>
+  <si>
+    <t>Exit On Guideline14</t>
+  </si>
+  <si>
+    <t>0 false / 1 true (for use with calibration report)</t>
   </si>
 </sst>
 </file>
@@ -4433,7 +4448,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4557,6 +4572,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1851">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6708,10 +6724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7071,85 +7087,141 @@
       <c r="C34" s="32"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>637</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="13"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>637</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>447</v>
-      </c>
+    <row r="35" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="33"/>
+    </row>
+    <row r="36" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="B36" s="30">
+        <v>2</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D36" s="33"/>
+    </row>
+    <row r="37" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>787</v>
+      </c>
+      <c r="B37" s="30">
+        <v>0</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>788</v>
+      </c>
+      <c r="D37" s="33"/>
+    </row>
+    <row r="38" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="B38" s="28">
+        <v>1E+20</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="33"/>
     </row>
     <row r="39" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30" t="s">
+        <v>785</v>
+      </c>
+      <c r="B39" s="30">
+        <v>0</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>786</v>
+      </c>
+      <c r="D39" s="33"/>
+    </row>
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>637</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C44" s="30" t="s">
         <v>629</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D44" s="30" t="s">
         <v>722</v>
       </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="46" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B46" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="13" t="s">
+      <c r="D46" s="11"/>
+      <c r="E46" s="13" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="30" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="30" t="s">
         <v>632</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B47" s="25" t="s">
         <v>631</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C47" s="30" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="25"/>
-      <c r="D43" s="2"/>
+    <row r="48" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="25"/>
+      <c r="D48" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -10170,7 +10242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD16"/>
     </sheetView>

--- a/projects/SEB_calibration_PSO_2013.xlsx
+++ b/projects/SEB_calibration_PSO_2013.xlsx
@@ -4569,10 +4569,10 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1851">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6727,7 +6727,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7126,7 +7126,7 @@
         <v>784</v>
       </c>
       <c r="B38" s="28">
-        <v>1E+20</v>
+        <v>1E+18</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="33"/>
@@ -7138,7 +7138,7 @@
       <c r="B39" s="30">
         <v>0</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="64" t="s">
         <v>786</v>
       </c>
       <c r="D39" s="33"/>
@@ -7303,14 +7303,14 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">

--- a/projects/SEB_calibration_PSO_2013.xlsx
+++ b/projects/SEB_calibration_PSO_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="804">
   <si>
     <t>type</t>
   </si>
@@ -2400,13 +2400,59 @@
     <t>Debug Messages</t>
   </si>
   <si>
-    <t xml:space="preserve">1 or 0 </t>
-  </si>
-  <si>
     <t>Exit On Guideline14</t>
   </si>
   <si>
-    <t>0 false / 1 true (for use with calibration report)</t>
+    <t>"minkowski", "maximum", "euclidean", "binary", "manhattan"</t>
+  </si>
+  <si>
+    <t>1 or 0 (True or False)</t>
+  </si>
+  <si>
+    <t>Return Value for F(x) if F fails</t>
+  </si>
+  <si>
+    <t>spso2007 spso2011 ipso fips wfips</t>
+  </si>
+  <si>
+    <t>lhs random</t>
+  </si>
+  <si>
+    <t>zero lhs2011 random2011 lhs2007 random2007 default</t>
+  </si>
+  <si>
+    <t>invisible damping reflecting absorbing2007 absorbing2007 default</t>
+  </si>
+  <si>
+    <t>gbest lbest vonneumann random</t>
+  </si>
+  <si>
+    <t>Lp norm power (must be non-negative)</t>
+  </si>
+  <si>
+    <t>cognitive acceleration coefficient</t>
+  </si>
+  <si>
+    <t>social acceleration coefficient</t>
+  </si>
+  <si>
+    <t>[0,1] a percentage to limit the maximum velocity (Vmax) for each
+dimension</t>
+  </si>
+  <si>
+    <t>maximum number of iterations</t>
+  </si>
+  <si>
+    <t>maximum number of function evaluations</t>
+  </si>
+  <si>
+    <t>number of particles in the swarm</t>
+  </si>
+  <si>
+    <t>absolute convergence tolerance</t>
+  </si>
+  <si>
+    <t>relative convergence tolerance</t>
   </si>
 </sst>
 </file>
@@ -2491,6 +2537,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4569,9 +4616,11 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1851">
@@ -6726,15 +6775,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
@@ -6966,7 +7015,9 @@
       <c r="B22" s="29">
         <v>4</v>
       </c>
-      <c r="C22" s="29"/>
+      <c r="C22" t="s">
+        <v>801</v>
+      </c>
       <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -6976,7 +7027,9 @@
       <c r="B23" s="29">
         <v>1</v>
       </c>
-      <c r="C23" s="29"/>
+      <c r="C23" t="s">
+        <v>799</v>
+      </c>
       <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -6986,17 +7039,21 @@
       <c r="B24" s="29">
         <v>3000</v>
       </c>
-      <c r="C24" s="29"/>
+      <c r="C24" t="s">
+        <v>800</v>
+      </c>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>732</v>
       </c>
       <c r="B25" s="29">
         <v>0.9</v>
       </c>
-      <c r="C25" s="29"/>
+      <c r="C25" s="65" t="s">
+        <v>798</v>
+      </c>
       <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7006,6 +7063,9 @@
       <c r="B26" s="28">
         <v>1</v>
       </c>
+      <c r="C26" t="s">
+        <v>797</v>
+      </c>
       <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7015,6 +7075,9 @@
       <c r="B27" s="28">
         <v>1</v>
       </c>
+      <c r="C27" t="s">
+        <v>796</v>
+      </c>
       <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7024,7 +7087,9 @@
       <c r="B28" s="28" t="s">
         <v>729</v>
       </c>
-      <c r="C28" s="29"/>
+      <c r="C28" s="29" t="s">
+        <v>793</v>
+      </c>
       <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7034,7 +7099,9 @@
       <c r="B29" s="30" t="s">
         <v>762</v>
       </c>
-      <c r="C29" s="29"/>
+      <c r="C29" s="29" t="s">
+        <v>794</v>
+      </c>
       <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7044,7 +7111,9 @@
       <c r="B30" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="29"/>
+      <c r="C30" s="29" t="s">
+        <v>791</v>
+      </c>
       <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7054,7 +7123,9 @@
       <c r="B31" s="30" t="s">
         <v>726</v>
       </c>
-      <c r="C31" s="29"/>
+      <c r="C31" s="29" t="s">
+        <v>792</v>
+      </c>
       <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7064,7 +7135,9 @@
       <c r="B32" s="28">
         <v>0.01</v>
       </c>
-      <c r="C32" s="29"/>
+      <c r="C32" t="s">
+        <v>802</v>
+      </c>
       <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7074,7 +7147,9 @@
       <c r="B33" s="28">
         <v>0.01</v>
       </c>
-      <c r="C33" s="32"/>
+      <c r="C33" t="s">
+        <v>803</v>
+      </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7084,7 +7159,9 @@
       <c r="B34" s="28" t="s">
         <v>766</v>
       </c>
-      <c r="C34" s="32"/>
+      <c r="C34" s="32" t="s">
+        <v>790</v>
+      </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7094,7 +7171,9 @@
       <c r="B35" s="30" t="s">
         <v>536</v>
       </c>
-      <c r="C35" s="29"/>
+      <c r="C35" s="29" t="s">
+        <v>787</v>
+      </c>
       <c r="D35" s="33"/>
     </row>
     <row r="36" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7105,18 +7184,18 @@
         <v>2</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>569</v>
+        <v>795</v>
       </c>
       <c r="D36" s="33"/>
     </row>
     <row r="37" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B37" s="30">
         <v>0</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="29" t="s">
         <v>788</v>
       </c>
       <c r="D37" s="33"/>
@@ -7128,7 +7207,9 @@
       <c r="B38" s="28">
         <v>1E+18</v>
       </c>
-      <c r="C38" s="29"/>
+      <c r="C38" s="29" t="s">
+        <v>789</v>
+      </c>
       <c r="D38" s="33"/>
     </row>
     <row r="39" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7138,8 +7219,8 @@
       <c r="B39" s="30">
         <v>0</v>
       </c>
-      <c r="C39" s="64" t="s">
-        <v>786</v>
+      <c r="C39" s="29" t="s">
+        <v>788</v>
       </c>
       <c r="D39" s="33"/>
     </row>
@@ -7233,7 +7314,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7303,14 +7384,14 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">

--- a/projects/SEB_calibration_PSO_2013.xlsx
+++ b/projects/SEB_calibration_PSO_2013.xlsx
@@ -4616,11 +4616,11 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1851">
@@ -6775,8 +6775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7051,7 +7051,7 @@
       <c r="B25" s="29">
         <v>0.9</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="64" t="s">
         <v>798</v>
       </c>
       <c r="D25" s="33"/>
@@ -7217,7 +7217,7 @@
         <v>785</v>
       </c>
       <c r="B39" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>788</v>
@@ -7274,7 +7274,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="46" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>34</v>
       </c>
@@ -7384,14 +7384,14 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">

--- a/projects/SEB_calibration_PSO_2013.xlsx
+++ b/projects/SEB_calibration_PSO_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$126</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -6775,7 +6775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -7325,11 +7325,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z200"/>
+  <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7848,167 +7848,166 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="b">
+    <row r="23" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>767</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>770</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>770</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-    </row>
-    <row r="24" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="b">
+      <c r="B23" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="61"/>
+      <c r="G24" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="30"/>
+    </row>
+    <row r="25" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>664</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="48"/>
+      <c r="G25" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="38">
+        <v>0</v>
+      </c>
+      <c r="K25" s="40">
+        <v>0</v>
+      </c>
+      <c r="L25" s="40">
+        <v>100</v>
+      </c>
+      <c r="M25" s="40">
+        <v>15</v>
+      </c>
+      <c r="N25" s="40">
+        <f>(L25-K25)/6</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="O25" s="40">
         <v>1</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="P25" s="30"/>
-    </row>
-    <row r="26" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>664</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="38" t="s">
+      <c r="R25" s="38" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="F26" s="61"/>
+      <c r="G26" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="38">
-        <v>0</v>
-      </c>
-      <c r="K26" s="40">
-        <v>0</v>
-      </c>
-      <c r="L26" s="40">
-        <v>100</v>
-      </c>
-      <c r="M26" s="40">
-        <v>15</v>
-      </c>
-      <c r="N26" s="40">
-        <f>(L26-K26)/6</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="O26" s="40">
+      <c r="I26" s="29">
         <v>1</v>
       </c>
-      <c r="R26" s="38" t="s">
+    </row>
+    <row r="27" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>659</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>658</v>
+      </c>
+      <c r="F27" s="61"/>
+      <c r="G27" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="54">
+        <v>0</v>
+      </c>
+      <c r="K27" s="56">
+        <v>0</v>
+      </c>
+      <c r="L27" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="M27" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="N27" s="56">
+        <f>(L27-K27)/6</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="O27" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="R27" s="38" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>656</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>657</v>
-      </c>
-      <c r="F27" s="61"/>
-      <c r="G27" s="29" t="s">
+    <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>660</v>
+      </c>
+      <c r="F28" s="61"/>
+      <c r="G28" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>659</v>
-      </c>
-      <c r="E28" s="54" t="s">
-        <v>658</v>
-      </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="54">
-        <v>0</v>
-      </c>
-      <c r="K28" s="56">
-        <v>0</v>
-      </c>
-      <c r="L28" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="M28" s="56">
-        <v>0.05</v>
-      </c>
-      <c r="N28" s="56">
-        <f>(L28-K28)/6</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="O28" s="56">
-        <v>0.01</v>
-      </c>
-      <c r="R28" s="38" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>660</v>
-      </c>
-      <c r="F29" s="61"/>
+        <v>662</v>
+      </c>
+      <c r="F29" s="62"/>
       <c r="G29" s="29" t="s">
         <v>62</v>
       </c>
@@ -8021,10 +8020,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>663</v>
+        <v>69</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>662</v>
+        <v>46</v>
       </c>
       <c r="F30" s="62"/>
       <c r="G30" s="29" t="s">
@@ -8039,10 +8038,10 @@
         <v>21</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F31" s="62"/>
       <c r="G31" s="29" t="s">
@@ -8057,123 +8056,132 @@
         <v>21</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F32" s="62"/>
       <c r="G32" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="29">
+        <v>1</v>
+      </c>
+      <c r="P32" s="30"/>
+    </row>
+    <row r="33" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="62"/>
+      <c r="G34" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="Q34" s="37"/>
+    </row>
+    <row r="35" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>640</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="62"/>
+      <c r="G35" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="62"/>
-      <c r="G33" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="29">
+      <c r="I35" s="50">
+        <v>0</v>
+      </c>
+      <c r="J35" s="51"/>
+      <c r="K35" s="52">
+        <v>-40</v>
+      </c>
+      <c r="L35" s="52">
+        <v>40</v>
+      </c>
+      <c r="M35" s="52">
+        <v>0</v>
+      </c>
+      <c r="N35" s="52">
+        <f>(L35-K35)/6</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O35" s="52">
         <v>1</v>
       </c>
-      <c r="P33" s="30"/>
-    </row>
-    <row r="34" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="62"/>
-      <c r="G35" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="Q35" s="37"/>
-    </row>
-    <row r="36" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="50" t="s">
-        <v>640</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>44</v>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="38" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="F36" s="62"/>
-      <c r="G36" s="50" t="s">
+      <c r="G36" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="50">
-        <v>0</v>
-      </c>
-      <c r="J36" s="51"/>
-      <c r="K36" s="52">
-        <v>-40</v>
-      </c>
-      <c r="L36" s="52">
-        <v>40</v>
-      </c>
-      <c r="M36" s="52">
-        <v>0</v>
-      </c>
-      <c r="N36" s="52">
-        <f>(L36-K36)/6</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="O36" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="38" t="s">
-        <v>768</v>
-      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="Q36" s="37"/>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="29"/>
@@ -8181,11 +8189,11 @@
         <v>21</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="42" t="s">
-        <v>45</v>
+      <c r="D37" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F37" s="62"/>
       <c r="G37" s="29" t="s">
@@ -8209,14 +8217,14 @@
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F38" s="62"/>
       <c r="G38" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H38" s="29"/>
       <c r="I38" s="29">
@@ -8236,18 +8244,18 @@
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F39" s="62"/>
       <c r="G39" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H39" s="29"/>
-      <c r="I39" s="29">
-        <v>0</v>
+      <c r="I39" s="29" t="b">
+        <v>1</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -8263,18 +8271,18 @@
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F40" s="62"/>
       <c r="G40" s="29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H40" s="29"/>
-      <c r="I40" s="29" t="b">
-        <v>1</v>
+      <c r="I40" s="29">
+        <v>15</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -8290,18 +8298,18 @@
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H41" s="29"/>
       <c r="I41" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -8317,18 +8325,18 @@
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F42" s="62"/>
       <c r="G42" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H42" s="29"/>
       <c r="I42" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -8337,123 +8345,117 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="37"/>
     </row>
-    <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="62"/>
-      <c r="G43" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29">
+    <row r="43" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="Q43" s="37"/>
-    </row>
-    <row r="44" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="44" t="b">
+      <c r="B43" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="62"/>
+      <c r="G44" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="F45" s="48"/>
+      <c r="G45" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I45" s="38">
+        <v>0</v>
+      </c>
+      <c r="J45" s="41"/>
+      <c r="K45" s="40">
+        <v>-80</v>
+      </c>
+      <c r="L45" s="40">
+        <v>80</v>
+      </c>
+      <c r="M45" s="40">
+        <v>0</v>
+      </c>
+      <c r="N45" s="40">
+        <f>(L45-K45)/6</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="O45" s="40">
         <v>1</v>
       </c>
-      <c r="B44" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="D44" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="62"/>
-      <c r="G45" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I45" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J45" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>641</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="38" t="s">
+      <c r="R45" s="38" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="62"/>
+      <c r="G46" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="38" t="s">
+      <c r="H46" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="I46" s="38">
-        <v>0</v>
-      </c>
-      <c r="J46" s="41"/>
-      <c r="K46" s="40">
-        <v>-80</v>
-      </c>
-      <c r="L46" s="40">
-        <v>80</v>
-      </c>
-      <c r="M46" s="40">
-        <v>0</v>
-      </c>
-      <c r="N46" s="40">
-        <f>(L46-K46)/6</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="O46" s="40">
-        <v>1</v>
-      </c>
-      <c r="R46" s="38" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I46" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="62"/>
+        <v>48</v>
+      </c>
+      <c r="F47" s="61"/>
       <c r="G47" s="29" t="s">
         <v>62</v>
       </c>
@@ -8469,17 +8471,17 @@
         <v>21</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F48" s="61"/>
       <c r="G48" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I48" s="29">
         <v>0</v>
@@ -8490,19 +8492,16 @@
         <v>21</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F49" s="61"/>
       <c r="G49" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I49" s="29">
+        <v>61</v>
+      </c>
+      <c r="I49" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8511,17 +8510,20 @@
         <v>21</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F50" s="61"/>
       <c r="G50" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I50" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8529,141 +8531,138 @@
         <v>21</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F51" s="61"/>
       <c r="G51" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I51" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="62"/>
+      <c r="G52" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H52" s="29" t="s">
         <v>646</v>
       </c>
-      <c r="I51" s="29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>649</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="61"/>
-      <c r="G52" s="29" t="s">
+      <c r="I52" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>694</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="D53" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="62"/>
+      <c r="G54" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I54" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>696</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="F55" s="48"/>
+      <c r="G55" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="H55" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I52" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="62"/>
-      <c r="G53" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I53" s="29">
+      <c r="I55" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="J55" s="41"/>
+      <c r="K55" s="40">
+        <v>0.78</v>
+      </c>
+      <c r="L55" s="40">
+        <v>0.98</v>
+      </c>
+      <c r="M55" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="N55" s="40">
+        <f>(L55-K55)/6</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="O55" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B54" s="44" t="s">
-        <v>694</v>
-      </c>
-      <c r="C54" s="44" t="s">
-        <v>695</v>
-      </c>
-      <c r="D54" s="44" t="s">
-        <v>695</v>
-      </c>
-      <c r="E54" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F55" s="62"/>
-      <c r="G55" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I55" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="J55" s="29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>696</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>697</v>
-      </c>
-      <c r="F56" s="48"/>
-      <c r="G56" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I56" s="38">
-        <v>0.8</v>
-      </c>
-      <c r="J56" s="41"/>
-      <c r="K56" s="40">
-        <v>0.78</v>
-      </c>
-      <c r="L56" s="40">
-        <v>0.98</v>
-      </c>
-      <c r="M56" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="N56" s="40">
-        <f>(L56-K56)/6</f>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="O56" s="40">
-        <v>1</v>
-      </c>
-      <c r="R56" s="38" t="s">
+      <c r="R55" s="38" t="s">
         <v>768</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="30"/>
+      <c r="G56" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I56" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8671,16 +8670,19 @@
         <v>21</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F57" s="30"/>
       <c r="G57" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I57" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I57" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8689,10 +8691,10 @@
         <v>21</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="29" t="s">
@@ -8710,40 +8712,37 @@
         <v>21</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F59" s="30"/>
       <c r="G59" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I59" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="F60" s="62"/>
       <c r="G60" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H60" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I60" s="29">
+        <v>61</v>
+      </c>
+      <c r="I60" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8752,17 +8751,20 @@
         <v>21</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F61" s="62"/>
       <c r="G61" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I61" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8770,20 +8772,20 @@
         <v>21</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F62" s="62"/>
       <c r="G62" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I62" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8791,120 +8793,117 @@
         <v>21</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F63" s="62"/>
       <c r="G63" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I63" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B64" s="44" t="s">
+        <v>701</v>
+      </c>
+      <c r="C64" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="D64" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="E64" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="62"/>
+      <c r="G65" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I65" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="J65" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="F66" s="48"/>
+      <c r="G66" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H63" s="29" t="s">
+      <c r="H66" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I63" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H64" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I64" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B65" s="44" t="s">
-        <v>701</v>
-      </c>
-      <c r="C65" s="44" t="s">
-        <v>700</v>
-      </c>
-      <c r="D65" s="44" t="s">
-        <v>700</v>
-      </c>
-      <c r="E65" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>702</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I66" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="J66" s="29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>703</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>704</v>
-      </c>
-      <c r="F67" s="48"/>
-      <c r="G67" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I67" s="38">
+      <c r="I66" s="38">
         <v>4</v>
       </c>
-      <c r="J67" s="41"/>
-      <c r="K67" s="40">
-        <v>2</v>
-      </c>
-      <c r="L67" s="40">
+      <c r="J66" s="41"/>
+      <c r="K66" s="40">
+        <v>2</v>
+      </c>
+      <c r="L66" s="40">
         <v>5</v>
       </c>
-      <c r="M67" s="40">
+      <c r="M66" s="40">
         <v>4</v>
       </c>
-      <c r="N67" s="40">
-        <f>(L67-K67)/6</f>
+      <c r="N66" s="40">
+        <f>(L66-K66)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="40">
+      <c r="O66" s="40">
         <v>0.25</v>
       </c>
-      <c r="R67" s="38" t="s">
+      <c r="R66" s="38" t="s">
         <v>768</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67" s="62"/>
+      <c r="G67" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I67" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8912,16 +8911,19 @@
         <v>21</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F68" s="62"/>
       <c r="G68" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I68" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I68" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8930,10 +8932,10 @@
         <v>21</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F69" s="62"/>
       <c r="G69" s="29" t="s">
@@ -8951,17 +8953,17 @@
         <v>21</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F70" s="62"/>
       <c r="G70" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I70" s="29">
         <v>0</v>
@@ -8972,19 +8974,16 @@
         <v>21</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F71" s="62"/>
       <c r="G71" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H71" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I71" s="29">
+        <v>61</v>
+      </c>
+      <c r="I71" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8993,17 +8992,20 @@
         <v>21</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F72" s="62"/>
       <c r="G72" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I72" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I72" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9011,20 +9013,20 @@
         <v>21</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F73" s="62"/>
       <c r="G73" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I73" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9032,79 +9034,99 @@
         <v>21</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F74" s="62"/>
       <c r="G74" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I74" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B75" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" s="62"/>
+      <c r="G76" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I76" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="J76" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="E77" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="F77" s="48"/>
+      <c r="G77" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H74" s="29" t="s">
+      <c r="H77" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I74" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="62"/>
-      <c r="G75" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H75" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I75" s="29">
+      <c r="I77" s="38">
+        <v>0</v>
+      </c>
+      <c r="J77" s="41"/>
+      <c r="K77" s="40">
+        <v>-20</v>
+      </c>
+      <c r="L77" s="40">
+        <v>14</v>
+      </c>
+      <c r="M77" s="40">
+        <v>0</v>
+      </c>
+      <c r="N77" s="40">
+        <f>(L77-K77)/6</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="O77" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B76" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="D76" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="E76" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F77" s="62"/>
-      <c r="G77" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I77" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="J77" s="29" t="s">
-        <v>416</v>
+      <c r="R77" s="38" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9112,10 +9134,10 @@
         <v>22</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>243</v>
+        <v>707</v>
       </c>
       <c r="F78" s="48"/>
       <c r="G78" s="38" t="s">
@@ -9132,14 +9154,14 @@
         <v>-20</v>
       </c>
       <c r="L78" s="40">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M78" s="40">
         <v>0</v>
       </c>
       <c r="N78" s="40">
         <f>(L78-K78)/6</f>
-        <v>5.666666666666667</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="O78" s="40">
         <v>1</v>
@@ -9148,45 +9170,22 @@
         <v>768</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="38" t="s">
-        <v>706</v>
-      </c>
-      <c r="E79" s="38" t="s">
-        <v>707</v>
-      </c>
-      <c r="F79" s="48"/>
-      <c r="G79" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I79" s="38">
-        <v>0</v>
-      </c>
-      <c r="J79" s="41"/>
-      <c r="K79" s="40">
-        <v>-20</v>
-      </c>
-      <c r="L79" s="40">
-        <v>30</v>
-      </c>
-      <c r="M79" s="40">
-        <v>0</v>
-      </c>
-      <c r="N79" s="40">
-        <f>(L79-K79)/6</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="O79" s="40">
-        <v>1</v>
-      </c>
-      <c r="R79" s="38" t="s">
-        <v>768</v>
+    <row r="79" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E79" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F79" s="62"/>
+      <c r="G79" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I79" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9194,16 +9193,19 @@
         <v>21</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F80" s="62"/>
       <c r="G80" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I80" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I80" s="29">
         <v>0</v>
       </c>
     </row>
@@ -9212,10 +9214,10 @@
         <v>21</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F81" s="62"/>
       <c r="G81" s="29" t="s">
@@ -9233,40 +9235,37 @@
         <v>21</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F82" s="62"/>
       <c r="G82" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I82" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" s="62"/>
+        <v>52</v>
+      </c>
+      <c r="F83" s="61"/>
       <c r="G83" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H83" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I83" s="29">
+        <v>61</v>
+      </c>
+      <c r="I83" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9275,17 +9274,20 @@
         <v>21</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F84" s="61"/>
       <c r="G84" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I84" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H84" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I84" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -9293,20 +9295,20 @@
         <v>21</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F85" s="61"/>
       <c r="G85" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I85" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -9314,58 +9316,78 @@
         <v>21</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F86" s="61"/>
       <c r="G86" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I86" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="D87" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="E87" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B88" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F88" s="48"/>
+      <c r="G88" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H86" s="29" t="s">
-        <v>642</v>
-      </c>
-      <c r="I86" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E87" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F87" s="61"/>
-      <c r="G87" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H87" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I87" s="29">
+      <c r="H88" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="I88" s="38">
+        <v>0</v>
+      </c>
+      <c r="J88" s="41"/>
+      <c r="K88" s="40">
+        <v>-6</v>
+      </c>
+      <c r="L88" s="40">
+        <v>2</v>
+      </c>
+      <c r="M88" s="40">
+        <v>0</v>
+      </c>
+      <c r="N88" s="40">
+        <f>(L88-K88)/6</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O88" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B88" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="44" t="s">
-        <v>651</v>
-      </c>
-      <c r="D88" s="44" t="s">
-        <v>651</v>
-      </c>
-      <c r="E88" s="44" t="s">
-        <v>66</v>
+      <c r="R88" s="38" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9373,10 +9395,10 @@
         <v>22</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E89" s="38" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F89" s="48"/>
       <c r="G89" s="38" t="s">
@@ -9390,17 +9412,17 @@
       </c>
       <c r="J89" s="41"/>
       <c r="K89" s="40">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="L89" s="40">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="M89" s="40">
         <v>0</v>
       </c>
       <c r="N89" s="40">
         <f>(L89-K89)/6</f>
-        <v>1.3333333333333333</v>
+        <v>1.4833333333333334</v>
       </c>
       <c r="O89" s="40">
         <v>1</v>
@@ -9409,111 +9431,113 @@
         <v>768</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="38" t="s">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B90" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F90" s="61"/>
+      <c r="G90" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I90" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B91" s="47" t="s">
+        <v>682</v>
+      </c>
+      <c r="C91" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="D91" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="E91" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="44"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="47"/>
+      <c r="K91" s="47"/>
+      <c r="L91" s="47"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="44"/>
+      <c r="O91" s="44"/>
+      <c r="P91" s="44"/>
+      <c r="Q91" s="44"/>
+      <c r="R91" s="44"/>
+    </row>
+    <row r="92" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="38"/>
+      <c r="B92" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="38" t="s">
-        <v>654</v>
-      </c>
-      <c r="E90" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="F90" s="48"/>
-      <c r="G90" s="38" t="s">
+      <c r="C92" s="48"/>
+      <c r="D92" s="48" t="s">
+        <v>676</v>
+      </c>
+      <c r="E92" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="38" t="s">
-        <v>653</v>
-      </c>
-      <c r="I90" s="38">
-        <v>0</v>
-      </c>
-      <c r="J90" s="41"/>
-      <c r="K90" s="40">
-        <v>-5</v>
-      </c>
-      <c r="L90" s="40">
-        <v>3.9</v>
-      </c>
-      <c r="M90" s="40">
-        <v>0</v>
-      </c>
-      <c r="N90" s="40">
-        <f>(L90-K90)/6</f>
-        <v>1.4833333333333334</v>
-      </c>
-      <c r="O90" s="40">
+      <c r="H92" s="48"/>
+      <c r="I92" s="48">
         <v>1</v>
       </c>
-      <c r="R90" s="38" t="s">
+      <c r="J92" s="48"/>
+      <c r="K92" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="L92" s="48">
+        <v>4</v>
+      </c>
+      <c r="M92" s="40">
+        <v>1.75</v>
+      </c>
+      <c r="N92" s="38">
+        <f>1.5/6</f>
+        <v>0.25</v>
+      </c>
+      <c r="O92" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="P92" s="38"/>
+      <c r="Q92" s="38"/>
+      <c r="R92" s="38" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B91" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>655</v>
-      </c>
-      <c r="E91" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="F91" s="61"/>
-      <c r="G91" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I91" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="B92" s="47" t="s">
-        <v>682</v>
-      </c>
-      <c r="C92" s="47" t="s">
-        <v>683</v>
-      </c>
-      <c r="D92" s="47" t="s">
-        <v>683</v>
-      </c>
-      <c r="E92" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F92" s="44"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="44"/>
-      <c r="N92" s="44"/>
-      <c r="O92" s="44"/>
-      <c r="P92" s="44"/>
-      <c r="Q92" s="44"/>
-      <c r="R92" s="44"/>
-    </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="38"/>
+      <c r="A93" s="48"/>
       <c r="B93" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C93" s="48"/>
       <c r="D93" s="48" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E93" s="48" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F93" s="48"/>
       <c r="G93" s="48" t="s">
@@ -9525,16 +9549,15 @@
       </c>
       <c r="J93" s="48"/>
       <c r="K93" s="48">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L93" s="48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M93" s="40">
         <v>1.75</v>
       </c>
-      <c r="N93" s="38">
-        <f>1.5/6</f>
+      <c r="N93" s="48">
         <v>0.25</v>
       </c>
       <c r="O93" s="48">
@@ -9553,10 +9576,10 @@
       </c>
       <c r="C94" s="48"/>
       <c r="D94" s="48" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E94" s="48" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F94" s="48"/>
       <c r="G94" s="48" t="s">
@@ -9568,7 +9591,7 @@
       </c>
       <c r="J94" s="48"/>
       <c r="K94" s="48">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L94" s="48">
         <v>3</v>
@@ -9576,102 +9599,103 @@
       <c r="M94" s="40">
         <v>1.75</v>
       </c>
-      <c r="N94" s="48">
+      <c r="N94" s="40">
         <v>0.25</v>
       </c>
-      <c r="O94" s="48">
+      <c r="O94" s="40">
         <v>0.1</v>
       </c>
-      <c r="P94" s="38"/>
-      <c r="Q94" s="38"/>
+      <c r="P94" s="40"/>
+      <c r="Q94" s="40"/>
       <c r="R94" s="38" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="48"/>
-      <c r="B95" s="48" t="s">
+      <c r="T94" s="30"/>
+    </row>
+    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B95" s="47" t="s">
+        <v>684</v>
+      </c>
+      <c r="C95" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="D95" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="E95" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="44"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="47"/>
+      <c r="K95" s="47"/>
+      <c r="L95" s="47"/>
+      <c r="M95" s="44"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="44"/>
+      <c r="P95" s="44"/>
+      <c r="Q95" s="44"/>
+      <c r="R95" s="44"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="38"/>
+      <c r="B96" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48" t="s">
-        <v>680</v>
-      </c>
-      <c r="E95" s="48" t="s">
-        <v>681</v>
-      </c>
-      <c r="F95" s="48"/>
-      <c r="G95" s="48" t="s">
+      <c r="C96" s="48"/>
+      <c r="D96" s="48" t="s">
+        <v>686</v>
+      </c>
+      <c r="E96" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="48"/>
-      <c r="I95" s="48">
+      <c r="H96" s="48"/>
+      <c r="I96" s="48">
         <v>1</v>
       </c>
-      <c r="J95" s="48"/>
-      <c r="K95" s="48">
+      <c r="J96" s="48"/>
+      <c r="K96" s="48">
         <v>0.5</v>
       </c>
-      <c r="L95" s="48">
+      <c r="L96" s="48">
         <v>3</v>
       </c>
-      <c r="M95" s="40">
+      <c r="M96" s="40">
         <v>1.75</v>
       </c>
-      <c r="N95" s="40">
+      <c r="N96" s="38">
+        <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O95" s="40">
+      <c r="O96" s="48">
         <v>0.1</v>
       </c>
-      <c r="P95" s="40"/>
-      <c r="Q95" s="40"/>
-      <c r="R95" s="38" t="s">
+      <c r="P96" s="38"/>
+      <c r="Q96" s="38"/>
+      <c r="R96" s="38" t="s">
         <v>768</v>
       </c>
-      <c r="T95" s="30"/>
-    </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="B96" s="47" t="s">
-        <v>684</v>
-      </c>
-      <c r="C96" s="47" t="s">
-        <v>685</v>
-      </c>
-      <c r="D96" s="47" t="s">
-        <v>685</v>
-      </c>
-      <c r="E96" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F96" s="44"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="47"/>
-      <c r="J96" s="47"/>
-      <c r="K96" s="47"/>
-      <c r="L96" s="47"/>
-      <c r="M96" s="44"/>
-      <c r="N96" s="44"/>
-      <c r="O96" s="44"/>
-      <c r="P96" s="44"/>
-      <c r="Q96" s="44"/>
-      <c r="R96" s="44"/>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="38"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="48"/>
       <c r="D97" s="48" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E97" s="48" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F97" s="48"/>
       <c r="G97" s="48" t="s">
@@ -9686,13 +9710,12 @@
         <v>0.5</v>
       </c>
       <c r="L97" s="48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M97" s="40">
         <v>1.75</v>
       </c>
-      <c r="N97" s="38">
-        <f>1.5/6</f>
+      <c r="N97" s="48">
         <v>0.25</v>
       </c>
       <c r="O97" s="48">
@@ -9711,10 +9734,10 @@
       </c>
       <c r="C98" s="48"/>
       <c r="D98" s="48" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E98" s="48" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F98" s="48"/>
       <c r="G98" s="48" t="s">
@@ -9729,186 +9752,148 @@
         <v>0.5</v>
       </c>
       <c r="L98" s="48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M98" s="40">
         <v>1.75</v>
       </c>
-      <c r="N98" s="48">
+      <c r="N98" s="40">
         <v>0.25</v>
       </c>
-      <c r="O98" s="48">
+      <c r="O98" s="40">
         <v>0.1</v>
       </c>
-      <c r="P98" s="38"/>
-      <c r="Q98" s="38"/>
+      <c r="P98" s="40"/>
+      <c r="Q98" s="40"/>
       <c r="R98" s="38" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="48"/>
-      <c r="B99" s="48" t="s">
+    <row r="99" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B99" s="44" t="s">
+        <v>709</v>
+      </c>
+      <c r="C99" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="D99" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="E99" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="54" t="s">
+        <v>712</v>
+      </c>
+      <c r="E100" s="54" t="s">
+        <v>710</v>
+      </c>
+      <c r="F100" s="61"/>
+      <c r="G100" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="H100" s="54" t="s">
+        <v>642</v>
+      </c>
+      <c r="I100" s="54">
+        <v>1</v>
+      </c>
+      <c r="J100" s="57"/>
+      <c r="K100" s="56">
+        <v>0.9</v>
+      </c>
+      <c r="L100" s="56">
+        <v>1</v>
+      </c>
+      <c r="M100" s="56">
+        <v>0.95</v>
+      </c>
+      <c r="N100" s="56">
+        <f>(L100-K100)/6</f>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="O100" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="R100" s="38" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B101" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48" t="s">
-        <v>688</v>
-      </c>
-      <c r="E99" s="48" t="s">
-        <v>681</v>
-      </c>
-      <c r="F99" s="48"/>
-      <c r="G99" s="48" t="s">
+      <c r="D101" s="38" t="s">
+        <v>713</v>
+      </c>
+      <c r="E101" s="38" t="s">
+        <v>711</v>
+      </c>
+      <c r="F101" s="48"/>
+      <c r="G101" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H99" s="48"/>
-      <c r="I99" s="48">
-        <v>1</v>
-      </c>
-      <c r="J99" s="48"/>
-      <c r="K99" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="L99" s="48">
-        <v>3</v>
-      </c>
-      <c r="M99" s="40">
-        <v>1.75</v>
-      </c>
-      <c r="N99" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="O99" s="40">
-        <v>0.1</v>
-      </c>
-      <c r="P99" s="40"/>
-      <c r="Q99" s="40"/>
-      <c r="R99" s="38" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B100" s="44" t="s">
-        <v>709</v>
-      </c>
-      <c r="C100" s="44" t="s">
-        <v>708</v>
-      </c>
-      <c r="D100" s="44" t="s">
-        <v>708</v>
-      </c>
-      <c r="E100" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="54" t="s">
-        <v>712</v>
-      </c>
-      <c r="E101" s="54" t="s">
-        <v>710</v>
-      </c>
-      <c r="F101" s="61"/>
-      <c r="G101" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="H101" s="54" t="s">
+      <c r="H101" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I101" s="54">
-        <v>1</v>
-      </c>
-      <c r="J101" s="57"/>
-      <c r="K101" s="56">
-        <v>0.9</v>
-      </c>
-      <c r="L101" s="56">
-        <v>1</v>
-      </c>
-      <c r="M101" s="56">
-        <v>0.95</v>
-      </c>
-      <c r="N101" s="56">
+      <c r="I101" s="38">
+        <v>1450</v>
+      </c>
+      <c r="J101" s="41"/>
+      <c r="K101" s="40">
+        <v>0</v>
+      </c>
+      <c r="L101" s="40">
+        <v>3000</v>
+      </c>
+      <c r="M101" s="40">
+        <v>1450</v>
+      </c>
+      <c r="N101" s="40">
         <f>(L101-K101)/6</f>
-        <v>1.6666666666666663E-2</v>
-      </c>
-      <c r="O101" s="56">
-        <v>0.1</v>
+        <v>500</v>
+      </c>
+      <c r="O101" s="40">
+        <v>10</v>
       </c>
       <c r="R101" s="38" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D102" s="38" t="s">
-        <v>713</v>
-      </c>
-      <c r="E102" s="38" t="s">
-        <v>711</v>
-      </c>
-      <c r="F102" s="48"/>
-      <c r="G102" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H102" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I102" s="38">
-        <v>1450</v>
-      </c>
-      <c r="J102" s="41"/>
-      <c r="K102" s="40">
-        <v>0</v>
-      </c>
-      <c r="L102" s="40">
-        <v>3000</v>
-      </c>
-      <c r="M102" s="40">
-        <v>1450</v>
-      </c>
-      <c r="N102" s="40">
-        <f>(L102-K102)/6</f>
-        <v>500</v>
-      </c>
-      <c r="O102" s="40">
-        <v>10</v>
-      </c>
-      <c r="R102" s="38" t="s">
-        <v>768</v>
-      </c>
+    <row r="102" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="B102" s="35" t="s">
+        <v>767</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>770</v>
+      </c>
+      <c r="D102" s="35" t="s">
+        <v>770</v>
+      </c>
+      <c r="E102" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="35"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="35"/>
-      <c r="K103" s="35"/>
-      <c r="L103" s="35"/>
-      <c r="M103" s="35"/>
-      <c r="N103" s="35"/>
-      <c r="O103" s="35"/>
-      <c r="P103" s="35"/>
-      <c r="Q103" s="35"/>
-      <c r="R103" s="35"/>
+      <c r="F103" s="61"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="61"/>
+      <c r="F104" s="45"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
@@ -9948,7 +9933,6 @@
       <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="45"/>
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
@@ -10300,12 +10284,8 @@
       <c r="I199" s="30"/>
       <c r="J199" s="30"/>
     </row>
-    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I200" s="30"/>
-      <c r="J200" s="30"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:AA127"/>
+  <autoFilter ref="A2:AA126"/>
   <mergeCells count="1">
     <mergeCell ref="U1:Z1"/>
   </mergeCells>

--- a/projects/SEB_calibration_PSO_2013.xlsx
+++ b/projects/SEB_calibration_PSO_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2343,64 +2343,19 @@
     <t>spso2011</t>
   </si>
   <si>
-    <t>Calibration Reports Enhanced</t>
-  </si>
-  <si>
     <t>uniform</t>
   </si>
   <si>
     <t>1.21.14</t>
   </si>
   <si>
-    <t>CalibrationReportsEnhanced20</t>
-  </si>
-  <si>
     <t>pso</t>
   </si>
   <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Failed F Value</t>
   </si>
   <si>
     <t>Debug Messages</t>
-  </si>
-  <si>
-    <t>Exit On Guideline14</t>
   </si>
   <si>
     <t>"minkowski", "maximum", "euclidean", "binary", "manhattan"</t>
@@ -2453,6 +2408,51 @@
   </si>
   <si>
     <t>relative convergence tolerance</t>
+  </si>
+  <si>
+    <t>Calibration Reports Enhanced 21</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.natural_gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.electricity_rmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.natural_gas_rmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.natural_gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.natural_gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.natural_gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced21.natural_gas_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>Exit On Guideline 14</t>
   </si>
 </sst>
 </file>
@@ -6775,8 +6775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6834,7 +6834,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -6984,7 +6984,7 @@
         <v>449</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7013,10 +7013,10 @@
         <v>759</v>
       </c>
       <c r="B22" s="29">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="D22" s="33"/>
     </row>
@@ -7025,10 +7025,10 @@
         <v>554</v>
       </c>
       <c r="B23" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
       <c r="D23" s="33"/>
     </row>
@@ -7040,7 +7040,7 @@
         <v>3000</v>
       </c>
       <c r="C24" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="D24" s="33"/>
     </row>
@@ -7052,7 +7052,7 @@
         <v>0.9</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="D25" s="33"/>
     </row>
@@ -7064,7 +7064,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="D26" s="33"/>
     </row>
@@ -7076,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="D27" s="33"/>
     </row>
@@ -7088,7 +7088,7 @@
         <v>729</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="D28" s="33"/>
     </row>
@@ -7100,7 +7100,7 @@
         <v>762</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="D29" s="33"/>
     </row>
@@ -7112,7 +7112,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="D30" s="33"/>
     </row>
@@ -7124,7 +7124,7 @@
         <v>726</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="D31" s="33"/>
     </row>
@@ -7136,7 +7136,7 @@
         <v>0.01</v>
       </c>
       <c r="C32" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="D32" s="33"/>
     </row>
@@ -7148,7 +7148,7 @@
         <v>0.01</v>
       </c>
       <c r="C33" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="D33" s="2"/>
     </row>
@@ -7160,7 +7160,7 @@
         <v>766</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="D34" s="2"/>
     </row>
@@ -7172,7 +7172,7 @@
         <v>536</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="D35" s="33"/>
     </row>
@@ -7184,43 +7184,43 @@
         <v>2</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="D36" s="33"/>
     </row>
     <row r="37" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
-        <v>786</v>
+        <v>803</v>
       </c>
       <c r="B37" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="D37" s="33"/>
     </row>
     <row r="38" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="B38" s="28">
         <v>1E+18</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
       <c r="D38" s="33"/>
     </row>
     <row r="39" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="B39" s="30">
         <v>1</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="D39" s="33"/>
     </row>
@@ -7327,9 +7327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102:XFD102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7921,7 +7921,7 @@
         <v>1</v>
       </c>
       <c r="R25" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7976,7 +7976,7 @@
         <v>0.01</v>
       </c>
       <c r="R27" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8153,7 +8153,7 @@
       </c>
       <c r="Q35" s="53"/>
       <c r="R35" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8421,7 +8421,7 @@
         <v>1</v>
       </c>
       <c r="R45" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="R55" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="56" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8885,7 +8885,7 @@
         <v>0.25</v>
       </c>
       <c r="R66" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="67" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9126,7 +9126,7 @@
         <v>1</v>
       </c>
       <c r="R77" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9167,7 +9167,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9387,7 +9387,7 @@
         <v>1</v>
       </c>
       <c r="R88" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9428,7 +9428,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
@@ -9524,7 +9524,7 @@
       <c r="P92" s="38"/>
       <c r="Q92" s="38"/>
       <c r="R92" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9566,7 +9566,7 @@
       <c r="P93" s="38"/>
       <c r="Q93" s="38"/>
       <c r="R93" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9608,7 +9608,7 @@
       <c r="P94" s="40"/>
       <c r="Q94" s="40"/>
       <c r="R94" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="T94" s="30"/>
     </row>
@@ -9682,7 +9682,7 @@
       <c r="P96" s="38"/>
       <c r="Q96" s="38"/>
       <c r="R96" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9724,7 +9724,7 @@
       <c r="P97" s="38"/>
       <c r="Q97" s="38"/>
       <c r="R97" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9766,7 +9766,7 @@
       <c r="P98" s="40"/>
       <c r="Q98" s="40"/>
       <c r="R98" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="99" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9824,7 +9824,7 @@
         <v>0.1</v>
       </c>
       <c r="R100" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="101" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9865,7 +9865,7 @@
         <v>10</v>
       </c>
       <c r="R101" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -9873,13 +9873,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>767</v>
+        <v>789</v>
       </c>
       <c r="C102" s="35" t="s">
-        <v>770</v>
+        <v>790</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>770</v>
+        <v>790</v>
       </c>
       <c r="E102" s="35" t="s">
         <v>231</v>
@@ -10301,11 +10301,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD16"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10452,7 +10452,7 @@
       <c r="B5" s="45"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>772</v>
+        <v>791</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10481,7 +10481,7 @@
       <c r="B6" s="45"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>773</v>
+        <v>792</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10510,7 +10510,7 @@
       <c r="B7" s="45"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>774</v>
+        <v>793</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10538,7 +10538,7 @@
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>775</v>
+        <v>794</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10566,7 +10566,7 @@
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10594,7 +10594,7 @@
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>777</v>
+        <v>796</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10622,7 +10622,7 @@
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>778</v>
+        <v>797</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10650,7 +10650,7 @@
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>779</v>
+        <v>798</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10678,7 +10678,7 @@
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>780</v>
+        <v>799</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10701,7 +10701,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>781</v>
+        <v>800</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10724,7 +10724,7 @@
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>782</v>
+        <v>801</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>783</v>
+        <v>802</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>
@@ -10928,9 +10928,6 @@
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="29"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/projects/SEB_calibration_PSO_2013.xlsx
+++ b/projects/SEB_calibration_PSO_2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2349,49 +2349,10 @@
     <t>uniform</t>
   </si>
   <si>
-    <t>1.21.14</t>
-  </si>
-  <si>
     <t>CalibrationReportsEnhanced20</t>
   </si>
   <si>
     <t>pso</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
   </si>
   <si>
     <t>Failed F Value</t>
@@ -2453,6 +2414,45 @@
   </si>
   <si>
     <t>relative convergence tolerance</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>2.2.0</t>
   </si>
 </sst>
 </file>
@@ -6775,21 +6775,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="27"/>
       <c r="C1" s="19"/>
@@ -6798,7 +6798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>433</v>
       </c>
@@ -6807,7 +6807,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>434</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>454</v>
       </c>
@@ -6829,18 +6829,18 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>769</v>
+        <v>803</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>466</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>440</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>441</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
@@ -6911,7 +6911,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>460</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>462</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
@@ -6979,19 +6979,19 @@
         <v>453</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="30" customFormat="1">
       <c r="B20" s="25"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A21" s="11" t="s">
         <v>448</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="30" customFormat="1">
       <c r="A22" s="30" t="s">
         <v>759</v>
       </c>
@@ -7016,11 +7016,11 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="D22" s="33"/>
     </row>
-    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="30" customFormat="1">
       <c r="A23" s="30" t="s">
         <v>554</v>
       </c>
@@ -7028,11 +7028,11 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="D23" s="33"/>
     </row>
-    <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="30" customFormat="1">
       <c r="A24" s="30" t="s">
         <v>760</v>
       </c>
@@ -7040,11 +7040,11 @@
         <v>3000</v>
       </c>
       <c r="C24" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:5" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="30" customFormat="1" ht="42">
       <c r="A25" s="29" t="s">
         <v>732</v>
       </c>
@@ -7052,11 +7052,11 @@
         <v>0.9</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="30" customFormat="1">
       <c r="A26" s="30" t="s">
         <v>731</v>
       </c>
@@ -7064,11 +7064,11 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="D26" s="33"/>
     </row>
-    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="30" customFormat="1">
       <c r="A27" s="30" t="s">
         <v>730</v>
       </c>
@@ -7076,11 +7076,11 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="30" customFormat="1">
       <c r="A28" s="30" t="s">
         <v>728</v>
       </c>
@@ -7088,11 +7088,11 @@
         <v>729</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="D28" s="33"/>
     </row>
-    <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="30" customFormat="1">
       <c r="A29" s="30" t="s">
         <v>761</v>
       </c>
@@ -7100,11 +7100,11 @@
         <v>762</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="D29" s="33"/>
     </row>
-    <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="30" customFormat="1">
       <c r="A30" s="30" t="s">
         <v>727</v>
       </c>
@@ -7112,11 +7112,11 @@
         <v>15</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="D30" s="33"/>
     </row>
-    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="30" customFormat="1">
       <c r="A31" s="30" t="s">
         <v>725</v>
       </c>
@@ -7124,11 +7124,11 @@
         <v>726</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="D31" s="33"/>
     </row>
-    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="30" customFormat="1">
       <c r="A32" s="30" t="s">
         <v>763</v>
       </c>
@@ -7136,11 +7136,11 @@
         <v>0.01</v>
       </c>
       <c r="C32" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="D32" s="33"/>
     </row>
-    <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="30" customFormat="1">
       <c r="A33" s="30" t="s">
         <v>764</v>
       </c>
@@ -7148,11 +7148,11 @@
         <v>0.01</v>
       </c>
       <c r="C33" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="30" customFormat="1">
       <c r="A34" s="30" t="s">
         <v>765</v>
       </c>
@@ -7160,11 +7160,11 @@
         <v>766</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="30" customFormat="1">
       <c r="A35" s="30" t="s">
         <v>535</v>
       </c>
@@ -7172,11 +7172,11 @@
         <v>536</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="D35" s="33"/>
     </row>
-    <row r="36" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="30" customFormat="1">
       <c r="A36" s="30" t="s">
         <v>537</v>
       </c>
@@ -7184,47 +7184,47 @@
         <v>2</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="D36" s="33"/>
     </row>
-    <row r="37" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="30" customFormat="1">
       <c r="A37" s="29" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="B37" s="30">
         <v>0</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="D37" s="33"/>
     </row>
-    <row r="38" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="30" customFormat="1">
       <c r="A38" s="30" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="B38" s="28">
         <v>1E+18</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="D38" s="33"/>
     </row>
-    <row r="39" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="30" customFormat="1">
       <c r="A39" s="30" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="B39" s="30">
         <v>1</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="D39" s="33"/>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A40" s="11" t="s">
         <v>32</v>
       </c>
@@ -7237,7 +7237,7 @@
       <c r="D40" s="11"/>
       <c r="E40" s="13"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A43" s="11" t="s">
         <v>29</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" s="30" customFormat="1">
       <c r="A44" s="30" t="s">
         <v>31</v>
       </c>
@@ -7274,7 +7274,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="46" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A46" s="11" t="s">
         <v>34</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" s="30" t="s">
         <v>632</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" s="30" customFormat="1">
       <c r="B48" s="25"/>
       <c r="D48" s="2"/>
     </row>
@@ -7314,7 +7314,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7327,37 +7326,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="30" customWidth="1"/>
     <col min="2" max="2" width="47" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="30" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="30" customWidth="1"/>
-    <col min="5" max="6" width="24.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="30" customWidth="1"/>
+    <col min="5" max="6" width="24.1640625" style="30" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="30" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="30" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="30" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="30" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="30" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="30" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="30"/>
-    <col min="17" max="17" width="11.44140625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="30"/>
+    <col min="17" max="17" width="11.5" style="30" customWidth="1"/>
     <col min="18" max="18" width="23" style="30" customWidth="1"/>
     <col min="19" max="19" width="27.6640625" style="30" customWidth="1"/>
-    <col min="20" max="20" width="46.109375" style="30" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="30"/>
+    <col min="20" max="20" width="46.1640625" style="30" customWidth="1"/>
+    <col min="21" max="23" width="11.5" style="30"/>
     <col min="24" max="24" width="13.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="30"/>
+    <col min="25" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7393,7 +7392,7 @@
       <c r="Y1" s="65"/>
       <c r="Z1" s="65"/>
     </row>
-    <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7410,7 +7409,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7487,7 +7486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="35" customFormat="1">
       <c r="A4" s="35" t="b">
         <v>1</v>
       </c>
@@ -7506,7 +7505,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7525,7 +7524,7 @@
       </c>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7544,7 +7543,7 @@
       </c>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26">
       <c r="B7" s="30" t="s">
         <v>21</v>
       </c>
@@ -7563,7 +7562,7 @@
       </c>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26">
       <c r="B8" s="30" t="s">
         <v>21</v>
       </c>
@@ -7582,7 +7581,7 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26">
       <c r="B9" s="30" t="s">
         <v>21</v>
       </c>
@@ -7601,7 +7600,7 @@
       </c>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26">
       <c r="B10" s="30" t="s">
         <v>21</v>
       </c>
@@ -7620,7 +7619,7 @@
       </c>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26">
       <c r="B11" s="30" t="s">
         <v>21</v>
       </c>
@@ -7639,7 +7638,7 @@
       </c>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26">
       <c r="B12" s="30" t="s">
         <v>21</v>
       </c>
@@ -7658,7 +7657,7 @@
       </c>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26">
       <c r="B13" s="30" t="s">
         <v>21</v>
       </c>
@@ -7677,7 +7676,7 @@
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="35" customFormat="1">
       <c r="A14" s="35" t="b">
         <v>1</v>
       </c>
@@ -7696,7 +7695,7 @@
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
@@ -7715,7 +7714,7 @@
       </c>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7734,7 +7733,7 @@
       </c>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
@@ -7753,7 +7752,7 @@
       </c>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7772,7 +7771,7 @@
       </c>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7791,7 +7790,7 @@
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7810,7 +7809,7 @@
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7829,7 +7828,7 @@
       </c>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7848,7 +7847,7 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="43" customFormat="1">
       <c r="A23" s="43" t="b">
         <v>1</v>
       </c>
@@ -7865,7 +7864,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="29" customFormat="1">
       <c r="B24" s="29" t="s">
         <v>21</v>
       </c>
@@ -7887,7 +7886,7 @@
       </c>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B25" s="38" t="s">
         <v>22</v>
       </c>
@@ -7924,7 +7923,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" s="29" customFormat="1">
       <c r="B26" s="29" t="s">
         <v>21</v>
       </c>
@@ -7942,7 +7941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="54" customFormat="1">
       <c r="B27" s="54" t="s">
         <v>21</v>
       </c>
@@ -7979,7 +7978,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" s="29" customFormat="1">
       <c r="B28" s="29" t="s">
         <v>21</v>
       </c>
@@ -7997,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B29" s="29" t="s">
         <v>21</v>
       </c>
@@ -8015,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B30" s="29" t="s">
         <v>21</v>
       </c>
@@ -8033,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B31" s="29" t="s">
         <v>21</v>
       </c>
@@ -8051,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B32" s="29" t="s">
         <v>21</v>
       </c>
@@ -8070,7 +8069,7 @@
       </c>
       <c r="P32" s="30"/>
     </row>
-    <row r="33" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" s="44" customFormat="1">
       <c r="A33" s="44" t="b">
         <v>1</v>
       </c>
@@ -8087,7 +8086,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15">
       <c r="A34" s="29"/>
       <c r="B34" s="29" t="s">
         <v>21</v>
@@ -8117,7 +8116,7 @@
       <c r="O34" s="3"/>
       <c r="Q34" s="37"/>
     </row>
-    <row r="35" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" s="50" customFormat="1" ht="15">
       <c r="B35" s="50" t="s">
         <v>21</v>
       </c>
@@ -8156,7 +8155,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="15">
       <c r="A36" s="29"/>
       <c r="B36" s="29" t="s">
         <v>21</v>
@@ -8183,7 +8182,7 @@
       <c r="O36" s="3"/>
       <c r="Q36" s="37"/>
     </row>
-    <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="15">
       <c r="A37" s="29"/>
       <c r="B37" s="29" t="s">
         <v>21</v>
@@ -8210,7 +8209,7 @@
       <c r="O37" s="3"/>
       <c r="Q37" s="37"/>
     </row>
-    <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="15">
       <c r="A38" s="29"/>
       <c r="B38" s="29" t="s">
         <v>21</v>
@@ -8237,7 +8236,7 @@
       <c r="O38" s="3"/>
       <c r="Q38" s="37"/>
     </row>
-    <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="15">
       <c r="A39" s="29"/>
       <c r="B39" s="29" t="s">
         <v>21</v>
@@ -8264,7 +8263,7 @@
       <c r="O39" s="3"/>
       <c r="Q39" s="37"/>
     </row>
-    <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="15">
       <c r="A40" s="29"/>
       <c r="B40" s="29" t="s">
         <v>21</v>
@@ -8291,7 +8290,7 @@
       <c r="O40" s="3"/>
       <c r="Q40" s="37"/>
     </row>
-    <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="15">
       <c r="A41" s="29"/>
       <c r="B41" s="29" t="s">
         <v>21</v>
@@ -8318,7 +8317,7 @@
       <c r="O41" s="3"/>
       <c r="Q41" s="37"/>
     </row>
-    <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="15">
       <c r="A42" s="29"/>
       <c r="B42" s="29" t="s">
         <v>21</v>
@@ -8345,7 +8344,7 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="37"/>
     </row>
-    <row r="43" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" s="44" customFormat="1">
       <c r="A43" s="44" t="b">
         <v>1</v>
       </c>
@@ -8362,7 +8361,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B44" s="29" t="s">
         <v>21</v>
       </c>
@@ -8383,7 +8382,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B45" s="38" t="s">
         <v>22</v>
       </c>
@@ -8424,7 +8423,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B46" s="29" t="s">
         <v>21</v>
       </c>
@@ -8445,7 +8444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="29" customFormat="1">
       <c r="B47" s="29" t="s">
         <v>21</v>
       </c>
@@ -8466,7 +8465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" s="29" customFormat="1">
       <c r="B48" s="29" t="s">
         <v>21</v>
       </c>
@@ -8487,7 +8486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" s="29" customFormat="1">
       <c r="B49" s="29" t="s">
         <v>21</v>
       </c>
@@ -8505,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" s="29" customFormat="1">
       <c r="B50" s="29" t="s">
         <v>21</v>
       </c>
@@ -8526,7 +8525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" s="29" customFormat="1">
       <c r="B51" s="29" t="s">
         <v>21</v>
       </c>
@@ -8547,7 +8546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B52" s="29" t="s">
         <v>21</v>
       </c>
@@ -8568,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="44" t="b">
         <v>1</v>
       </c>
@@ -8585,7 +8584,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B54" s="29" t="s">
         <v>21</v>
       </c>
@@ -8606,7 +8605,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B55" s="38" t="s">
         <v>22</v>
       </c>
@@ -8647,7 +8646,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" s="29" customFormat="1">
       <c r="B56" s="29" t="s">
         <v>21</v>
       </c>
@@ -8665,7 +8664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" s="29" customFormat="1">
       <c r="B57" s="29" t="s">
         <v>21</v>
       </c>
@@ -8686,7 +8685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" s="29" customFormat="1">
       <c r="B58" s="29" t="s">
         <v>21</v>
       </c>
@@ -8707,7 +8706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" s="29" customFormat="1">
       <c r="B59" s="29" t="s">
         <v>21</v>
       </c>
@@ -8728,7 +8727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B60" s="29" t="s">
         <v>21</v>
       </c>
@@ -8746,7 +8745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B61" s="29" t="s">
         <v>21</v>
       </c>
@@ -8767,7 +8766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B62" s="29" t="s">
         <v>21</v>
       </c>
@@ -8788,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B63" s="29" t="s">
         <v>21</v>
       </c>
@@ -8809,7 +8808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="44" t="b">
         <v>1</v>
       </c>
@@ -8826,7 +8825,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B65" s="29" t="s">
         <v>21</v>
       </c>
@@ -8847,7 +8846,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B66" s="38" t="s">
         <v>22</v>
       </c>
@@ -8888,7 +8887,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B67" s="29" t="s">
         <v>21</v>
       </c>
@@ -8906,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B68" s="29" t="s">
         <v>21</v>
       </c>
@@ -8927,7 +8926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B69" s="29" t="s">
         <v>21</v>
       </c>
@@ -8948,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B70" s="29" t="s">
         <v>21</v>
       </c>
@@ -8969,7 +8968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B71" s="29" t="s">
         <v>21</v>
       </c>
@@ -8987,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B72" s="29" t="s">
         <v>21</v>
       </c>
@@ -9008,7 +9007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B73" s="29" t="s">
         <v>21</v>
       </c>
@@ -9029,7 +9028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B74" s="29" t="s">
         <v>21</v>
       </c>
@@ -9050,7 +9049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="44" t="b">
         <v>1</v>
       </c>
@@ -9067,7 +9066,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B76" s="29" t="s">
         <v>21</v>
       </c>
@@ -9088,7 +9087,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B77" s="38" t="s">
         <v>22</v>
       </c>
@@ -9129,7 +9128,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B78" s="38" t="s">
         <v>22</v>
       </c>
@@ -9170,7 +9169,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B79" s="29" t="s">
         <v>21</v>
       </c>
@@ -9188,7 +9187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B80" s="29" t="s">
         <v>21</v>
       </c>
@@ -9209,7 +9208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="B81" s="29" t="s">
         <v>21</v>
       </c>
@@ -9230,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="B82" s="29" t="s">
         <v>21</v>
       </c>
@@ -9251,7 +9250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="29" customFormat="1">
       <c r="B83" s="29" t="s">
         <v>21</v>
       </c>
@@ -9269,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" s="29" customFormat="1">
       <c r="B84" s="29" t="s">
         <v>21</v>
       </c>
@@ -9290,7 +9289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" s="29" customFormat="1">
       <c r="B85" s="29" t="s">
         <v>21</v>
       </c>
@@ -9311,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" s="29" customFormat="1">
       <c r="B86" s="29" t="s">
         <v>21</v>
       </c>
@@ -9332,7 +9331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" s="44" customFormat="1">
       <c r="A87" s="44" t="b">
         <v>1</v>
       </c>
@@ -9349,7 +9348,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" s="38" customFormat="1" ht="15">
       <c r="B88" s="38" t="s">
         <v>22</v>
       </c>
@@ -9390,7 +9389,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" s="38" customFormat="1" ht="15">
       <c r="B89" s="38" t="s">
         <v>22</v>
       </c>
@@ -9431,7 +9430,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20">
       <c r="B90" s="30" t="s">
         <v>21</v>
       </c>
@@ -9454,7 +9453,7 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="15">
       <c r="A91" s="47" t="b">
         <v>1</v>
       </c>
@@ -9484,7 +9483,7 @@
       <c r="Q91" s="44"/>
       <c r="R91" s="44"/>
     </row>
-    <row r="92" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A92" s="38"/>
       <c r="B92" s="48" t="s">
         <v>22</v>
@@ -9527,7 +9526,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A93" s="48"/>
       <c r="B93" s="48" t="s">
         <v>22</v>
@@ -9569,7 +9568,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A94" s="48"/>
       <c r="B94" s="48" t="s">
         <v>22</v>
@@ -9612,7 +9611,7 @@
       </c>
       <c r="T94" s="30"/>
     </row>
-    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="15">
       <c r="A95" s="47" t="b">
         <v>1</v>
       </c>
@@ -9642,7 +9641,7 @@
       <c r="Q95" s="44"/>
       <c r="R95" s="44"/>
     </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="15">
       <c r="A96" s="38"/>
       <c r="B96" s="48" t="s">
         <v>22</v>
@@ -9685,7 +9684,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="15">
       <c r="A97" s="48"/>
       <c r="B97" s="48" t="s">
         <v>22</v>
@@ -9727,7 +9726,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="15">
       <c r="A98" s="48"/>
       <c r="B98" s="48" t="s">
         <v>22</v>
@@ -9769,7 +9768,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="99" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="44" t="b">
         <v>1</v>
       </c>
@@ -9786,7 +9785,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" s="54" customFormat="1">
       <c r="B100" s="54" t="s">
         <v>21</v>
       </c>
@@ -9827,7 +9826,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B101" s="38" t="s">
         <v>22</v>
       </c>
@@ -9868,7 +9867,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" s="35" customFormat="1">
       <c r="A102" s="35" t="b">
         <v>1</v>
       </c>
@@ -9876,10 +9875,10 @@
         <v>767</v>
       </c>
       <c r="C102" s="35" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E102" s="35" t="s">
         <v>231</v>
@@ -9887,400 +9886,400 @@
       <c r="H102" s="36"/>
       <c r="I102" s="36"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18">
       <c r="F103" s="61"/>
       <c r="I103" s="30"/>
       <c r="J103" s="30"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18">
       <c r="F104" s="45"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18">
       <c r="F105" s="45"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18">
       <c r="F106" s="45"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18">
       <c r="F107" s="45"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18">
       <c r="F108" s="45"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18">
       <c r="F109" s="45"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18">
       <c r="F110" s="45"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18">
       <c r="F111" s="45"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18">
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:10">
       <c r="I113" s="30"/>
       <c r="J113" s="30"/>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:10">
       <c r="I114" s="30"/>
       <c r="J114" s="30"/>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:10">
       <c r="I115" s="30"/>
       <c r="J115" s="30"/>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:10">
       <c r="I116" s="30"/>
       <c r="J116" s="30"/>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:10">
       <c r="I117" s="30"/>
       <c r="J117" s="30"/>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:10">
       <c r="I118" s="30"/>
       <c r="J118" s="30"/>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:10">
       <c r="I119" s="30"/>
       <c r="J119" s="30"/>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:10">
       <c r="I120" s="30"/>
       <c r="J120" s="30"/>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:10">
       <c r="I121" s="30"/>
       <c r="J121" s="30"/>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:10">
       <c r="I122" s="30"/>
       <c r="J122" s="30"/>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:10">
       <c r="I123" s="30"/>
       <c r="J123" s="30"/>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:10">
       <c r="I124" s="30"/>
       <c r="J124" s="30"/>
     </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:10">
       <c r="I125" s="30"/>
       <c r="J125" s="30"/>
     </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:10">
       <c r="I126" s="30"/>
       <c r="J126" s="30"/>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:10">
       <c r="I127" s="30"/>
       <c r="J127" s="30"/>
     </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:10">
       <c r="I128" s="30"/>
       <c r="J128" s="30"/>
     </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:10">
       <c r="I129" s="30"/>
       <c r="J129" s="30"/>
     </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:10">
       <c r="I130" s="30"/>
       <c r="J130" s="30"/>
     </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:10">
       <c r="I131" s="30"/>
       <c r="J131" s="30"/>
     </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:10">
       <c r="I132" s="30"/>
       <c r="J132" s="30"/>
     </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:10">
       <c r="I133" s="30"/>
       <c r="J133" s="30"/>
     </row>
-    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:10">
       <c r="I134" s="30"/>
       <c r="J134" s="30"/>
     </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:10">
       <c r="I135" s="30"/>
       <c r="J135" s="30"/>
     </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:10">
       <c r="I136" s="30"/>
       <c r="J136" s="30"/>
     </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:10">
       <c r="I137" s="30"/>
       <c r="J137" s="30"/>
     </row>
-    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:10">
       <c r="I138" s="30"/>
       <c r="J138" s="30"/>
     </row>
-    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:10">
       <c r="I139" s="30"/>
       <c r="J139" s="30"/>
     </row>
-    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:10">
       <c r="I140" s="30"/>
       <c r="J140" s="30"/>
     </row>
-    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:10">
       <c r="I141" s="30"/>
       <c r="J141" s="30"/>
     </row>
-    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:10">
       <c r="I142" s="30"/>
       <c r="J142" s="30"/>
     </row>
-    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:10">
       <c r="I143" s="30"/>
       <c r="J143" s="30"/>
     </row>
-    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:10">
       <c r="I144" s="30"/>
       <c r="J144" s="30"/>
     </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:10">
       <c r="I145" s="30"/>
       <c r="J145" s="30"/>
     </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:10">
       <c r="I146" s="30"/>
       <c r="J146" s="30"/>
     </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:10">
       <c r="I147" s="30"/>
       <c r="J147" s="30"/>
     </row>
-    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:10">
       <c r="I148" s="30"/>
       <c r="J148" s="30"/>
     </row>
-    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:10">
       <c r="I149" s="30"/>
       <c r="J149" s="30"/>
     </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:10">
       <c r="I150" s="30"/>
       <c r="J150" s="30"/>
     </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:10">
       <c r="I151" s="30"/>
       <c r="J151" s="30"/>
     </row>
-    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:10">
       <c r="I152" s="30"/>
       <c r="J152" s="30"/>
     </row>
-    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:10">
       <c r="I153" s="30"/>
       <c r="J153" s="30"/>
     </row>
-    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:10">
       <c r="I154" s="30"/>
       <c r="J154" s="30"/>
     </row>
-    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:10">
       <c r="I155" s="30"/>
       <c r="J155" s="30"/>
     </row>
-    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:10">
       <c r="I156" s="30"/>
       <c r="J156" s="30"/>
     </row>
-    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:10">
       <c r="I157" s="30"/>
       <c r="J157" s="30"/>
     </row>
-    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:10">
       <c r="I158" s="30"/>
       <c r="J158" s="30"/>
     </row>
-    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:10">
       <c r="I159" s="30"/>
       <c r="J159" s="30"/>
     </row>
-    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:10">
       <c r="I160" s="30"/>
       <c r="J160" s="30"/>
     </row>
-    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:10">
       <c r="I161" s="30"/>
       <c r="J161" s="30"/>
     </row>
-    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:10">
       <c r="I162" s="30"/>
       <c r="J162" s="30"/>
     </row>
-    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:10">
       <c r="I163" s="30"/>
       <c r="J163" s="30"/>
     </row>
-    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:10">
       <c r="I164" s="30"/>
       <c r="J164" s="30"/>
     </row>
-    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:10">
       <c r="I165" s="30"/>
       <c r="J165" s="30"/>
     </row>
-    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:10">
       <c r="I166" s="30"/>
       <c r="J166" s="30"/>
     </row>
-    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:10">
       <c r="I167" s="30"/>
       <c r="J167" s="30"/>
     </row>
-    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:10">
       <c r="I168" s="30"/>
       <c r="J168" s="30"/>
     </row>
-    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:10">
       <c r="I169" s="30"/>
       <c r="J169" s="30"/>
     </row>
-    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:10">
       <c r="I170" s="30"/>
       <c r="J170" s="30"/>
     </row>
-    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:10">
       <c r="I171" s="30"/>
       <c r="J171" s="30"/>
     </row>
-    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:10">
       <c r="I172" s="30"/>
       <c r="J172" s="30"/>
     </row>
-    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:10">
       <c r="I173" s="30"/>
       <c r="J173" s="30"/>
     </row>
-    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:10">
       <c r="I174" s="30"/>
       <c r="J174" s="30"/>
     </row>
-    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:10">
       <c r="I175" s="30"/>
       <c r="J175" s="30"/>
     </row>
-    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:10">
       <c r="I176" s="30"/>
       <c r="J176" s="30"/>
     </row>
-    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:10">
       <c r="I177" s="30"/>
       <c r="J177" s="30"/>
     </row>
-    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:10">
       <c r="I178" s="30"/>
       <c r="J178" s="30"/>
     </row>
-    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="9:10">
       <c r="I179" s="30"/>
       <c r="J179" s="30"/>
     </row>
-    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="9:10">
       <c r="I180" s="30"/>
       <c r="J180" s="30"/>
     </row>
-    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="9:10">
       <c r="I181" s="30"/>
       <c r="J181" s="30"/>
     </row>
-    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="9:10">
       <c r="I182" s="30"/>
       <c r="J182" s="30"/>
     </row>
-    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="9:10">
       <c r="I183" s="30"/>
       <c r="J183" s="30"/>
     </row>
-    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="9:10">
       <c r="I184" s="30"/>
       <c r="J184" s="30"/>
     </row>
-    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="9:10">
       <c r="I185" s="30"/>
       <c r="J185" s="30"/>
     </row>
-    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="9:10">
       <c r="I186" s="30"/>
       <c r="J186" s="30"/>
     </row>
-    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="9:10">
       <c r="I187" s="30"/>
       <c r="J187" s="30"/>
     </row>
-    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="9:10">
       <c r="I188" s="30"/>
       <c r="J188" s="30"/>
     </row>
-    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="9:10">
       <c r="I189" s="30"/>
       <c r="J189" s="30"/>
     </row>
-    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="9:10">
       <c r="I190" s="30"/>
       <c r="J190" s="30"/>
     </row>
-    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="9:10">
       <c r="I191" s="30"/>
       <c r="J191" s="30"/>
     </row>
-    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="9:10">
       <c r="I192" s="30"/>
       <c r="J192" s="30"/>
     </row>
-    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="9:10">
       <c r="I193" s="30"/>
       <c r="J193" s="30"/>
     </row>
-    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="9:10">
       <c r="I194" s="30"/>
       <c r="J194" s="30"/>
     </row>
-    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="9:10">
       <c r="I195" s="30"/>
       <c r="J195" s="30"/>
     </row>
-    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="9:10">
       <c r="I196" s="30"/>
       <c r="J196" s="30"/>
     </row>
-    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="9:10">
       <c r="I197" s="30"/>
       <c r="J197" s="30"/>
     </row>
-    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="9:10">
       <c r="I198" s="30"/>
       <c r="J198" s="30"/>
     </row>
-    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="9:10">
       <c r="I199" s="30"/>
       <c r="J199" s="30"/>
     </row>
@@ -10290,7 +10289,6 @@
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10305,25 +10303,25 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD16"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="30" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="30" customWidth="1"/>
     <col min="4" max="4" width="71" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="30" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.44140625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="30" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="30" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="30" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="30" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" style="30" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="30"/>
+    <col min="12" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="58"/>
       <c r="C1" s="5"/>
@@ -10339,7 +10337,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="30">
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
@@ -10377,7 +10375,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="75">
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
@@ -10416,7 +10414,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="29" t="s">
         <v>628</v>
       </c>
@@ -10445,14 +10443,14 @@
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="29" t="s">
         <v>633</v>
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>772</v>
+        <v>791</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10474,14 +10472,14 @@
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="29" t="s">
         <v>635</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>773</v>
+        <v>792</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10503,14 +10501,14 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="29" t="s">
         <v>665</v>
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>774</v>
+        <v>793</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10531,14 +10529,14 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="29" t="s">
         <v>666</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>775</v>
+        <v>794</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10559,14 +10557,14 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="29" t="s">
         <v>667</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10587,14 +10585,14 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="29" t="s">
         <v>668</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>777</v>
+        <v>796</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10615,14 +10613,14 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="29" t="s">
         <v>669</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>778</v>
+        <v>797</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10643,14 +10641,14 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="29" t="s">
         <v>670</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>779</v>
+        <v>798</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10671,14 +10669,14 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="29" t="s">
         <v>690</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>780</v>
+        <v>799</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10694,14 +10692,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="29" t="s">
         <v>691</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>781</v>
+        <v>800</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10717,14 +10715,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="29" t="s">
         <v>692</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>782</v>
+        <v>801</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10740,13 +10738,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="29" t="s">
         <v>693</v>
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>783</v>
+        <v>802</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>
@@ -10761,180 +10759,179 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" s="29"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="29"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19" s="29"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2">
       <c r="B20" s="29"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2">
       <c r="B21" s="29"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22" s="29"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2">
       <c r="B23" s="29"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2">
       <c r="B24" s="29"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2">
       <c r="B25" s="29"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="29"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2">
       <c r="B27" s="29"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
       <c r="B28" s="29"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2">
       <c r="B29" s="29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2">
       <c r="B30" s="29"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2">
       <c r="B31" s="29"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2">
       <c r="B32" s="29"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="29"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="29"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="29"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="29"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="29"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="29"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="29"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="29"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="29"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="29"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" s="29"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" s="29"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="29"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" s="29"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="29"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="29"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="29"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="29"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="29"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="29"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="29"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="29"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2">
       <c r="B56" s="29"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2">
       <c r="B57" s="29"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2">
       <c r="B58" s="29"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2">
       <c r="B59" s="29"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2">
       <c r="B60" s="29"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2">
       <c r="B61" s="29"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2">
       <c r="B62" s="29"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2">
       <c r="B63" s="29"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2">
       <c r="B64" s="29"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" s="29"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="29"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" s="29"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" s="29"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" s="29"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="29"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" s="29"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2">
       <c r="B72" s="29"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2">
       <c r="B73" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10951,19 +10948,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10982,7 +10979,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11003,7 +11000,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11026,7 +11023,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11049,7 +11046,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11072,7 +11069,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11095,7 +11092,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11118,7 +11115,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11141,7 +11138,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11164,7 +11161,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11187,7 +11184,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11206,7 +11203,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11227,7 +11224,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11250,7 +11247,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11273,7 +11270,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11296,7 +11293,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11319,7 +11316,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11342,7 +11339,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11365,7 +11362,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11388,7 +11385,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11411,7 +11408,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11430,7 +11427,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11453,7 +11450,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11476,7 +11473,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11499,7 +11496,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11522,7 +11519,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11545,7 +11542,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11568,7 +11565,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11591,7 +11588,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11614,7 +11611,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11637,7 +11634,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11656,7 +11653,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11677,7 +11674,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11700,7 +11697,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11723,7 +11720,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11746,7 +11743,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11769,7 +11766,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11792,7 +11789,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11815,7 +11812,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11838,7 +11835,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11861,7 +11858,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11880,7 +11877,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11901,7 +11898,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11924,7 +11921,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11947,7 +11944,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11970,7 +11967,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11993,7 +11990,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12016,7 +12013,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12039,7 +12036,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12062,7 +12059,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12085,7 +12082,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12104,7 +12101,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12125,7 +12122,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12148,7 +12145,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12171,7 +12168,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12194,7 +12191,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12217,7 +12214,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12240,7 +12237,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12263,7 +12260,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12286,7 +12283,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12309,7 +12306,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12328,7 +12325,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12349,7 +12346,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12374,7 +12371,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12397,7 +12394,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12420,7 +12417,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12443,7 +12440,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12466,7 +12463,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12489,7 +12486,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12512,7 +12509,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12535,7 +12532,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12558,7 +12555,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12577,7 +12574,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12598,7 +12595,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12621,7 +12618,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12646,7 +12643,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12669,7 +12666,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12692,7 +12689,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12715,7 +12712,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12738,7 +12735,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12761,7 +12758,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12784,7 +12781,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12807,7 +12804,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12830,7 +12827,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12853,7 +12850,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12876,7 +12873,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12895,7 +12892,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12918,7 +12915,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12941,7 +12938,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12964,7 +12961,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12987,7 +12984,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13010,7 +13007,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13033,7 +13030,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13056,7 +13053,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13079,7 +13076,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13102,7 +13099,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13125,7 +13122,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13144,7 +13141,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13169,7 +13166,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13188,7 +13185,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13209,7 +13206,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13234,7 +13231,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13253,7 +13250,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13276,7 +13273,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13301,7 +13298,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13324,7 +13321,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13345,7 +13342,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13364,7 +13361,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13389,7 +13386,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13412,7 +13409,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13435,7 +13432,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13458,7 +13455,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13481,7 +13478,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13504,7 +13501,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13527,7 +13524,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13546,7 +13543,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13569,7 +13566,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13592,7 +13589,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13615,7 +13612,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13634,7 +13631,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13657,7 +13654,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13680,7 +13677,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13703,7 +13700,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13726,7 +13723,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13749,7 +13746,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13772,7 +13769,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13791,7 +13788,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13816,7 +13813,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13839,7 +13836,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13862,7 +13859,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13885,7 +13882,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13908,7 +13905,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13931,7 +13928,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13954,7 +13951,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13977,7 +13974,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14000,7 +13997,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14019,7 +14016,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14044,7 +14041,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14065,7 +14062,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14088,7 +14085,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14111,7 +14108,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14134,7 +14131,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14157,7 +14154,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14180,7 +14177,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14203,7 +14200,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14226,7 +14223,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14249,7 +14246,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14272,7 +14269,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14295,7 +14292,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14318,7 +14315,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14341,7 +14338,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14360,7 +14357,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14383,7 +14380,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14402,7 +14399,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14425,7 +14422,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14448,7 +14445,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14467,7 +14464,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14492,7 +14489,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14515,7 +14512,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14538,7 +14535,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14561,7 +14558,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14584,7 +14581,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14607,7 +14604,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14630,7 +14627,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14653,7 +14650,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14676,7 +14673,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14699,7 +14696,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14718,7 +14715,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14743,7 +14740,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14766,7 +14763,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14789,7 +14786,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14812,7 +14809,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14835,7 +14832,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14858,7 +14855,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14881,7 +14878,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14904,7 +14901,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14927,7 +14924,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14950,7 +14947,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14969,7 +14966,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14992,7 +14989,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15015,7 +15012,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15038,7 +15035,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15061,7 +15058,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15080,7 +15077,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15103,7 +15100,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15126,7 +15123,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15149,7 +15146,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15172,7 +15169,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15191,7 +15188,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15212,7 +15209,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15235,7 +15232,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15254,7 +15251,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15277,7 +15274,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15302,7 +15299,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15323,7 +15320,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15348,7 +15345,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15373,7 +15370,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15392,7 +15389,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15417,7 +15414,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15440,7 +15437,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15463,7 +15460,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15486,7 +15483,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15509,7 +15506,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15532,7 +15529,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15555,7 +15552,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15578,7 +15575,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15601,7 +15598,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15620,7 +15617,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15645,7 +15642,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15668,7 +15665,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15691,7 +15688,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15714,7 +15711,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15737,7 +15734,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15760,7 +15757,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15783,7 +15780,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15806,7 +15803,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15829,7 +15826,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15848,7 +15845,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15869,7 +15866,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15892,7 +15889,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15915,7 +15912,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15938,7 +15935,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15961,7 +15958,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15984,7 +15981,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16007,7 +16004,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16030,7 +16027,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16053,7 +16050,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16076,7 +16073,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16099,7 +16096,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16122,7 +16119,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16145,7 +16142,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16168,7 +16165,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16191,7 +16188,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16214,7 +16211,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16233,7 +16230,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16254,7 +16251,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16277,7 +16274,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16300,7 +16297,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16323,7 +16320,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16346,7 +16343,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16369,7 +16366,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16392,7 +16389,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16415,7 +16412,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16438,7 +16435,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16461,7 +16458,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16484,7 +16481,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16507,7 +16504,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16530,7 +16527,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16553,7 +16550,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16576,7 +16573,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16599,7 +16596,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16618,7 +16615,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16643,7 +16640,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16666,7 +16663,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16689,7 +16686,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16712,7 +16709,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16735,7 +16732,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16754,7 +16751,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16779,7 +16776,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16802,7 +16799,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16821,7 +16818,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16840,7 +16837,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16859,7 +16856,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16880,7 +16877,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16903,7 +16900,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16926,7 +16923,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16949,7 +16946,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16972,7 +16969,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16995,7 +16992,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17018,7 +17015,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17041,7 +17038,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17064,7 +17061,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17087,7 +17084,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17110,7 +17107,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17129,7 +17126,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17152,7 +17149,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17171,7 +17168,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17196,7 +17193,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17219,7 +17216,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17242,7 +17239,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17265,7 +17262,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17288,7 +17285,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17311,7 +17308,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17334,7 +17331,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17357,7 +17354,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17380,7 +17377,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17403,7 +17400,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17426,7 +17423,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17445,7 +17442,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17468,7 +17465,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17487,7 +17484,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17508,7 +17505,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17527,7 +17524,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17548,7 +17545,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17567,7 +17564,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17588,7 +17585,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17607,7 +17604,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17630,7 +17627,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17649,7 +17646,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17674,7 +17671,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17697,7 +17694,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17720,7 +17717,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17743,7 +17740,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17766,7 +17763,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17789,7 +17786,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17812,7 +17809,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17835,7 +17832,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17858,7 +17855,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17877,7 +17874,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17900,7 +17897,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17923,7 +17920,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17946,7 +17943,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17969,7 +17966,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17988,7 +17985,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18011,7 +18008,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18034,7 +18031,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18059,7 +18056,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18078,7 +18075,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18103,7 +18100,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18126,7 +18123,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18145,7 +18142,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18166,7 +18163,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18187,7 +18184,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18210,7 +18207,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18229,7 +18226,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18248,7 +18245,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18273,7 +18270,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18298,7 +18295,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18312,7 +18309,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18335,7 +18332,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18355,7 +18352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18375,7 +18372,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18395,7 +18392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18412,7 +18409,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18435,7 +18432,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18458,7 +18455,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18472,7 +18469,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18495,7 +18492,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18518,7 +18515,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18538,7 +18535,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18558,7 +18555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18575,7 +18572,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18601,7 +18598,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18630,7 +18627,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18669,7 +18666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18683,7 +18680,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18703,7 +18700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18717,7 +18714,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18737,7 +18734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18757,7 +18754,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18777,7 +18774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18797,7 +18794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18817,7 +18814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18837,7 +18834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18857,7 +18854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18877,7 +18874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18897,7 +18894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18911,7 +18908,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18931,7 +18928,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18951,7 +18948,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18967,7 +18964,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18993,7 +18990,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19034,7 +19031,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19048,7 +19045,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19068,7 +19065,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19082,7 +19079,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19104,7 +19101,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -19121,17 +19117,17 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>439</v>
       </c>
@@ -19142,7 +19138,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="29" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>585</v>
       </c>
@@ -19156,7 +19152,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="29" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>588</v>
       </c>
@@ -19170,7 +19166,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="29" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>590</v>
       </c>
@@ -19184,7 +19180,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="29" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>592</v>
       </c>
@@ -19198,7 +19194,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="29" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>594</v>
       </c>
@@ -19212,7 +19208,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="29" customFormat="1">
       <c r="A7" s="29" t="s">
         <v>438</v>
       </c>
@@ -19226,7 +19222,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="29" customFormat="1">
       <c r="A8" s="29" t="s">
         <v>597</v>
       </c>
@@ -19240,7 +19236,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="29" customFormat="1">
       <c r="A9" s="29" t="s">
         <v>599</v>
       </c>
@@ -19254,7 +19250,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>565</v>
       </c>
@@ -19268,7 +19264,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>452</v>
       </c>
@@ -19282,7 +19278,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>450</v>
       </c>
@@ -19293,8 +19289,8 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="29" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -19320,7 +19316,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>544</v>
       </c>
@@ -19361,7 +19357,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19402,7 +19398,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>538</v>
       </c>
@@ -19434,7 +19430,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>546</v>
       </c>
@@ -19466,7 +19462,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>545</v>
       </c>
@@ -19495,7 +19491,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>547</v>
       </c>
@@ -19527,7 +19523,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>548</v>
       </c>
@@ -19547,7 +19543,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>630</v>
       </c>
@@ -19570,7 +19566,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>554</v>
       </c>
@@ -19581,7 +19577,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>535</v>
       </c>
@@ -19589,7 +19585,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>537</v>
       </c>
@@ -19602,7 +19598,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
